--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>269.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>269.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L14" t="n">
         <v>270</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>12</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>40</v>
+      </c>
       <c r="L15" t="n">
         <v>270.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>270.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L17" t="n">
         <v>270.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>14</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>270.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>14</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>25</v>
+      </c>
       <c r="L19" t="n">
         <v>271.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>271.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>16</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-25</v>
+      </c>
       <c r="L21" t="n">
         <v>271.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>17</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>271</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>271.1</v>
@@ -1466,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L24" t="n">
         <v>270.7</v>
@@ -1515,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="K25" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L25" t="n">
         <v>270.1</v>
@@ -1564,7 +1586,7 @@
         <v>22</v>
       </c>
       <c r="K26" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L26" t="n">
         <v>269.7</v>
@@ -1613,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>-14.28571428571428</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L27" t="n">
         <v>269.2</v>
@@ -1662,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="K28" t="n">
-        <v>-30.43478260869566</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L28" t="n">
         <v>268.4</v>
@@ -1711,7 +1733,7 @@
         <v>27</v>
       </c>
       <c r="K29" t="n">
-        <v>-18.18181818181818</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L29" t="n">
         <v>267.7</v>
@@ -1760,7 +1782,7 @@
         <v>28</v>
       </c>
       <c r="K30" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L30" t="n">
         <v>266.9</v>
@@ -1809,7 +1831,7 @@
         <v>28</v>
       </c>
       <c r="K31" t="n">
-        <v>-40</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L31" t="n">
         <v>266.3</v>
@@ -1860,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="K32" t="n">
-        <v>-45.45454545454545</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L32" t="n">
         <v>265.4</v>
@@ -1911,7 +1933,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="n">
-        <v>-30.43478260869566</v>
+        <v>-50</v>
       </c>
       <c r="L33" t="n">
         <v>264.6</v>
@@ -1962,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="n">
-        <v>-52.38095238095239</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L34" t="n">
         <v>263.9</v>
@@ -2013,7 +2035,7 @@
         <v>33</v>
       </c>
       <c r="K35" t="n">
-        <v>-52.38095238095239</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L35" t="n">
         <v>263.4</v>
@@ -2064,7 +2086,7 @@
         <v>33</v>
       </c>
       <c r="K36" t="n">
-        <v>-47.36842105263158</v>
+        <v>-40</v>
       </c>
       <c r="L36" t="n">
         <v>262.9</v>
@@ -2115,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="K37" t="n">
-        <v>-47.36842105263158</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>262.5</v>
@@ -2166,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>-40</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>262.5</v>
@@ -2217,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>262.5</v>
@@ -2268,7 +2290,7 @@
         <v>35</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>262.6</v>
@@ -2319,7 +2341,7 @@
         <v>36</v>
       </c>
       <c r="K41" t="n">
-        <v>-30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>262.6</v>
@@ -2370,7 +2392,7 @@
         <v>38</v>
       </c>
       <c r="K42" t="n">
-        <v>-23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>263</v>
@@ -2421,7 +2443,7 @@
         <v>38</v>
       </c>
       <c r="K43" t="n">
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="L43" t="n">
         <v>263.2</v>
@@ -2472,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="K44" t="n">
-        <v>-30</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>263.3</v>
@@ -2523,7 +2545,7 @@
         <v>40</v>
       </c>
       <c r="K45" t="n">
-        <v>-22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>263.4</v>
@@ -2574,7 +2596,7 @@
         <v>40</v>
       </c>
       <c r="K46" t="n">
-        <v>-22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>263.5</v>
@@ -2625,7 +2647,7 @@
         <v>40</v>
       </c>
       <c r="K47" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>263.6</v>
@@ -2676,7 +2698,7 @@
         <v>41</v>
       </c>
       <c r="K48" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>263.7</v>
@@ -2829,7 +2851,7 @@
         <v>43</v>
       </c>
       <c r="K51" t="n">
-        <v>-6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L51" t="n">
         <v>263.5</v>
@@ -2880,7 +2902,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>263.4</v>
@@ -2931,7 +2953,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>263.3</v>
@@ -2982,7 +3004,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>263.2</v>
@@ -3033,7 +3055,7 @@
         <v>48</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L55" t="n">
         <v>263</v>
@@ -3084,7 +3106,7 @@
         <v>51</v>
       </c>
       <c r="K56" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L56" t="n">
         <v>263.1</v>
@@ -3135,7 +3157,7 @@
         <v>53</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L57" t="n">
         <v>263</v>
@@ -3186,7 +3208,7 @@
         <v>53</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.263157894736842</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>262.8</v>
@@ -3237,7 +3259,7 @@
         <v>54</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>262.7</v>
@@ -3288,7 +3310,7 @@
         <v>55</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L60" t="n">
         <v>262.8</v>
@@ -3339,7 +3361,7 @@
         <v>57</v>
       </c>
       <c r="K61" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>262.8</v>
@@ -3390,7 +3412,7 @@
         <v>58</v>
       </c>
       <c r="K62" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L62" t="n">
         <v>262.7</v>
@@ -3441,7 +3463,7 @@
         <v>59</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>262.5</v>
@@ -3492,7 +3514,7 @@
         <v>60</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L64" t="n">
         <v>262.6</v>
@@ -3543,7 +3565,7 @@
         <v>61</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L65" t="n">
         <v>262.7</v>
@@ -3594,7 +3616,7 @@
         <v>61</v>
       </c>
       <c r="K66" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>262.5</v>
@@ -3645,7 +3667,7 @@
         <v>61</v>
       </c>
       <c r="K67" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>262.5</v>
@@ -3696,7 +3718,7 @@
         <v>61</v>
       </c>
       <c r="K68" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>262.5</v>
@@ -3747,7 +3769,7 @@
         <v>61</v>
       </c>
       <c r="K69" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>262.4</v>
@@ -3798,7 +3820,7 @@
         <v>61</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>262.2</v>
@@ -3849,7 +3871,7 @@
         <v>61</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>262.2</v>
@@ -3900,7 +3922,7 @@
         <v>61</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>262.1</v>
@@ -3951,7 +3973,7 @@
         <v>63</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>262.3</v>
@@ -4002,7 +4024,7 @@
         <v>64</v>
       </c>
       <c r="K74" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>262.5</v>
@@ -4053,7 +4075,7 @@
         <v>64</v>
       </c>
       <c r="K75" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>262.8</v>
@@ -4104,7 +4126,7 @@
         <v>65</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L76" t="n">
         <v>263</v>
@@ -4155,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="K77" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L77" t="n">
         <v>263.2</v>
@@ -4206,7 +4228,7 @@
         <v>66</v>
       </c>
       <c r="K78" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L78" t="n">
         <v>263.5</v>
@@ -4257,7 +4279,7 @@
         <v>67</v>
       </c>
       <c r="K79" t="n">
-        <v>23.07692307692308</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>263.9</v>
@@ -4308,7 +4330,7 @@
         <v>68</v>
       </c>
       <c r="K80" t="n">
-        <v>7.692307692307693</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L80" t="n">
         <v>264.2</v>
@@ -4359,7 +4381,7 @@
         <v>68</v>
       </c>
       <c r="K81" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L81" t="n">
         <v>264.5</v>
@@ -4410,7 +4432,7 @@
         <v>69</v>
       </c>
       <c r="K82" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>264.7</v>
@@ -4461,7 +4483,7 @@
         <v>69</v>
       </c>
       <c r="K83" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>264.7</v>
@@ -4512,7 +4534,7 @@
         <v>69</v>
       </c>
       <c r="K84" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>264.6</v>
@@ -4563,7 +4585,7 @@
         <v>69</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>264.5</v>
@@ -4614,7 +4636,7 @@
         <v>70</v>
       </c>
       <c r="K86" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>264.6</v>
@@ -4665,7 +4687,7 @@
         <v>71</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>264.6</v>
@@ -4716,7 +4738,7 @@
         <v>72</v>
       </c>
       <c r="K88" t="n">
-        <v>27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>264.6</v>
@@ -4767,7 +4789,7 @@
         <v>72</v>
       </c>
       <c r="K89" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>264.5</v>
@@ -4818,7 +4840,7 @@
         <v>73</v>
       </c>
       <c r="K90" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L90" t="n">
         <v>264.4</v>
@@ -4869,7 +4891,7 @@
         <v>73</v>
       </c>
       <c r="K91" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>264.3</v>
@@ -4920,7 +4942,7 @@
         <v>75</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>264.1</v>
@@ -4971,7 +4993,7 @@
         <v>75</v>
       </c>
       <c r="K93" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>263.9</v>
@@ -5022,7 +5044,7 @@
         <v>77</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>263.9</v>
@@ -5073,7 +5095,7 @@
         <v>78</v>
       </c>
       <c r="K95" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L95" t="n">
         <v>263.8</v>
@@ -5175,7 +5197,7 @@
         <v>79</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>263.7</v>
@@ -5277,7 +5299,7 @@
         <v>81</v>
       </c>
       <c r="K99" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>263.6</v>
@@ -5328,7 +5350,7 @@
         <v>81</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>263.6</v>
@@ -5379,7 +5401,7 @@
         <v>81</v>
       </c>
       <c r="K101" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>263.6</v>
@@ -5430,7 +5452,7 @@
         <v>81</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>263.8</v>
@@ -5532,7 +5554,7 @@
         <v>81</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>264</v>
@@ -5583,7 +5605,7 @@
         <v>82</v>
       </c>
       <c r="K105" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>264</v>
@@ -5634,7 +5656,7 @@
         <v>82</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>263.9</v>
@@ -5685,7 +5707,7 @@
         <v>82</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L107" t="n">
         <v>263.8</v>
@@ -5736,7 +5758,7 @@
         <v>84</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>263.8</v>
@@ -5787,7 +5809,7 @@
         <v>84</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>263.9</v>
@@ -5838,7 +5860,7 @@
         <v>84</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>264</v>
@@ -5889,7 +5911,7 @@
         <v>84</v>
       </c>
       <c r="K111" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>264.1</v>
@@ -5940,7 +5962,7 @@
         <v>87</v>
       </c>
       <c r="K112" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L112" t="n">
         <v>264.5</v>
@@ -5991,7 +6013,7 @@
         <v>88</v>
       </c>
       <c r="K113" t="n">
-        <v>38.46153846153847</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L113" t="n">
         <v>264.8</v>
@@ -6042,7 +6064,7 @@
         <v>88</v>
       </c>
       <c r="K114" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L114" t="n">
         <v>265.1</v>
@@ -6093,7 +6115,7 @@
         <v>88</v>
       </c>
       <c r="K115" t="n">
-        <v>40</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L115" t="n">
         <v>265.5</v>
@@ -6144,7 +6166,7 @@
         <v>89</v>
       </c>
       <c r="K116" t="n">
-        <v>40</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L116" t="n">
         <v>266</v>
@@ -6195,7 +6217,7 @@
         <v>89</v>
       </c>
       <c r="K117" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L117" t="n">
         <v>266.5</v>
@@ -6246,7 +6268,7 @@
         <v>91</v>
       </c>
       <c r="K118" t="n">
-        <v>45.45454545454545</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L118" t="n">
         <v>267</v>
@@ -6297,7 +6319,7 @@
         <v>91</v>
       </c>
       <c r="K119" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L119" t="n">
         <v>267.5</v>
@@ -6348,7 +6370,7 @@
         <v>93</v>
       </c>
       <c r="K120" t="n">
-        <v>66.66666666666666</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L120" t="n">
         <v>268.2</v>
@@ -6399,7 +6421,7 @@
         <v>95</v>
       </c>
       <c r="K121" t="n">
-        <v>42.85714285714285</v>
+        <v>25</v>
       </c>
       <c r="L121" t="n">
         <v>268.7</v>
@@ -6450,7 +6472,7 @@
         <v>97</v>
       </c>
       <c r="K122" t="n">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L122" t="n">
         <v>269.1</v>
@@ -6501,7 +6523,7 @@
         <v>101</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L123" t="n">
         <v>269.2</v>
@@ -6552,7 +6574,7 @@
         <v>103</v>
       </c>
       <c r="K124" t="n">
-        <v>9.090909090909092</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L124" t="n">
         <v>269.1</v>
@@ -6603,7 +6625,7 @@
         <v>103</v>
       </c>
       <c r="K125" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>269</v>
@@ -6654,7 +6676,7 @@
         <v>104</v>
       </c>
       <c r="K126" t="n">
-        <v>18.18181818181818</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L126" t="n">
         <v>268.9</v>
@@ -6705,7 +6727,7 @@
         <v>105</v>
       </c>
       <c r="K127" t="n">
-        <v>13.04347826086956</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L127" t="n">
         <v>268.7</v>
@@ -6756,7 +6778,7 @@
         <v>108</v>
       </c>
       <c r="K128" t="n">
-        <v>-8.333333333333332</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L128" t="n">
         <v>268</v>
@@ -6807,7 +6829,7 @@
         <v>109</v>
       </c>
       <c r="K129" t="n">
-        <v>-4</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>267.4</v>
@@ -6858,7 +6880,7 @@
         <v>111</v>
       </c>
       <c r="K130" t="n">
-        <v>3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L130" t="n">
         <v>266.8</v>
@@ -6909,7 +6931,7 @@
         <v>114</v>
       </c>
       <c r="K131" t="n">
-        <v>-6.666666666666667</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L131" t="n">
         <v>266.1</v>
@@ -6960,7 +6982,7 @@
         <v>115</v>
       </c>
       <c r="K132" t="n">
-        <v>-21.42857142857143</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L132" t="n">
         <v>265.1</v>
@@ -7011,7 +7033,7 @@
         <v>118</v>
       </c>
       <c r="K133" t="n">
-        <v>-26.66666666666667</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L133" t="n">
         <v>264.2</v>
@@ -7062,7 +7084,7 @@
         <v>119</v>
       </c>
       <c r="K134" t="n">
-        <v>-22.58064516129032</v>
+        <v>-37.5</v>
       </c>
       <c r="L134" t="n">
         <v>263.6</v>
@@ -7113,7 +7135,7 @@
         <v>120</v>
       </c>
       <c r="K135" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L135" t="n">
         <v>262.9</v>
@@ -7164,7 +7186,7 @@
         <v>121</v>
       </c>
       <c r="K136" t="n">
-        <v>-25</v>
+        <v>-37.5</v>
       </c>
       <c r="L136" t="n">
         <v>262.2</v>
@@ -7215,7 +7237,7 @@
         <v>122</v>
       </c>
       <c r="K137" t="n">
-        <v>-27.27272727272727</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L137" t="n">
         <v>261.5</v>
@@ -7266,7 +7288,7 @@
         <v>130</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L138" t="n">
         <v>261.9</v>
@@ -7317,7 +7339,7 @@
         <v>130</v>
       </c>
       <c r="K139" t="n">
-        <v>-7.692307692307693</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L139" t="n">
         <v>262.2</v>
@@ -7368,7 +7390,7 @@
         <v>131</v>
       </c>
       <c r="K140" t="n">
-        <v>-10.52631578947368</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L140" t="n">
         <v>262.4</v>
@@ -7419,7 +7441,7 @@
         <v>131</v>
       </c>
       <c r="K141" t="n">
-        <v>-5.555555555555555</v>
+        <v>37.5</v>
       </c>
       <c r="L141" t="n">
         <v>262.9</v>
@@ -7470,7 +7492,7 @@
         <v>134</v>
       </c>
       <c r="K142" t="n">
-        <v>-18.91891891891892</v>
+        <v>37.5</v>
       </c>
       <c r="L142" t="n">
         <v>263.2</v>
@@ -7521,7 +7543,7 @@
         <v>136</v>
       </c>
       <c r="K143" t="n">
-        <v>-2.857142857142857</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L143" t="n">
         <v>264</v>
@@ -7572,7 +7594,7 @@
         <v>137</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L144" t="n">
         <v>264.6</v>
@@ -7623,7 +7645,7 @@
         <v>138</v>
       </c>
       <c r="K145" t="n">
-        <v>2.857142857142857</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L145" t="n">
         <v>265.4</v>
@@ -7674,7 +7696,7 @@
         <v>138</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L146" t="n">
         <v>266.1</v>
@@ -7725,7 +7747,7 @@
         <v>139</v>
       </c>
       <c r="K147" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L147" t="n">
         <v>267</v>
@@ -7776,7 +7798,7 @@
         <v>141</v>
       </c>
       <c r="K148" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L148" t="n">
         <v>266.9</v>
@@ -7827,7 +7849,7 @@
         <v>142</v>
       </c>
       <c r="K149" t="n">
-        <v>3.03030303030303</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L149" t="n">
         <v>266.7</v>
@@ -7878,7 +7900,7 @@
         <v>144</v>
       </c>
       <c r="K150" t="n">
-        <v>-9.090909090909092</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L150" t="n">
         <v>266.2</v>
@@ -7929,7 +7951,7 @@
         <v>144</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L151" t="n">
         <v>265.7</v>
@@ -7980,7 +8002,7 @@
         <v>146</v>
       </c>
       <c r="K152" t="n">
-        <v>9.67741935483871</v>
+        <v>-20</v>
       </c>
       <c r="L152" t="n">
         <v>265.7</v>
@@ -8031,7 +8053,7 @@
         <v>147</v>
       </c>
       <c r="K153" t="n">
-        <v>17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>265.4</v>
@@ -8082,7 +8104,7 @@
         <v>149</v>
       </c>
       <c r="K154" t="n">
-        <v>20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L154" t="n">
         <v>265.4</v>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S154"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +771,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,22 +806,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L13" t="n">
-        <v>269.8</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L14" t="n">
-        <v>270</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40</v>
-      </c>
-      <c r="L15" t="n">
-        <v>270.3</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,22 +946,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>14</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L16" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>14</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L17" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1016,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>14</v>
-      </c>
-      <c r="K18" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L18" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,22 +1051,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>14</v>
-      </c>
-      <c r="K19" t="n">
-        <v>25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,22 +1086,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>14</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>271.3</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>271.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>17</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>270.45</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1435,24 +1191,10 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>18</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L23" t="n">
-        <v>271.1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>270.45</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>20</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L24" t="n">
-        <v>270.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>270.35</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>22</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L25" t="n">
-        <v>270.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>22</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L26" t="n">
-        <v>269.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>23</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L27" t="n">
-        <v>269.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>269.95</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>26</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L28" t="n">
-        <v>268.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>27</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L29" t="n">
-        <v>267.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>28</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L30" t="n">
-        <v>266.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>28</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L31" t="n">
-        <v>266.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="N31" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J32" t="n">
-        <v>30</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L32" t="n">
-        <v>265.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>268.7666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>32</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L33" t="n">
-        <v>264.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>267.85</v>
-      </c>
-      <c r="N33" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>33</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L34" t="n">
-        <v>263.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="N34" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>33</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L35" t="n">
-        <v>263.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>266.75</v>
-      </c>
-      <c r="N35" t="n">
-        <v>267.9333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>33</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L36" t="n">
-        <v>262.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="N36" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>33</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L37" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>265.85</v>
-      </c>
-      <c r="N37" t="n">
-        <v>267.4666666666666</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>34</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L38" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>265.45</v>
-      </c>
-      <c r="N38" t="n">
-        <v>267.2333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>35</v>
-      </c>
-      <c r="K39" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L39" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>267.1</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>35</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L40" t="n">
-        <v>262.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>264.75</v>
-      </c>
-      <c r="N40" t="n">
-        <v>266.9333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>36</v>
-      </c>
-      <c r="K41" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>262.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>264.45</v>
-      </c>
-      <c r="N41" t="n">
-        <v>266.6666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>38</v>
-      </c>
-      <c r="K42" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>264.2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>266.4666666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>38</v>
-      </c>
-      <c r="K43" t="n">
-        <v>60</v>
-      </c>
-      <c r="L43" t="n">
-        <v>263.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="N43" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>40</v>
-      </c>
-      <c r="K44" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>263.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>263.6</v>
-      </c>
-      <c r="N44" t="n">
-        <v>265.9666666666666</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>40</v>
-      </c>
-      <c r="K45" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L45" t="n">
-        <v>263.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>265.6333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>40</v>
-      </c>
-      <c r="K46" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L46" t="n">
-        <v>263.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>265.3666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>40</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>263.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>263.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>41</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>263.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="N48" t="n">
-        <v>264.8666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>41</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>263.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="N49" t="n">
-        <v>264.6333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>42</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>263.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>264.3666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>43</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L51" t="n">
-        <v>263.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>263.05</v>
-      </c>
-      <c r="N51" t="n">
-        <v>264.1333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>45</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L52" t="n">
-        <v>263.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="N52" t="n">
-        <v>263.9333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>45</v>
-      </c>
-      <c r="K53" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" t="n">
-        <v>263.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>263.25</v>
-      </c>
-      <c r="N53" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>47</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L54" t="n">
-        <v>263.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>263.25</v>
-      </c>
-      <c r="N54" t="n">
-        <v>263.4666666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>48</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L55" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="N55" t="n">
-        <v>263.2666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>51</v>
-      </c>
-      <c r="K56" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L56" t="n">
-        <v>263.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="N56" t="n">
-        <v>263.1666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>53</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L57" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="N57" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J58" t="n">
-        <v>53</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L58" t="n">
-        <v>262.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>263.25</v>
-      </c>
-      <c r="N58" t="n">
-        <v>263</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2446,19 @@
         <v>266.3166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>262.7</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="N59" t="n">
-        <v>262.9666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2485,23 @@
         <v>266.1833333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="K60" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L60" t="n">
-        <v>262.8</v>
+        <v>263</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="N60" t="n">
-        <v>263</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2528,23 @@
         <v>266.0333333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="K61" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L61" t="n">
-        <v>262.8</v>
+        <v>263</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>263.15</v>
-      </c>
-      <c r="N61" t="n">
-        <v>262.9666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2571,23 @@
         <v>265.9</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L62" t="n">
-        <v>262.7</v>
+        <v>263</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>263.05</v>
-      </c>
-      <c r="N62" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2614,23 @@
         <v>265.75</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>262.5</v>
+        <v>263</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="N63" t="n">
-        <v>263</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2657,23 @@
         <v>265.6166666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="K64" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L64" t="n">
-        <v>262.6</v>
+        <v>263</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="N64" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2700,23 @@
         <v>265.4833333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K65" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L65" t="n">
-        <v>262.7</v>
+        <v>263</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>262.85</v>
-      </c>
-      <c r="N65" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2743,23 @@
         <v>265.3666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>262.5</v>
+        <v>263</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="N66" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2786,23 @@
         <v>265.25</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>262.5</v>
+        <v>263</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>262.75</v>
-      </c>
-      <c r="N67" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2829,23 @@
         <v>265.1166666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L68" t="n">
-        <v>262.5</v>
+        <v>263</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>262.65</v>
-      </c>
-      <c r="N68" t="n">
-        <v>263</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2872,23 @@
         <v>265.0166666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K69" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L69" t="n">
-        <v>262.4</v>
+        <v>263</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>262.55</v>
-      </c>
-      <c r="N69" t="n">
-        <v>262.9333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +2915,23 @@
         <v>264.9</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>262.2</v>
+        <v>263</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="N70" t="n">
-        <v>262.8666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2958,23 @@
         <v>264.75</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K71" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>262.2</v>
+        <v>263</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="N71" t="n">
-        <v>262.8333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +3001,23 @@
         <v>264.6</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>262.1</v>
+        <v>263</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="N72" t="n">
-        <v>262.7333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3044,23 @@
         <v>264.5</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="K73" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>262.3</v>
+        <v>263</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="N73" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3087,23 @@
         <v>264.3666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="K74" t="n">
-        <v>100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>262.5</v>
+        <v>263</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>262.55</v>
-      </c>
-      <c r="N74" t="n">
-        <v>262.7666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3130,23 @@
         <v>264.2333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="K75" t="n">
-        <v>100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>262.8</v>
+        <v>263</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>262.75</v>
-      </c>
-      <c r="N75" t="n">
-        <v>262.8333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3173,23 @@
         <v>264.1166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="K76" t="n">
-        <v>50</v>
-      </c>
-      <c r="L76" t="n">
-        <v>263</v>
+        <v>263</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>262.75</v>
-      </c>
-      <c r="N76" t="n">
-        <v>262.8666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3219,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>50</v>
-      </c>
-      <c r="L77" t="n">
-        <v>263.2</v>
+        <v>263</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>262.85</v>
-      </c>
-      <c r="N77" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3257,23 @@
         <v>263.9</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="K78" t="n">
-        <v>60</v>
-      </c>
-      <c r="L78" t="n">
-        <v>263.5</v>
+        <v>263</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>263</v>
-      </c>
-      <c r="N78" t="n">
-        <v>262.9333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3300,23 @@
         <v>263.8166666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="K79" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L79" t="n">
-        <v>263.9</v>
+        <v>263</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>263.15</v>
-      </c>
-      <c r="N79" t="n">
-        <v>263</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3346,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L80" t="n">
-        <v>264.2</v>
+        <v>263</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="N80" t="n">
-        <v>263.0666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3387,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L81" t="n">
-        <v>264.5</v>
+        <v>263</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>263.35</v>
-      </c>
-      <c r="N81" t="n">
-        <v>263.1666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3428,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>264.7</v>
+        <v>263</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="N82" t="n">
-        <v>263.1666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3469,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L83" t="n">
-        <v>264.7</v>
+        <v>263</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>263.5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>263.1666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3510,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L84" t="n">
-        <v>264.6</v>
+        <v>263</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>263.55</v>
-      </c>
-      <c r="N84" t="n">
-        <v>263.2333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3551,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>264.5</v>
+        <v>263</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>263.65</v>
-      </c>
-      <c r="N85" t="n">
-        <v>263.3333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3592,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>20</v>
-      </c>
-      <c r="L86" t="n">
-        <v>264.6</v>
+        <v>263</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>263.8</v>
-      </c>
-      <c r="N86" t="n">
-        <v>263.3666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3633,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>264.6</v>
+        <v>263</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="N87" t="n">
-        <v>263.4333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3674,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>264.6</v>
+        <v>263</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>264.05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>263.5333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3715,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>264.5</v>
+        <v>263</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>264.2</v>
-      </c>
-      <c r="N89" t="n">
-        <v>263.6</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3756,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>264.4</v>
+        <v>263</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="N90" t="n">
-        <v>263.6</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3797,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>264.3</v>
+        <v>263</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="N91" t="n">
-        <v>263.6666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3838,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>264.1</v>
+        <v>263</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="N92" t="n">
-        <v>263.6333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3879,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L93" t="n">
-        <v>263.9</v>
+        <v>263</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="N93" t="n">
-        <v>263.6333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3917,23 @@
         <v>263.35</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>263.9</v>
+        <v>263</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>264.25</v>
-      </c>
-      <c r="N94" t="n">
-        <v>263.6666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3963,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L95" t="n">
-        <v>263.8</v>
+        <v>263</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N95" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4004,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>263.7</v>
+        <v>263</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N96" t="n">
-        <v>263.7666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4045,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L97" t="n">
-        <v>263.7</v>
+        <v>263</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N97" t="n">
-        <v>263.8333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4086,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>263.7</v>
+        <v>263</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N98" t="n">
-        <v>263.9333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4127,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>263.6</v>
+        <v>263</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>264.05</v>
-      </c>
-      <c r="N99" t="n">
-        <v>264</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4168,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>263.6</v>
+        <v>263</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>264</v>
-      </c>
-      <c r="N100" t="n">
-        <v>264.0666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4209,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>263.6</v>
+        <v>263</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>263.95</v>
-      </c>
-      <c r="N101" t="n">
-        <v>264.1333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4250,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>263.8</v>
+        <v>263</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>263.95</v>
-      </c>
-      <c r="N102" t="n">
-        <v>264.2</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4291,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J103" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>263.95</v>
-      </c>
-      <c r="N103" t="n">
-        <v>264.2</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4332,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L104" t="n">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>263.95</v>
-      </c>
-      <c r="N104" t="n">
-        <v>264.1666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4373,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="N105" t="n">
-        <v>264.1</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4414,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J106" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L106" t="n">
-        <v>263.9</v>
+        <v>263</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>263.8</v>
-      </c>
-      <c r="N106" t="n">
-        <v>264.0666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4455,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>263.8</v>
+        <v>263</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>263.75</v>
-      </c>
-      <c r="N107" t="n">
-        <v>264.0333333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,31 +4493,23 @@
         <v>263.4833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>263.8</v>
+        <v>263</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>263.75</v>
-      </c>
-      <c r="N108" t="n">
-        <v>264.0333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,31 +4536,23 @@
         <v>263.5</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="K109" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L109" t="n">
-        <v>263.9</v>
+        <v>263</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>263.75</v>
-      </c>
-      <c r="N109" t="n">
-        <v>264</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4582,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L110" t="n">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>263.8</v>
-      </c>
-      <c r="N110" t="n">
-        <v>264</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4623,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J111" t="n">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L111" t="n">
-        <v>264.1</v>
+        <v>263</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>263.85</v>
-      </c>
-      <c r="N111" t="n">
-        <v>264</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4664,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L112" t="n">
-        <v>264.5</v>
+        <v>263</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N112" t="n">
-        <v>264.1333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4705,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J113" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L113" t="n">
-        <v>264.8</v>
+        <v>263</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="N113" t="n">
-        <v>264.2333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4746,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L114" t="n">
-        <v>265.1</v>
+        <v>263</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>264.55</v>
-      </c>
-      <c r="N114" t="n">
-        <v>264.3333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4787,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L115" t="n">
-        <v>265.5</v>
+        <v>263</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>264.75</v>
-      </c>
-      <c r="N115" t="n">
-        <v>264.4333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4828,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J116" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L116" t="n">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>264.95</v>
-      </c>
-      <c r="N116" t="n">
-        <v>264.5333333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4869,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J117" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>60</v>
-      </c>
-      <c r="L117" t="n">
-        <v>266.5</v>
+        <v>263</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>265.15</v>
-      </c>
-      <c r="N117" t="n">
-        <v>264.6666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4910,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L118" t="n">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="N118" t="n">
-        <v>264.8333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4951,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L119" t="n">
-        <v>267.5</v>
+        <v>263</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="N119" t="n">
-        <v>265</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4992,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L120" t="n">
-        <v>268.2</v>
+        <v>263</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>266.1</v>
-      </c>
-      <c r="N120" t="n">
-        <v>265.2666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5033,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>25</v>
-      </c>
-      <c r="L121" t="n">
-        <v>268.7</v>
+        <v>263</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="N121" t="n">
-        <v>265.4666666666666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,27 +5076,17 @@
       <c r="I122" t="n">
         <v>1</v>
       </c>
-      <c r="J122" t="n">
-        <v>97</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L122" t="n">
-        <v>269.1</v>
+        <v>263</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="N122" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
+        <v>1.029220532319392</v>
       </c>
     </row>
     <row r="123">
@@ -6517,28 +5115,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>101</v>
-      </c>
-      <c r="K123" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L123" t="n">
-        <v>269.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>267</v>
-      </c>
-      <c r="N123" t="n">
-        <v>266</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5150,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J124" t="n">
-        <v>103</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L124" t="n">
-        <v>269.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>267.1</v>
-      </c>
-      <c r="N124" t="n">
-        <v>266.0666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5185,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J125" t="n">
-        <v>103</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L125" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>267.25</v>
-      </c>
-      <c r="N125" t="n">
-        <v>266.1666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5220,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>104</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L126" t="n">
-        <v>268.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>267.45</v>
-      </c>
-      <c r="N126" t="n">
-        <v>266.2666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5255,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>105</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L127" t="n">
-        <v>268.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="N127" t="n">
-        <v>266.3333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5290,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J128" t="n">
-        <v>108</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L128" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>267.5</v>
-      </c>
-      <c r="N128" t="n">
-        <v>266.2666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5325,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J129" t="n">
-        <v>109</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L129" t="n">
-        <v>267.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>267.45</v>
-      </c>
-      <c r="N129" t="n">
-        <v>266.2666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5360,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>111</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L130" t="n">
-        <v>266.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>267.5</v>
-      </c>
-      <c r="N130" t="n">
-        <v>266.3333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5395,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J131" t="n">
-        <v>114</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L131" t="n">
-        <v>266.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>267.4</v>
-      </c>
-      <c r="N131" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5430,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J132" t="n">
-        <v>115</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L132" t="n">
-        <v>265.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>267.1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>266.2333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,1099 +5465,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J133" t="n">
-        <v>118</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L133" t="n">
-        <v>264.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>266.7</v>
-      </c>
-      <c r="N133" t="n">
-        <v>266.0666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>260</v>
-      </c>
-      <c r="C134" t="n">
-        <v>260</v>
-      </c>
-      <c r="D134" t="n">
-        <v>260</v>
-      </c>
-      <c r="E134" t="n">
-        <v>260</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2156.6067</v>
-      </c>
-      <c r="G134" t="n">
-        <v>265.05</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J134" t="n">
-        <v>119</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L134" t="n">
-        <v>263.6</v>
-      </c>
-      <c r="M134" t="n">
-        <v>266.35</v>
-      </c>
-      <c r="N134" t="n">
-        <v>265.9333333333333</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>259</v>
-      </c>
-      <c r="C135" t="n">
-        <v>259</v>
-      </c>
-      <c r="D135" t="n">
-        <v>259</v>
-      </c>
-      <c r="E135" t="n">
-        <v>259</v>
-      </c>
-      <c r="F135" t="n">
-        <v>6439.3943</v>
-      </c>
-      <c r="G135" t="n">
-        <v>264.95</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J135" t="n">
-        <v>120</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L135" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="M135" t="n">
-        <v>265.95</v>
-      </c>
-      <c r="N135" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>259</v>
-      </c>
-      <c r="C136" t="n">
-        <v>260</v>
-      </c>
-      <c r="D136" t="n">
-        <v>260</v>
-      </c>
-      <c r="E136" t="n">
-        <v>259</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3798.459</v>
-      </c>
-      <c r="G136" t="n">
-        <v>264.8833333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J136" t="n">
-        <v>121</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L136" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="M136" t="n">
-        <v>265.55</v>
-      </c>
-      <c r="N136" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>259</v>
-      </c>
-      <c r="C137" t="n">
-        <v>259</v>
-      </c>
-      <c r="D137" t="n">
-        <v>259</v>
-      </c>
-      <c r="E137" t="n">
-        <v>259</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1902.1978</v>
-      </c>
-      <c r="G137" t="n">
-        <v>264.8</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J137" t="n">
-        <v>122</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L137" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="M137" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="N137" t="n">
-        <v>265.5666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>267</v>
-      </c>
-      <c r="C138" t="n">
-        <v>267</v>
-      </c>
-      <c r="D138" t="n">
-        <v>267</v>
-      </c>
-      <c r="E138" t="n">
-        <v>267</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1070</v>
-      </c>
-      <c r="G138" t="n">
-        <v>264.8333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J138" t="n">
-        <v>130</v>
-      </c>
-      <c r="K138" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L138" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="M138" t="n">
-        <v>264.95</v>
-      </c>
-      <c r="N138" t="n">
-        <v>265.6333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>267</v>
-      </c>
-      <c r="C139" t="n">
-        <v>267</v>
-      </c>
-      <c r="D139" t="n">
-        <v>267</v>
-      </c>
-      <c r="E139" t="n">
-        <v>267</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2624.1292</v>
-      </c>
-      <c r="G139" t="n">
-        <v>264.85</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J139" t="n">
-        <v>130</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L139" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="M139" t="n">
-        <v>264.8</v>
-      </c>
-      <c r="N139" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>268</v>
-      </c>
-      <c r="C140" t="n">
-        <v>268</v>
-      </c>
-      <c r="D140" t="n">
-        <v>268</v>
-      </c>
-      <c r="E140" t="n">
-        <v>268</v>
-      </c>
-      <c r="F140" t="n">
-        <v>15.1399</v>
-      </c>
-      <c r="G140" t="n">
-        <v>264.9</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>131</v>
-      </c>
-      <c r="K140" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L140" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="M140" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="N140" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>268</v>
-      </c>
-      <c r="C141" t="n">
-        <v>268</v>
-      </c>
-      <c r="D141" t="n">
-        <v>268</v>
-      </c>
-      <c r="E141" t="n">
-        <v>268</v>
-      </c>
-      <c r="F141" t="n">
-        <v>633.7463</v>
-      </c>
-      <c r="G141" t="n">
-        <v>264.95</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J141" t="n">
-        <v>131</v>
-      </c>
-      <c r="K141" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L141" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="M141" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="N141" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>268</v>
-      </c>
-      <c r="C142" t="n">
-        <v>265</v>
-      </c>
-      <c r="D142" t="n">
-        <v>268</v>
-      </c>
-      <c r="E142" t="n">
-        <v>265</v>
-      </c>
-      <c r="F142" t="n">
-        <v>210.5548</v>
-      </c>
-      <c r="G142" t="n">
-        <v>264.9666666666666</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J142" t="n">
-        <v>134</v>
-      </c>
-      <c r="K142" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L142" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="M142" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N142" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>267</v>
-      </c>
-      <c r="C143" t="n">
-        <v>267</v>
-      </c>
-      <c r="D143" t="n">
-        <v>267</v>
-      </c>
-      <c r="E143" t="n">
-        <v>267</v>
-      </c>
-      <c r="F143" t="n">
-        <v>42</v>
-      </c>
-      <c r="G143" t="n">
-        <v>265.0166666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J143" t="n">
-        <v>136</v>
-      </c>
-      <c r="K143" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L143" t="n">
-        <v>264</v>
-      </c>
-      <c r="M143" t="n">
-        <v>264.1</v>
-      </c>
-      <c r="N143" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>267</v>
-      </c>
-      <c r="C144" t="n">
-        <v>266</v>
-      </c>
-      <c r="D144" t="n">
-        <v>267</v>
-      </c>
-      <c r="E144" t="n">
-        <v>266</v>
-      </c>
-      <c r="F144" t="n">
-        <v>974.5017</v>
-      </c>
-      <c r="G144" t="n">
-        <v>265.05</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>137</v>
-      </c>
-      <c r="K144" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L144" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="M144" t="n">
-        <v>264.1</v>
-      </c>
-      <c r="N144" t="n">
-        <v>265.7666666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>267</v>
-      </c>
-      <c r="C145" t="n">
-        <v>267</v>
-      </c>
-      <c r="D145" t="n">
-        <v>267</v>
-      </c>
-      <c r="E145" t="n">
-        <v>267</v>
-      </c>
-      <c r="F145" t="n">
-        <v>55.5526</v>
-      </c>
-      <c r="G145" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J145" t="n">
-        <v>138</v>
-      </c>
-      <c r="K145" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L145" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="M145" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N145" t="n">
-        <v>265.7666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>267</v>
-      </c>
-      <c r="C146" t="n">
-        <v>267</v>
-      </c>
-      <c r="D146" t="n">
-        <v>267</v>
-      </c>
-      <c r="E146" t="n">
-        <v>267</v>
-      </c>
-      <c r="F146" t="n">
-        <v>639.9027</v>
-      </c>
-      <c r="G146" t="n">
-        <v>265.1333333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J146" t="n">
-        <v>138</v>
-      </c>
-      <c r="K146" t="n">
-        <v>50</v>
-      </c>
-      <c r="L146" t="n">
-        <v>266.1</v>
-      </c>
-      <c r="M146" t="n">
-        <v>264.15</v>
-      </c>
-      <c r="N146" t="n">
-        <v>265.7333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>268</v>
-      </c>
-      <c r="C147" t="n">
-        <v>268</v>
-      </c>
-      <c r="D147" t="n">
-        <v>268</v>
-      </c>
-      <c r="E147" t="n">
-        <v>268</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G147" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J147" t="n">
-        <v>139</v>
-      </c>
-      <c r="K147" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L147" t="n">
-        <v>267</v>
-      </c>
-      <c r="M147" t="n">
-        <v>264.25</v>
-      </c>
-      <c r="N147" t="n">
-        <v>265.7333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>267</v>
-      </c>
-      <c r="C148" t="n">
-        <v>266</v>
-      </c>
-      <c r="D148" t="n">
-        <v>267</v>
-      </c>
-      <c r="E148" t="n">
-        <v>266</v>
-      </c>
-      <c r="F148" t="n">
-        <v>719.1013</v>
-      </c>
-      <c r="G148" t="n">
-        <v>265.2166666666666</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J148" t="n">
-        <v>141</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L148" t="n">
-        <v>266.9</v>
-      </c>
-      <c r="M148" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="N148" t="n">
-        <v>265.6</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>266</v>
-      </c>
-      <c r="C149" t="n">
-        <v>265</v>
-      </c>
-      <c r="D149" t="n">
-        <v>266</v>
-      </c>
-      <c r="E149" t="n">
-        <v>265</v>
-      </c>
-      <c r="F149" t="n">
-        <v>756.2469</v>
-      </c>
-      <c r="G149" t="n">
-        <v>265.2166666666666</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J149" t="n">
-        <v>142</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L149" t="n">
-        <v>266.7</v>
-      </c>
-      <c r="M149" t="n">
-        <v>264.45</v>
-      </c>
-      <c r="N149" t="n">
-        <v>265.4333333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>263</v>
-      </c>
-      <c r="C150" t="n">
-        <v>263</v>
-      </c>
-      <c r="D150" t="n">
-        <v>263</v>
-      </c>
-      <c r="E150" t="n">
-        <v>263</v>
-      </c>
-      <c r="F150" t="n">
-        <v>734.247</v>
-      </c>
-      <c r="G150" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J150" t="n">
-        <v>144</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L150" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="M150" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="N150" t="n">
-        <v>265.1333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>264</v>
-      </c>
-      <c r="C151" t="n">
-        <v>263</v>
-      </c>
-      <c r="D151" t="n">
-        <v>264</v>
-      </c>
-      <c r="E151" t="n">
-        <v>263</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3629.2035</v>
-      </c>
-      <c r="G151" t="n">
-        <v>265.1833333333333</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J151" t="n">
-        <v>144</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L151" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="M151" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="N151" t="n">
-        <v>264.9</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>265</v>
-      </c>
-      <c r="C152" t="n">
-        <v>265</v>
-      </c>
-      <c r="D152" t="n">
-        <v>265</v>
-      </c>
-      <c r="E152" t="n">
-        <v>265</v>
-      </c>
-      <c r="F152" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G152" t="n">
-        <v>265.2333333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J152" t="n">
-        <v>146</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L152" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="M152" t="n">
-        <v>264.45</v>
-      </c>
-      <c r="N152" t="n">
-        <v>264.6666666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>264</v>
-      </c>
-      <c r="C153" t="n">
-        <v>264</v>
-      </c>
-      <c r="D153" t="n">
-        <v>264</v>
-      </c>
-      <c r="E153" t="n">
-        <v>264</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1229.0844</v>
-      </c>
-      <c r="G153" t="n">
-        <v>265.2666666666667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J153" t="n">
-        <v>147</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L153" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="M153" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="N153" t="n">
-        <v>264.5333333333334</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>266</v>
-      </c>
-      <c r="C154" t="n">
-        <v>266</v>
-      </c>
-      <c r="D154" t="n">
-        <v>266</v>
-      </c>
-      <c r="E154" t="n">
-        <v>266</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4.4774</v>
-      </c>
-      <c r="G154" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J154" t="n">
-        <v>149</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L154" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="M154" t="n">
-        <v>265</v>
-      </c>
-      <c r="N154" t="n">
-        <v>264.5333333333334</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -2061,13 +2061,17 @@
         <v>268.2333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>263</v>
+      </c>
+      <c r="K48" t="n">
+        <v>263</v>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -2102,8 +2106,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>263</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>263</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2341,13 +2357,17 @@
         <v>266.8333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>261</v>
+      </c>
+      <c r="K56" t="n">
+        <v>261</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2376,14 +2396,22 @@
         <v>266.65</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>264</v>
+      </c>
+      <c r="K57" t="n">
+        <v>261</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2439,22 @@
         <v>266.4666666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>262</v>
+      </c>
+      <c r="K58" t="n">
+        <v>261</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
@@ -2491,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K60" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2534,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K61" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2571,16 +2607,14 @@
         <v>265.9</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>263</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2620,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K63" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2657,16 +2691,14 @@
         <v>265.6166666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>263</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2700,16 +2732,14 @@
         <v>265.4833333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>262</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2743,16 +2773,14 @@
         <v>265.3666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>262</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2786,16 +2814,14 @@
         <v>265.25</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>262</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2829,16 +2855,14 @@
         <v>265.1166666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>262</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2872,16 +2896,14 @@
         <v>265.0166666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>262</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2915,16 +2937,14 @@
         <v>264.9</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>262</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2967,7 +2987,7 @@
         <v>262</v>
       </c>
       <c r="K71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3010,7 +3030,7 @@
         <v>262</v>
       </c>
       <c r="K72" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3050,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K73" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3093,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K74" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3130,16 +3150,14 @@
         <v>264.2333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>266</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3173,16 +3191,14 @@
         <v>264.1166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>264</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3223,7 +3239,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3257,16 +3273,14 @@
         <v>263.9</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>265</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3300,16 +3314,14 @@
         <v>263.8166666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>266</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3350,7 +3362,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3391,7 +3403,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3432,7 +3444,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3473,7 +3485,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3514,7 +3526,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3555,7 +3567,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3596,7 +3608,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3637,7 +3649,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3678,7 +3690,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3719,7 +3731,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3760,7 +3772,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3801,7 +3813,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3842,7 +3854,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3883,7 +3895,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3917,16 +3929,14 @@
         <v>263.35</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>264</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3967,7 +3977,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4008,7 +4018,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4049,7 +4059,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4090,7 +4100,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4131,7 +4141,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4172,7 +4182,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4213,7 +4223,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4254,7 +4264,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4295,7 +4305,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4336,7 +4346,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4377,7 +4387,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4418,7 +4428,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4459,7 +4469,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4493,16 +4503,14 @@
         <v>263.4833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>265</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4536,16 +4544,14 @@
         <v>263.5</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>265</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4586,7 +4592,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4627,7 +4633,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4668,7 +4674,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4709,7 +4715,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4750,7 +4756,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4791,7 +4797,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4832,7 +4838,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4873,7 +4879,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4914,7 +4920,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4955,7 +4961,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4996,7 +5002,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5037,7 +5043,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5074,19 +5080,19 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1.029220532319392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5118,10 +5124,16 @@
         <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>262</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>1.017900763358779</v>
       </c>
     </row>
     <row r="124">
@@ -5150,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C2" t="n">
         <v>271</v>
       </c>
       <c r="D2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E2" t="n">
         <v>271</v>
       </c>
       <c r="F2" t="n">
-        <v>1618</v>
+        <v>16116.2645</v>
       </c>
       <c r="G2" t="n">
-        <v>272.2</v>
+        <v>272.1166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>271</v>
       </c>
       <c r="F3" t="n">
-        <v>419.1193</v>
+        <v>1618</v>
       </c>
       <c r="G3" t="n">
-        <v>272.25</v>
+        <v>272.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>271</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>419.1193</v>
       </c>
       <c r="G4" t="n">
-        <v>272.3</v>
+        <v>272.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,19 +538,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="n">
-        <v>497.0111</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>272.3</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>497.0111</v>
       </c>
       <c r="G6" t="n">
-        <v>272.2666666666667</v>
+        <v>272.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>269</v>
       </c>
       <c r="F7" t="n">
-        <v>483.8605</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>272.2333333333333</v>
+        <v>272.2666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" t="n">
-        <v>1845.6814</v>
+        <v>483.8605</v>
       </c>
       <c r="G8" t="n">
-        <v>272.1833333333333</v>
+        <v>272.2333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>454.0191</v>
+        <v>1845.6814</v>
       </c>
       <c r="G9" t="n">
-        <v>272.1</v>
+        <v>272.1833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" t="n">
-        <v>642.8108999999999</v>
+        <v>454.0191</v>
       </c>
       <c r="G10" t="n">
-        <v>272.0166666666667</v>
+        <v>272.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E11" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" t="n">
-        <v>848.7084</v>
+        <v>642.8108999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9833333333333</v>
+        <v>272.0166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" t="n">
         <v>271</v>
@@ -792,13 +792,13 @@
         <v>271</v>
       </c>
       <c r="E12" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" t="n">
-        <v>519.6826</v>
+        <v>848.7084</v>
       </c>
       <c r="G12" t="n">
-        <v>271.9666666666666</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>271</v>
       </c>
       <c r="C13" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D13" t="n">
         <v>271</v>
       </c>
       <c r="E13" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F13" t="n">
-        <v>2238.732</v>
+        <v>519.6826</v>
       </c>
       <c r="G13" t="n">
-        <v>271.95</v>
+        <v>271.9666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D14" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F14" t="n">
-        <v>1389.5703</v>
+        <v>2238.732</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9833333333333</v>
+        <v>271.95</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>273</v>
       </c>
       <c r="F15" t="n">
-        <v>688.2069</v>
+        <v>1389.5703</v>
       </c>
       <c r="G15" t="n">
-        <v>272.0166666666667</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F16" t="n">
-        <v>614</v>
+        <v>688.2069</v>
       </c>
       <c r="G16" t="n">
-        <v>272.0333333333334</v>
+        <v>272.0166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>271</v>
       </c>
       <c r="F17" t="n">
-        <v>124</v>
+        <v>614</v>
       </c>
       <c r="G17" t="n">
-        <v>272.0666666666667</v>
+        <v>272.0333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>271</v>
       </c>
       <c r="F18" t="n">
-        <v>3932.52</v>
+        <v>124</v>
       </c>
       <c r="G18" t="n">
         <v>272.0666666666667</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="n">
         <v>271</v>
       </c>
       <c r="D19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E19" t="n">
         <v>271</v>
       </c>
       <c r="F19" t="n">
-        <v>2768.7177</v>
+        <v>3932.52</v>
       </c>
       <c r="G19" t="n">
-        <v>272.0833333333333</v>
+        <v>272.0666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C20" t="n">
         <v>271</v>
       </c>
       <c r="D20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E20" t="n">
         <v>271</v>
       </c>
       <c r="F20" t="n">
-        <v>14.8999</v>
+        <v>2768.7177</v>
       </c>
       <c r="G20" t="n">
         <v>272.0833333333333</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F21" t="n">
         <v>14.8999</v>
       </c>
       <c r="G21" t="n">
-        <v>272.05</v>
+        <v>272.0833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F22" t="n">
-        <v>250.3502</v>
+        <v>14.8999</v>
       </c>
       <c r="G22" t="n">
-        <v>272.0166666666667</v>
+        <v>272.05</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>250.3502</v>
       </c>
       <c r="G23" t="n">
-        <v>272</v>
+        <v>272.0166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C24" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D24" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E24" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F24" t="n">
-        <v>1997.1524</v>
+        <v>61</v>
       </c>
       <c r="G24" t="n">
-        <v>271.95</v>
+        <v>272</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F25" t="n">
-        <v>6349.6867</v>
+        <v>1997.1524</v>
       </c>
       <c r="G25" t="n">
-        <v>271.8166666666667</v>
+        <v>271.95</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>267</v>
       </c>
       <c r="F26" t="n">
-        <v>2462.8558</v>
+        <v>6349.6867</v>
       </c>
       <c r="G26" t="n">
-        <v>271.6833333333333</v>
+        <v>271.8166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F27" t="n">
-        <v>793.9385</v>
+        <v>2462.8558</v>
       </c>
       <c r="G27" t="n">
-        <v>271.5666666666667</v>
+        <v>271.6833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>266</v>
       </c>
       <c r="C28" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D28" t="n">
         <v>266</v>
       </c>
       <c r="E28" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F28" t="n">
-        <v>6604.89</v>
+        <v>793.9385</v>
       </c>
       <c r="G28" t="n">
-        <v>271.3833333333333</v>
+        <v>271.5666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C29" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D29" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E29" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F29" t="n">
-        <v>1370.8118</v>
+        <v>6604.89</v>
       </c>
       <c r="G29" t="n">
-        <v>271.2</v>
+        <v>271.3833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F30" t="n">
-        <v>363.9999</v>
+        <v>1370.8118</v>
       </c>
       <c r="G30" t="n">
-        <v>271.0333333333334</v>
+        <v>271.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>263</v>
       </c>
       <c r="F31" t="n">
-        <v>299.7668</v>
+        <v>363.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>270.85</v>
+        <v>271.0333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C32" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D32" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E32" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F32" t="n">
-        <v>8973.577499999999</v>
+        <v>299.7668</v>
       </c>
       <c r="G32" t="n">
-        <v>270.65</v>
+        <v>270.85</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E33" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F33" t="n">
-        <v>15.5157</v>
+        <v>8973.577499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>270.4833333333333</v>
+        <v>270.65</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F34" t="n">
-        <v>31.2861</v>
+        <v>15.5157</v>
       </c>
       <c r="G34" t="n">
-        <v>270.3166666666667</v>
+        <v>270.4833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>262</v>
       </c>
       <c r="F35" t="n">
-        <v>438.1511</v>
+        <v>31.2861</v>
       </c>
       <c r="G35" t="n">
-        <v>270.15</v>
+        <v>270.3166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>262</v>
       </c>
       <c r="F36" t="n">
-        <v>10.3114</v>
+        <v>438.1511</v>
       </c>
       <c r="G36" t="n">
-        <v>269.9833333333333</v>
+        <v>270.15</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>262</v>
       </c>
       <c r="F37" t="n">
-        <v>37.7043</v>
+        <v>10.3114</v>
       </c>
       <c r="G37" t="n">
-        <v>269.8166666666667</v>
+        <v>269.9833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" t="n">
-        <v>758.203</v>
+        <v>37.7043</v>
       </c>
       <c r="G38" t="n">
-        <v>269.6666666666667</v>
+        <v>269.8166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F39" t="n">
-        <v>5309.9371</v>
+        <v>758.203</v>
       </c>
       <c r="G39" t="n">
-        <v>269.5333333333334</v>
+        <v>269.6666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>264</v>
       </c>
       <c r="F40" t="n">
-        <v>1183.8496</v>
+        <v>5309.9371</v>
       </c>
       <c r="G40" t="n">
-        <v>269.4166666666667</v>
+        <v>269.5333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>1183.8496</v>
       </c>
       <c r="G41" t="n">
-        <v>269.2833333333334</v>
+        <v>269.4166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F42" t="n">
-        <v>37.7358</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>269.1833333333333</v>
+        <v>269.2833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>265</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8297</v>
+        <v>37.7358</v>
       </c>
       <c r="G43" t="n">
-        <v>269.0833333333333</v>
+        <v>269.1833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D44" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E44" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F44" t="n">
-        <v>344.4896</v>
+        <v>484.8297</v>
       </c>
       <c r="G44" t="n">
-        <v>268.9333333333333</v>
+        <v>269.0833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C45" t="n">
         <v>263</v>
       </c>
       <c r="D45" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E45" t="n">
         <v>263</v>
       </c>
       <c r="F45" t="n">
-        <v>39.9</v>
+        <v>344.4896</v>
       </c>
       <c r="G45" t="n">
-        <v>268.7666666666667</v>
+        <v>268.9333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>263</v>
       </c>
       <c r="F46" t="n">
-        <v>5685.1193</v>
+        <v>39.9</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5833333333333</v>
+        <v>268.7666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>263</v>
       </c>
       <c r="F47" t="n">
-        <v>1995</v>
+        <v>5685.1193</v>
       </c>
       <c r="G47" t="n">
-        <v>268.4</v>
+        <v>268.5833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,35 +2043,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F48" t="n">
-        <v>487.2474</v>
+        <v>1995</v>
       </c>
       <c r="G48" t="n">
-        <v>268.2333333333333</v>
+        <v>268.4</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>263</v>
-      </c>
-      <c r="K48" t="n">
-        <v>263</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -2094,10 +2090,10 @@
         <v>264</v>
       </c>
       <c r="F49" t="n">
-        <v>1406.6919</v>
+        <v>487.2474</v>
       </c>
       <c r="G49" t="n">
-        <v>268.0666666666667</v>
+        <v>268.2333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2106,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>263</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2123,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F50" t="n">
-        <v>1996</v>
+        <v>1406.6919</v>
       </c>
       <c r="G50" t="n">
-        <v>267.8833333333333</v>
+        <v>268.0666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2147,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>263</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2164,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D51" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E51" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F51" t="n">
-        <v>10937.9499</v>
+        <v>1996</v>
       </c>
       <c r="G51" t="n">
-        <v>267.7</v>
+        <v>267.8833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2202,19 +2186,19 @@
         <v>264</v>
       </c>
       <c r="C52" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D52" t="n">
         <v>264</v>
       </c>
       <c r="E52" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F52" t="n">
-        <v>15.5676</v>
+        <v>10937.9499</v>
       </c>
       <c r="G52" t="n">
-        <v>267.55</v>
+        <v>267.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2234,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C53" t="n">
         <v>264</v>
@@ -2243,13 +2227,13 @@
         <v>264</v>
       </c>
       <c r="E53" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F53" t="n">
-        <v>1592.9104</v>
+        <v>15.5676</v>
       </c>
       <c r="G53" t="n">
-        <v>267.3833333333333</v>
+        <v>267.55</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2269,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C54" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D54" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E54" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F54" t="n">
-        <v>342.4337</v>
+        <v>1592.9104</v>
       </c>
       <c r="G54" t="n">
-        <v>267.1833333333333</v>
+        <v>267.3833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2304,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C55" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D55" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E55" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>342.4337</v>
       </c>
       <c r="G55" t="n">
-        <v>266.9833333333333</v>
+        <v>267.1833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2342,32 +2326,28 @@
         <v>264</v>
       </c>
       <c r="C56" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D56" t="n">
         <v>264</v>
       </c>
       <c r="E56" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F56" t="n">
-        <v>973.5492</v>
+        <v>800</v>
       </c>
       <c r="G56" t="n">
-        <v>266.8333333333333</v>
+        <v>266.9833333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>261</v>
-      </c>
-      <c r="K56" t="n">
-        <v>261</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2378,40 +2358,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F57" t="n">
-        <v>761</v>
+        <v>973.5492</v>
       </c>
       <c r="G57" t="n">
-        <v>266.65</v>
+        <v>266.8333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>264</v>
-      </c>
-      <c r="K57" t="n">
-        <v>261</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2433,28 +2405,20 @@
         <v>262</v>
       </c>
       <c r="F58" t="n">
-        <v>425.5075</v>
+        <v>761</v>
       </c>
       <c r="G58" t="n">
-        <v>266.4666666666666</v>
+        <v>266.65</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>262</v>
-      </c>
-      <c r="K58" t="n">
-        <v>261</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2464,35 +2428,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F59" t="n">
-        <v>262.32</v>
+        <v>425.5075</v>
       </c>
       <c r="G59" t="n">
-        <v>266.3166666666667</v>
+        <v>266.4666666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>262</v>
-      </c>
-      <c r="K59" t="n">
-        <v>262</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2503,40 +2463,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C60" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D60" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E60" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F60" t="n">
-        <v>368.2878</v>
+        <v>262.32</v>
       </c>
       <c r="G60" t="n">
-        <v>266.1833333333333</v>
+        <v>266.3166666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>263</v>
-      </c>
-      <c r="K60" t="n">
-        <v>262</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2549,37 +2501,29 @@
         <v>262</v>
       </c>
       <c r="C61" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D61" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E61" t="n">
         <v>262</v>
       </c>
       <c r="F61" t="n">
-        <v>2530</v>
+        <v>368.2878</v>
       </c>
       <c r="G61" t="n">
-        <v>266.0333333333334</v>
+        <v>266.1833333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>264</v>
-      </c>
-      <c r="K61" t="n">
-        <v>262</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2589,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F62" t="n">
-        <v>3122.0658</v>
+        <v>2530</v>
       </c>
       <c r="G62" t="n">
-        <v>265.9</v>
+        <v>266.0333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2613,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>262</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2630,40 +2568,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F63" t="n">
-        <v>2600</v>
+        <v>3122.0658</v>
       </c>
       <c r="G63" t="n">
-        <v>265.75</v>
+        <v>265.9</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>263</v>
-      </c>
-      <c r="K63" t="n">
-        <v>262</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" t="n">
-        <v>7300</v>
+        <v>2600</v>
       </c>
       <c r="G64" t="n">
-        <v>265.6166666666667</v>
+        <v>265.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2697,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>262</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2714,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F65" t="n">
-        <v>1002.3176</v>
+        <v>7300</v>
       </c>
       <c r="G65" t="n">
-        <v>265.4833333333333</v>
+        <v>265.6166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2738,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>262</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2767,10 +2685,10 @@
         <v>262</v>
       </c>
       <c r="F66" t="n">
-        <v>680</v>
+        <v>1002.3176</v>
       </c>
       <c r="G66" t="n">
-        <v>265.3666666666667</v>
+        <v>265.4833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2779,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>262</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2808,10 +2720,10 @@
         <v>262</v>
       </c>
       <c r="F67" t="n">
-        <v>28258.0837</v>
+        <v>680</v>
       </c>
       <c r="G67" t="n">
-        <v>265.25</v>
+        <v>265.3666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2820,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>262</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2849,10 +2755,10 @@
         <v>262</v>
       </c>
       <c r="F68" t="n">
-        <v>1502</v>
+        <v>28258.0837</v>
       </c>
       <c r="G68" t="n">
-        <v>265.1166666666667</v>
+        <v>265.25</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2861,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>262</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2890,10 +2790,10 @@
         <v>262</v>
       </c>
       <c r="F69" t="n">
-        <v>669</v>
+        <v>1502</v>
       </c>
       <c r="G69" t="n">
-        <v>265.0166666666667</v>
+        <v>265.1166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2902,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>262</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2931,10 +2825,10 @@
         <v>262</v>
       </c>
       <c r="F70" t="n">
-        <v>1700</v>
+        <v>669</v>
       </c>
       <c r="G70" t="n">
-        <v>264.9</v>
+        <v>265.0166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2943,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>262</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2972,28 +2860,20 @@
         <v>262</v>
       </c>
       <c r="F71" t="n">
-        <v>2406.4797</v>
+        <v>1700</v>
       </c>
       <c r="G71" t="n">
-        <v>264.75</v>
+        <v>264.9</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>262</v>
-      </c>
-      <c r="K71" t="n">
-        <v>262</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3015,28 +2895,20 @@
         <v>262</v>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>2406.4797</v>
       </c>
       <c r="G72" t="n">
-        <v>264.6</v>
+        <v>264.75</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>262</v>
-      </c>
-      <c r="K72" t="n">
-        <v>262</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3046,40 +2918,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F73" t="n">
-        <v>3638.2992</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>264.5</v>
+        <v>264.6</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>262</v>
-      </c>
-      <c r="K73" t="n">
-        <v>262</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3089,40 +2953,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F74" t="n">
-        <v>1004</v>
+        <v>3638.2992</v>
       </c>
       <c r="G74" t="n">
-        <v>264.3666666666667</v>
+        <v>264.5</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>264</v>
-      </c>
-      <c r="K74" t="n">
-        <v>262</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3132,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C75" t="n">
         <v>265</v>
       </c>
       <c r="D75" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E75" t="n">
         <v>265</v>
       </c>
       <c r="F75" t="n">
-        <v>1887.7924</v>
+        <v>1004</v>
       </c>
       <c r="G75" t="n">
-        <v>264.2333333333333</v>
+        <v>264.3666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3156,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>262</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3173,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C76" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D76" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E76" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F76" t="n">
-        <v>554</v>
+        <v>1887.7924</v>
       </c>
       <c r="G76" t="n">
-        <v>264.1166666666667</v>
+        <v>264.2333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3197,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>262</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3226,10 +3070,10 @@
         <v>264</v>
       </c>
       <c r="F77" t="n">
-        <v>79.613</v>
+        <v>554</v>
       </c>
       <c r="G77" t="n">
-        <v>264</v>
+        <v>264.1166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3238,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>262</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3255,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F78" t="n">
-        <v>1148.6499</v>
+        <v>79.613</v>
       </c>
       <c r="G78" t="n">
-        <v>263.9</v>
+        <v>264</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3279,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>262</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3296,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>1148.6499</v>
       </c>
       <c r="G79" t="n">
-        <v>263.8166666666667</v>
+        <v>263.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3320,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>262</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3337,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F80" t="n">
-        <v>1681.5386</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>263.7166666666666</v>
+        <v>263.8166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3361,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>262</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3390,10 +3210,10 @@
         <v>265</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0001</v>
+        <v>1681.5386</v>
       </c>
       <c r="G81" t="n">
-        <v>263.65</v>
+        <v>263.7166666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3402,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>262</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3419,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0278</v>
+        <v>0.0001</v>
       </c>
       <c r="G82" t="n">
-        <v>263.55</v>
+        <v>263.65</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3443,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>262</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3472,10 +3280,10 @@
         <v>264</v>
       </c>
       <c r="F83" t="n">
-        <v>311</v>
+        <v>1.0278</v>
       </c>
       <c r="G83" t="n">
-        <v>263.4333333333333</v>
+        <v>263.55</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3484,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>262</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3513,10 +3315,10 @@
         <v>264</v>
       </c>
       <c r="F84" t="n">
-        <v>3315.7226</v>
+        <v>311</v>
       </c>
       <c r="G84" t="n">
-        <v>263.35</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3525,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>262</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3554,10 +3350,10 @@
         <v>264</v>
       </c>
       <c r="F85" t="n">
-        <v>23.2645</v>
+        <v>3315.7226</v>
       </c>
       <c r="G85" t="n">
-        <v>263.3</v>
+        <v>263.35</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3566,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>262</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F86" t="n">
-        <v>6.0226</v>
+        <v>23.2645</v>
       </c>
       <c r="G86" t="n">
-        <v>263.2666666666667</v>
+        <v>263.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3607,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>262</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3624,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F87" t="n">
-        <v>711.583</v>
+        <v>6.0226</v>
       </c>
       <c r="G87" t="n">
-        <v>263.2333333333333</v>
+        <v>263.2666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3648,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>262</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3665,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" t="n">
-        <v>2.4</v>
+        <v>711.583</v>
       </c>
       <c r="G88" t="n">
-        <v>263.2666666666667</v>
+        <v>263.2333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3689,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>262</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3718,10 +3490,10 @@
         <v>265</v>
       </c>
       <c r="F89" t="n">
-        <v>41.84905660377358</v>
+        <v>2.4</v>
       </c>
       <c r="G89" t="n">
-        <v>263.2833333333334</v>
+        <v>263.2666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3730,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>262</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3747,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F90" t="n">
-        <v>5.0189</v>
+        <v>41.84905660377358</v>
       </c>
       <c r="G90" t="n">
-        <v>263.3</v>
+        <v>263.2833333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3771,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>262</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3800,10 +3560,10 @@
         <v>264</v>
       </c>
       <c r="F91" t="n">
-        <v>2.7121</v>
+        <v>5.0189</v>
       </c>
       <c r="G91" t="n">
-        <v>263.3166666666667</v>
+        <v>263.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3812,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>262</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3829,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F92" t="n">
-        <v>299.8616</v>
+        <v>2.7121</v>
       </c>
       <c r="G92" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3853,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>262</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3870,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C93" t="n">
         <v>262</v>
       </c>
       <c r="D93" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E93" t="n">
         <v>262</v>
       </c>
       <c r="F93" t="n">
-        <v>102746.3861</v>
+        <v>299.8616</v>
       </c>
       <c r="G93" t="n">
-        <v>263.3166666666667</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3894,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>262</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3914,19 +3656,19 @@
         <v>264</v>
       </c>
       <c r="C94" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E94" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F94" t="n">
-        <v>30959.5814</v>
+        <v>102746.3861</v>
       </c>
       <c r="G94" t="n">
-        <v>263.35</v>
+        <v>263.3166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3935,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>262</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3955,19 +3691,19 @@
         <v>264</v>
       </c>
       <c r="C95" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E95" t="n">
         <v>263</v>
       </c>
       <c r="F95" t="n">
-        <v>3936.7877</v>
+        <v>30959.5814</v>
       </c>
       <c r="G95" t="n">
-        <v>263.3666666666667</v>
+        <v>263.35</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3976,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>262</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3996,19 +3726,19 @@
         <v>264</v>
       </c>
       <c r="C96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F96" t="n">
-        <v>4127.738</v>
+        <v>3936.7877</v>
       </c>
       <c r="G96" t="n">
-        <v>263.4</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4017,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>262</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4034,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C97" t="n">
         <v>264</v>
@@ -4043,13 +3767,13 @@
         <v>264</v>
       </c>
       <c r="E97" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F97" t="n">
-        <v>25966.9355</v>
+        <v>4127.738</v>
       </c>
       <c r="G97" t="n">
-        <v>263.4333333333333</v>
+        <v>263.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4058,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>262</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4075,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E98" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98" t="n">
-        <v>58.0716</v>
+        <v>25966.9355</v>
       </c>
       <c r="G98" t="n">
-        <v>263.4666666666666</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4099,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>262</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4119,16 +3831,16 @@
         <v>264</v>
       </c>
       <c r="C99" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E99" t="n">
         <v>264</v>
       </c>
       <c r="F99" t="n">
-        <v>137.0379</v>
+        <v>58.0716</v>
       </c>
       <c r="G99" t="n">
         <v>263.4666666666666</v>
@@ -4140,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>262</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4163,13 +3869,13 @@
         <v>264</v>
       </c>
       <c r="D100" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E100" t="n">
         <v>264</v>
       </c>
       <c r="F100" t="n">
-        <v>50.1639</v>
+        <v>137.0379</v>
       </c>
       <c r="G100" t="n">
         <v>263.4666666666666</v>
@@ -4181,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>262</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4204,16 +3904,16 @@
         <v>264</v>
       </c>
       <c r="D101" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E101" t="n">
         <v>264</v>
       </c>
       <c r="F101" t="n">
-        <v>40.4866</v>
+        <v>50.1639</v>
       </c>
       <c r="G101" t="n">
-        <v>263.4833333333333</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4222,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>262</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4251,10 +3945,10 @@
         <v>264</v>
       </c>
       <c r="F102" t="n">
-        <v>60.7299</v>
+        <v>40.4866</v>
       </c>
       <c r="G102" t="n">
-        <v>263.4666666666666</v>
+        <v>263.4833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4263,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>262</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4295,7 +3983,7 @@
         <v>60.7299</v>
       </c>
       <c r="G103" t="n">
-        <v>263.45</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4304,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>262</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4333,10 +4015,10 @@
         <v>264</v>
       </c>
       <c r="F104" t="n">
-        <v>20.2433</v>
+        <v>60.7299</v>
       </c>
       <c r="G104" t="n">
-        <v>263.4666666666666</v>
+        <v>263.45</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4345,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>262</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4365,16 +4041,16 @@
         <v>264</v>
       </c>
       <c r="C105" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D105" t="n">
         <v>264</v>
       </c>
       <c r="E105" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F105" t="n">
-        <v>1990</v>
+        <v>20.2433</v>
       </c>
       <c r="G105" t="n">
         <v>263.4666666666666</v>
@@ -4386,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>262</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4403,19 +4073,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C106" t="n">
         <v>263</v>
       </c>
       <c r="D106" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E106" t="n">
         <v>263</v>
       </c>
       <c r="F106" t="n">
-        <v>48.124</v>
+        <v>1990</v>
       </c>
       <c r="G106" t="n">
         <v>263.4666666666666</v>
@@ -4427,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>262</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4456,7 +4120,7 @@
         <v>263</v>
       </c>
       <c r="F107" t="n">
-        <v>20.3244</v>
+        <v>48.124</v>
       </c>
       <c r="G107" t="n">
         <v>263.4666666666666</v>
@@ -4468,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>262</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4485,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F108" t="n">
-        <v>25.4528</v>
+        <v>20.3244</v>
       </c>
       <c r="G108" t="n">
-        <v>263.4833333333333</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4509,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>262</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4538,10 +4190,10 @@
         <v>265</v>
       </c>
       <c r="F109" t="n">
-        <v>510</v>
+        <v>25.4528</v>
       </c>
       <c r="G109" t="n">
-        <v>263.5</v>
+        <v>263.4833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4550,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>262</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4579,10 +4225,10 @@
         <v>265</v>
       </c>
       <c r="F110" t="n">
-        <v>1627</v>
+        <v>510</v>
       </c>
       <c r="G110" t="n">
-        <v>263.5333333333334</v>
+        <v>263.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4591,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>262</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4620,10 +4260,10 @@
         <v>265</v>
       </c>
       <c r="F111" t="n">
-        <v>10732.5289</v>
+        <v>1627</v>
       </c>
       <c r="G111" t="n">
-        <v>263.5833333333333</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4632,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>262</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4649,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C112" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D112" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E112" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F112" t="n">
-        <v>10094.21702089552</v>
+        <v>10732.5289</v>
       </c>
       <c r="G112" t="n">
-        <v>263.65</v>
+        <v>263.5833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4673,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>262</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4693,19 +4321,19 @@
         <v>267</v>
       </c>
       <c r="C113" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D113" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E113" t="n">
         <v>267</v>
       </c>
       <c r="F113" t="n">
-        <v>8665.0936</v>
+        <v>10094.21702089552</v>
       </c>
       <c r="G113" t="n">
-        <v>263.7</v>
+        <v>263.65</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4714,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>262</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4743,10 +4365,10 @@
         <v>267</v>
       </c>
       <c r="F114" t="n">
-        <v>21.8947</v>
+        <v>8665.0936</v>
       </c>
       <c r="G114" t="n">
-        <v>263.7833333333334</v>
+        <v>263.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4755,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>262</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4784,10 +4400,10 @@
         <v>267</v>
       </c>
       <c r="F115" t="n">
-        <v>14.9921</v>
+        <v>21.8947</v>
       </c>
       <c r="G115" t="n">
-        <v>263.8833333333333</v>
+        <v>263.7833333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4796,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>262</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4813,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F116" t="n">
-        <v>15.2094</v>
+        <v>14.9921</v>
       </c>
       <c r="G116" t="n">
-        <v>263.95</v>
+        <v>263.8833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4837,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>262</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4854,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C117" t="n">
         <v>268</v>
       </c>
       <c r="D117" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E117" t="n">
         <v>268</v>
       </c>
       <c r="F117" t="n">
-        <v>2094.7174</v>
+        <v>15.2094</v>
       </c>
       <c r="G117" t="n">
-        <v>264.05</v>
+        <v>263.95</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4878,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>262</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4895,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C118" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D118" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E118" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F118" t="n">
-        <v>25.3891</v>
+        <v>2094.7174</v>
       </c>
       <c r="G118" t="n">
-        <v>264.1833333333333</v>
+        <v>264.05</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4919,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>262</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4948,10 +4540,10 @@
         <v>270</v>
       </c>
       <c r="F119" t="n">
-        <v>2240</v>
+        <v>25.3891</v>
       </c>
       <c r="G119" t="n">
-        <v>264.3</v>
+        <v>264.1833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4960,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>262</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4980,19 +4566,19 @@
         <v>270</v>
       </c>
       <c r="C120" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D120" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E120" t="n">
         <v>270</v>
       </c>
       <c r="F120" t="n">
-        <v>6320</v>
+        <v>2240</v>
       </c>
       <c r="G120" t="n">
-        <v>264.4333333333333</v>
+        <v>264.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5001,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>262</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C121" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D121" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E121" t="n">
         <v>270</v>
       </c>
       <c r="F121" t="n">
-        <v>2850</v>
+        <v>6320</v>
       </c>
       <c r="G121" t="n">
-        <v>264.5666666666667</v>
+        <v>264.4333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5042,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>262</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5059,38 +4633,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>273</v>
+      </c>
+      <c r="C122" t="n">
         <v>270</v>
       </c>
-      <c r="C122" t="n">
-        <v>272</v>
-      </c>
       <c r="D122" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E122" t="n">
         <v>270</v>
       </c>
       <c r="F122" t="n">
-        <v>8212</v>
+        <v>2850</v>
       </c>
       <c r="G122" t="n">
-        <v>264.7166666666666</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>262</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5100,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C123" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D123" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E123" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F123" t="n">
-        <v>2800.5005</v>
+        <v>8212</v>
       </c>
       <c r="G123" t="n">
-        <v>264.8166666666667</v>
+        <v>264.7166666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5124,16 +4692,10 @@
         <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>262</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>1.017900763358779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5144,19 +4706,19 @@
         <v>268</v>
       </c>
       <c r="C124" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D124" t="n">
         <v>268</v>
       </c>
       <c r="E124" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F124" t="n">
-        <v>23065.0043</v>
+        <v>2800.5005</v>
       </c>
       <c r="G124" t="n">
-        <v>264.8666666666667</v>
+        <v>264.8166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5176,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C125" t="n">
         <v>266</v>
       </c>
       <c r="D125" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E125" t="n">
         <v>266</v>
       </c>
       <c r="F125" t="n">
-        <v>845.7159</v>
+        <v>23065.0043</v>
       </c>
       <c r="G125" t="n">
-        <v>264.9333333333333</v>
+        <v>264.8666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5211,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F126" t="n">
-        <v>1176.9773</v>
+        <v>845.7159</v>
       </c>
       <c r="G126" t="n">
-        <v>265.0166666666667</v>
+        <v>264.9333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5246,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C127" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D127" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E127" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F127" t="n">
-        <v>59.4954</v>
+        <v>1176.9773</v>
       </c>
       <c r="G127" t="n">
-        <v>265.0833333333333</v>
+        <v>265.0166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5281,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C128" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D128" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E128" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F128" t="n">
-        <v>15.4954</v>
+        <v>59.4954</v>
       </c>
       <c r="G128" t="n">
-        <v>265.1</v>
+        <v>265.0833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5316,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F129" t="n">
-        <v>2375.695</v>
+        <v>15.4954</v>
       </c>
       <c r="G129" t="n">
-        <v>265.1333333333333</v>
+        <v>265.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5351,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>2375.695</v>
       </c>
       <c r="G130" t="n">
-        <v>265.2</v>
+        <v>265.1333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5386,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F131" t="n">
-        <v>399.7437</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>265.2166666666666</v>
+        <v>265.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5421,19 +4983,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C132" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D132" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E132" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F132" t="n">
-        <v>570</v>
+        <v>399.7437</v>
       </c>
       <c r="G132" t="n">
         <v>265.2166666666666</v>
@@ -5456,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C133" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D133" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E133" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F133" t="n">
-        <v>17561.5601</v>
+        <v>570</v>
       </c>
       <c r="G133" t="n">
-        <v>265.1333333333333</v>
+        <v>265.2166666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5486,6 +5048,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>258</v>
+      </c>
+      <c r="C134" t="n">
+        <v>259</v>
+      </c>
+      <c r="D134" t="n">
+        <v>259</v>
+      </c>
+      <c r="E134" t="n">
+        <v>258</v>
+      </c>
+      <c r="F134" t="n">
+        <v>17561.5601</v>
+      </c>
+      <c r="G134" t="n">
+        <v>265.1333333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>262</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>16116.2645</v>
       </c>
       <c r="G2" t="n">
+        <v>273.1333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>272.1166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1618</v>
       </c>
       <c r="G3" t="n">
+        <v>272.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>272.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>419.1193</v>
       </c>
       <c r="G4" t="n">
+        <v>272.7333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>272.25</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>15</v>
       </c>
       <c r="G5" t="n">
+        <v>272.5333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>272.3</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>497.0111</v>
       </c>
       <c r="G6" t="n">
+        <v>272.2666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>272.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>15</v>
       </c>
       <c r="G7" t="n">
+        <v>272</v>
+      </c>
+      <c r="H7" t="n">
         <v>272.2666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>483.8605</v>
       </c>
       <c r="G8" t="n">
+        <v>271.7333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>272.2333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1845.6814</v>
       </c>
       <c r="G9" t="n">
+        <v>271.4666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>272.1833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>454.0191</v>
       </c>
       <c r="G10" t="n">
+        <v>271.0666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>272.1</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>642.8108999999999</v>
       </c>
       <c r="G11" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="H11" t="n">
         <v>272.0166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>848.7084</v>
       </c>
       <c r="G12" t="n">
+        <v>270.6666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>271.9833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>519.6826</v>
       </c>
       <c r="G13" t="n">
+        <v>270.5333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>271.9666666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2238.732</v>
       </c>
       <c r="G14" t="n">
+        <v>270.3333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>271.95</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1389.5703</v>
       </c>
       <c r="G15" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>271.9833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>688.2069</v>
       </c>
       <c r="G16" t="n">
+        <v>270.4666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>272.0166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>614</v>
       </c>
       <c r="G17" t="n">
+        <v>270.4666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>272.0333333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>124</v>
       </c>
       <c r="G18" t="n">
+        <v>270.4666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>272.0666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3932.52</v>
       </c>
       <c r="G19" t="n">
+        <v>270.4666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>272.0666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2768.7177</v>
       </c>
       <c r="G20" t="n">
+        <v>270.4666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>272.0833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>14.8999</v>
       </c>
       <c r="G21" t="n">
+        <v>270.5333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>272.0833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>14.8999</v>
       </c>
       <c r="G22" t="n">
+        <v>270.5333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>272.05</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>250.3502</v>
       </c>
       <c r="G23" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="H23" t="n">
         <v>272.0166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>61</v>
       </c>
       <c r="G24" t="n">
+        <v>270.6666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>272</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1997.1524</v>
       </c>
       <c r="G25" t="n">
+        <v>270.7333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>271.95</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>6349.6867</v>
       </c>
       <c r="G26" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="H26" t="n">
         <v>271.8166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2462.8558</v>
       </c>
       <c r="G27" t="n">
+        <v>270.3333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>271.6833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>793.9385</v>
       </c>
       <c r="G28" t="n">
+        <v>270</v>
+      </c>
+      <c r="H28" t="n">
         <v>271.5666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>6604.89</v>
       </c>
       <c r="G29" t="n">
+        <v>269.5333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>271.3833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1370.8118</v>
       </c>
       <c r="G30" t="n">
+        <v>268.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>271.2</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>363.9999</v>
       </c>
       <c r="G31" t="n">
+        <v>268.2666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>271.0333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>299.7668</v>
       </c>
       <c r="G32" t="n">
+        <v>267.7333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>270.85</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>8973.577499999999</v>
       </c>
       <c r="G33" t="n">
+        <v>267.0666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>270.65</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>15.5157</v>
       </c>
       <c r="G34" t="n">
+        <v>266.5333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>270.4833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>31.2861</v>
       </c>
       <c r="G35" t="n">
+        <v>265.9333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>270.3166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>438.1511</v>
       </c>
       <c r="G36" t="n">
+        <v>265.3333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>270.15</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>10.3114</v>
       </c>
       <c r="G37" t="n">
+        <v>264.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>269.9833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>37.7043</v>
       </c>
       <c r="G38" t="n">
+        <v>264.3333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>269.8166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>758.203</v>
       </c>
       <c r="G39" t="n">
+        <v>263.8</v>
+      </c>
+      <c r="H39" t="n">
         <v>269.6666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>5309.9371</v>
       </c>
       <c r="G40" t="n">
+        <v>263.4666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>269.5333333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1183.8496</v>
       </c>
       <c r="G41" t="n">
+        <v>263.2666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>269.4166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
+        <v>263</v>
+      </c>
+      <c r="H42" t="n">
         <v>269.2833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>37.7358</v>
       </c>
       <c r="G43" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>269.1833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>484.8297</v>
       </c>
       <c r="G44" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>269.0833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>344.4896</v>
       </c>
       <c r="G45" t="n">
+        <v>263</v>
+      </c>
+      <c r="H45" t="n">
         <v>268.9333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>39.9</v>
       </c>
       <c r="G46" t="n">
+        <v>263</v>
+      </c>
+      <c r="H46" t="n">
         <v>268.7666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>5685.1193</v>
       </c>
       <c r="G47" t="n">
+        <v>263</v>
+      </c>
+      <c r="H47" t="n">
         <v>268.5833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1995</v>
       </c>
       <c r="G48" t="n">
+        <v>263.1333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>268.4</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>487.2474</v>
       </c>
       <c r="G49" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="H49" t="n">
         <v>268.2333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1406.6919</v>
       </c>
       <c r="G50" t="n">
+        <v>263.3333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>268.0666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1996</v>
       </c>
       <c r="G51" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="H51" t="n">
         <v>267.8833333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>10937.9499</v>
       </c>
       <c r="G52" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="H52" t="n">
         <v>267.7</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>15.5676</v>
       </c>
       <c r="G53" t="n">
+        <v>263.5333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>267.55</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1592.9104</v>
       </c>
       <c r="G54" t="n">
+        <v>263.6</v>
+      </c>
+      <c r="H54" t="n">
         <v>267.3833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>342.4337</v>
       </c>
       <c r="G55" t="n">
+        <v>263.4666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>267.1833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>800</v>
       </c>
       <c r="G56" t="n">
+        <v>263.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>266.9833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>973.5492</v>
       </c>
       <c r="G57" t="n">
+        <v>263.3333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>266.8333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>761</v>
       </c>
       <c r="G58" t="n">
+        <v>263.1333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>266.65</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>425.5075</v>
       </c>
       <c r="G59" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>266.4666666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>262.32</v>
       </c>
       <c r="G60" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>266.3166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>368.2878</v>
       </c>
       <c r="G61" t="n">
+        <v>263</v>
+      </c>
+      <c r="H61" t="n">
         <v>266.1833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2530</v>
       </c>
       <c r="G62" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>266.0333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>3122.0658</v>
       </c>
       <c r="G63" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>265.9</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>2600</v>
       </c>
       <c r="G64" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>265.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>7300</v>
       </c>
       <c r="G65" t="n">
+        <v>262.7333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>265.6166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1002.3176</v>
       </c>
       <c r="G66" t="n">
+        <v>262.6666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>265.4833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>680</v>
       </c>
       <c r="G67" t="n">
+        <v>262.6666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>265.3666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>28258.0837</v>
       </c>
       <c r="G68" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>265.25</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1502</v>
       </c>
       <c r="G69" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>265.1166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>669</v>
       </c>
       <c r="G70" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H70" t="n">
         <v>265.0166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1700</v>
       </c>
       <c r="G71" t="n">
+        <v>262.4666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>264.9</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>2406.4797</v>
       </c>
       <c r="G72" t="n">
+        <v>262.3333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>264.75</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1000</v>
       </c>
       <c r="G73" t="n">
+        <v>262.3333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>264.6</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>3638.2992</v>
       </c>
       <c r="G74" t="n">
+        <v>262.4666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>264.5</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1004</v>
       </c>
       <c r="G75" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="H75" t="n">
         <v>264.3666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1887.7924</v>
       </c>
       <c r="G76" t="n">
+        <v>262.6666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>264.2333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>554</v>
       </c>
       <c r="G77" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="H77" t="n">
         <v>264.1166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>79.613</v>
       </c>
       <c r="G78" t="n">
-        <v>264</v>
+        <v>262.8666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1148.6499</v>
       </c>
       <c r="G79" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>263.9</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>263.2666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>263.8166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1681.5386</v>
       </c>
       <c r="G81" t="n">
+        <v>263.4666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>263.7166666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>0.0001</v>
       </c>
       <c r="G82" t="n">
+        <v>263.6666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>263.65</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1.0278</v>
       </c>
       <c r="G83" t="n">
+        <v>263.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>263.55</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>311</v>
       </c>
       <c r="G84" t="n">
+        <v>263.9333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>263.4333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>3315.7226</v>
       </c>
       <c r="G85" t="n">
+        <v>264.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>263.35</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>23.2645</v>
       </c>
       <c r="G86" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>263.3</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>6.0226</v>
       </c>
       <c r="G87" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>263.2666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>711.583</v>
       </c>
       <c r="G88" t="n">
+        <v>264.5333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>263.2333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>2.4</v>
       </c>
       <c r="G89" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="H89" t="n">
         <v>263.2666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>41.84905660377358</v>
       </c>
       <c r="G90" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="H90" t="n">
         <v>263.2833333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>5.0189</v>
       </c>
       <c r="G91" t="n">
+        <v>264.5333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>263.3</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>2.7121</v>
       </c>
       <c r="G92" t="n">
+        <v>264.5333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>263.3166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>299.8616</v>
       </c>
       <c r="G93" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="H93" t="n">
         <v>263.3333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>102746.3861</v>
       </c>
       <c r="G94" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="H94" t="n">
         <v>263.3166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>30959.5814</v>
       </c>
       <c r="G95" t="n">
+        <v>264.0666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>263.35</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>3936.7877</v>
       </c>
       <c r="G96" t="n">
+        <v>263.9333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>263.3666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>4127.738</v>
       </c>
       <c r="G97" t="n">
+        <v>263.8666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>263.4</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>25966.9355</v>
       </c>
       <c r="G98" t="n">
+        <v>263.8666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>263.4333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>58.0716</v>
       </c>
       <c r="G99" t="n">
+        <v>263.9333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>137.0379</v>
       </c>
       <c r="G100" t="n">
+        <v>263.9333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>50.1639</v>
       </c>
       <c r="G101" t="n">
+        <v>263.9333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>40.4866</v>
       </c>
       <c r="G102" t="n">
+        <v>263.8666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>263.4833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>60.7299</v>
       </c>
       <c r="G103" t="n">
+        <v>263.8666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>60.7299</v>
       </c>
       <c r="G104" t="n">
+        <v>263.8</v>
+      </c>
+      <c r="H104" t="n">
         <v>263.45</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>20.2433</v>
       </c>
       <c r="G105" t="n">
+        <v>263.7333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1990</v>
       </c>
       <c r="G106" t="n">
+        <v>263.6666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>48.124</v>
       </c>
       <c r="G107" t="n">
+        <v>263.6</v>
+      </c>
+      <c r="H107" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>20.3244</v>
       </c>
       <c r="G108" t="n">
+        <v>263.6666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>263.4666666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>25.4528</v>
       </c>
       <c r="G109" t="n">
+        <v>263.8666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>263.4833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>510</v>
       </c>
       <c r="G110" t="n">
+        <v>263.9333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>263.5</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1627</v>
       </c>
       <c r="G111" t="n">
+        <v>264.0666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>263.5333333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>10732.5289</v>
       </c>
       <c r="G112" t="n">
+        <v>264.1333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>263.5833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>10094.21702089552</v>
       </c>
       <c r="G113" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="H113" t="n">
         <v>263.65</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>8665.0936</v>
       </c>
       <c r="G114" t="n">
+        <v>264.5333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>263.7</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>21.8947</v>
       </c>
       <c r="G115" t="n">
+        <v>264.7333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>263.7833333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>14.9921</v>
       </c>
       <c r="G116" t="n">
+        <v>264.9333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>263.8833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>15.2094</v>
       </c>
       <c r="G117" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>263.95</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>2094.7174</v>
       </c>
       <c r="G118" t="n">
+        <v>265.4666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>264.05</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>25.3891</v>
       </c>
       <c r="G119" t="n">
+        <v>265.8666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>264.1833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>2240</v>
       </c>
       <c r="G120" t="n">
+        <v>266.2666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>264.3</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>6320</v>
       </c>
       <c r="G121" t="n">
+        <v>266.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>264.4333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>2850</v>
       </c>
       <c r="G122" t="n">
+        <v>267.3333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>264.5666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>8212</v>
       </c>
       <c r="G123" t="n">
+        <v>267.9333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>264.7166666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>2800.5005</v>
       </c>
       <c r="G124" t="n">
+        <v>268.1333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>264.8166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>23065.0043</v>
       </c>
       <c r="G125" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="H125" t="n">
         <v>264.8666666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>845.7159</v>
       </c>
       <c r="G126" t="n">
+        <v>268.2666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>264.9333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>1176.9773</v>
       </c>
       <c r="G127" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>265.0166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>59.4954</v>
       </c>
       <c r="G128" t="n">
+        <v>268.2666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>265.0833333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>15.4954</v>
       </c>
       <c r="G129" t="n">
+        <v>268</v>
+      </c>
+      <c r="H129" t="n">
         <v>265.1</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>2375.695</v>
       </c>
       <c r="G130" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="H130" t="n">
         <v>265.1333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>2</v>
       </c>
       <c r="G131" t="n">
+        <v>267.7333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>265.2</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>399.7437</v>
       </c>
       <c r="G132" t="n">
+        <v>267.4</v>
+      </c>
+      <c r="H132" t="n">
         <v>265.2166666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>570</v>
       </c>
       <c r="G133" t="n">
+        <v>267</v>
+      </c>
+      <c r="H133" t="n">
         <v>265.2166666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,24 +5469,439 @@
         <v>17561.5601</v>
       </c>
       <c r="G134" t="n">
+        <v>266.2666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>265.1333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>260</v>
+      </c>
+      <c r="C135" t="n">
+        <v>260</v>
+      </c>
+      <c r="D135" t="n">
+        <v>260</v>
+      </c>
+      <c r="E135" t="n">
+        <v>260</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2156.6067</v>
+      </c>
+      <c r="G135" t="n">
+        <v>265.6</v>
+      </c>
+      <c r="H135" t="n">
+        <v>265.05</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>259</v>
+      </c>
+      <c r="C136" t="n">
+        <v>259</v>
+      </c>
+      <c r="D136" t="n">
+        <v>259</v>
+      </c>
+      <c r="E136" t="n">
+        <v>259</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6439.3943</v>
+      </c>
+      <c r="G136" t="n">
+        <v>264.7333333333333</v>
+      </c>
+      <c r="H136" t="n">
+        <v>264.95</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>259</v>
+      </c>
+      <c r="C137" t="n">
+        <v>260</v>
+      </c>
+      <c r="D137" t="n">
+        <v>260</v>
+      </c>
+      <c r="E137" t="n">
+        <v>259</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3798.459</v>
+      </c>
+      <c r="G137" t="n">
+        <v>264.0666666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>264.8833333333333</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>259</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>259</v>
+      </c>
+      <c r="C138" t="n">
+        <v>259</v>
+      </c>
+      <c r="D138" t="n">
+        <v>259</v>
+      </c>
+      <c r="E138" t="n">
+        <v>259</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1902.1978</v>
+      </c>
+      <c r="G138" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="H138" t="n">
+        <v>264.8</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>260</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>267</v>
+      </c>
+      <c r="C139" t="n">
+        <v>267</v>
+      </c>
+      <c r="D139" t="n">
+        <v>267</v>
+      </c>
+      <c r="E139" t="n">
+        <v>267</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G139" t="n">
+        <v>263.1333333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>264.8333333333333</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>259</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>267</v>
+      </c>
+      <c r="C140" t="n">
+        <v>267</v>
+      </c>
+      <c r="D140" t="n">
+        <v>267</v>
+      </c>
+      <c r="E140" t="n">
+        <v>267</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2624.1292</v>
+      </c>
+      <c r="G140" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="H140" t="n">
+        <v>264.85</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>268</v>
+      </c>
+      <c r="C141" t="n">
+        <v>268</v>
+      </c>
+      <c r="D141" t="n">
+        <v>268</v>
+      </c>
+      <c r="E141" t="n">
+        <v>268</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15.1399</v>
+      </c>
+      <c r="G141" t="n">
+        <v>263.3333333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>264.9</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>268</v>
+      </c>
+      <c r="C142" t="n">
+        <v>268</v>
+      </c>
+      <c r="D142" t="n">
+        <v>268</v>
+      </c>
+      <c r="E142" t="n">
+        <v>268</v>
+      </c>
+      <c r="F142" t="n">
+        <v>633.7463</v>
+      </c>
+      <c r="G142" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="H142" t="n">
+        <v>264.95</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>268</v>
+      </c>
+      <c r="C143" t="n">
+        <v>265</v>
+      </c>
+      <c r="D143" t="n">
+        <v>268</v>
+      </c>
+      <c r="E143" t="n">
+        <v>265</v>
+      </c>
+      <c r="F143" t="n">
+        <v>210.5548</v>
+      </c>
+      <c r="G143" t="n">
+        <v>263.3333333333333</v>
+      </c>
+      <c r="H143" t="n">
+        <v>264.9666666666666</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>267</v>
+      </c>
+      <c r="C144" t="n">
+        <v>267</v>
+      </c>
+      <c r="D144" t="n">
+        <v>267</v>
+      </c>
+      <c r="E144" t="n">
+        <v>267</v>
+      </c>
+      <c r="F144" t="n">
+        <v>42</v>
+      </c>
+      <c r="G144" t="n">
+        <v>263.6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>265.0166666666667</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C2" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D2" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E2" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F2" t="n">
-        <v>16116.2645</v>
+        <v>154</v>
       </c>
       <c r="G2" t="n">
-        <v>273.1333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H2" t="n">
-        <v>272.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F3" t="n">
-        <v>1618</v>
+        <v>14303.169</v>
       </c>
       <c r="G3" t="n">
-        <v>272.9333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H3" t="n">
-        <v>272.2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="K3" t="n">
+        <v>273</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D4" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="n">
-        <v>419.1193</v>
+        <v>2612.5109</v>
       </c>
       <c r="G4" t="n">
-        <v>272.7333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>272.25</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>273</v>
+      </c>
+      <c r="K4" t="n">
+        <v>273</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>2114.7274</v>
       </c>
       <c r="G5" t="n">
-        <v>272.5333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>272.3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>272</v>
+      </c>
+      <c r="K5" t="n">
+        <v>273</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +593,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C6" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D6" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E6" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F6" t="n">
-        <v>497.0111</v>
+        <v>1829.2</v>
       </c>
       <c r="G6" t="n">
-        <v>272.2666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H6" t="n">
-        <v>272.3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>272</v>
+      </c>
+      <c r="K6" t="n">
+        <v>273</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +636,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C7" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E7" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>644.8018</v>
       </c>
       <c r="G7" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>272</v>
       </c>
-      <c r="H7" t="n">
-        <v>272.2666666666667</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="K7" t="n">
+        <v>273</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +679,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C8" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D8" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E8" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F8" t="n">
-        <v>483.8605</v>
+        <v>2646.9001</v>
       </c>
       <c r="G8" t="n">
-        <v>271.7333333333333</v>
+        <v>-60</v>
       </c>
       <c r="H8" t="n">
-        <v>272.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>272</v>
+      </c>
+      <c r="K8" t="n">
+        <v>273</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +722,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C9" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D9" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E9" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F9" t="n">
-        <v>1845.6814</v>
+        <v>345.3529</v>
       </c>
       <c r="G9" t="n">
-        <v>271.4666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>272.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>272</v>
+      </c>
+      <c r="K9" t="n">
+        <v>273</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +765,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C10" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D10" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E10" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F10" t="n">
-        <v>454.0191</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="n">
-        <v>271.0666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H10" t="n">
-        <v>272.1</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>272</v>
+      </c>
+      <c r="K10" t="n">
+        <v>273</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +808,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D11" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E11" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F11" t="n">
-        <v>642.8108999999999</v>
+        <v>2057.6246</v>
       </c>
       <c r="G11" t="n">
-        <v>270.8</v>
+        <v>-100</v>
       </c>
       <c r="H11" t="n">
-        <v>272.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>271</v>
+      </c>
+      <c r="K11" t="n">
+        <v>273</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
         <v>271</v>
@@ -827,27 +860,32 @@
         <v>271</v>
       </c>
       <c r="E12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F12" t="n">
-        <v>848.7084</v>
+        <v>1034.7204</v>
       </c>
       <c r="G12" t="n">
-        <v>270.6666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H12" t="n">
-        <v>271.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>271</v>
+      </c>
+      <c r="K12" t="n">
+        <v>273</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,24 +906,29 @@
         <v>271</v>
       </c>
       <c r="F13" t="n">
-        <v>519.6826</v>
+        <v>875.29</v>
       </c>
       <c r="G13" t="n">
-        <v>270.5333333333334</v>
+        <v>-100</v>
       </c>
       <c r="H13" t="n">
-        <v>271.9666666666666</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>271</v>
+      </c>
+      <c r="K13" t="n">
+        <v>273</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +937,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C14" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D14" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E14" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F14" t="n">
-        <v>2238.732</v>
+        <v>1112.8668</v>
       </c>
       <c r="G14" t="n">
-        <v>270.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>271.95</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>271</v>
+      </c>
+      <c r="K14" t="n">
+        <v>273</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,25 +992,30 @@
         <v>273</v>
       </c>
       <c r="F15" t="n">
-        <v>1389.5703</v>
+        <v>3310</v>
       </c>
       <c r="G15" t="n">
-        <v>270.4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>271.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1</v>
+        <v>272</v>
+      </c>
+      <c r="K15" t="n">
+        <v>273</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="16">
@@ -970,36 +1023,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>274</v>
+      </c>
+      <c r="C16" t="n">
+        <v>274</v>
+      </c>
+      <c r="D16" t="n">
+        <v>274</v>
+      </c>
+      <c r="E16" t="n">
+        <v>274</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3804</v>
+      </c>
+      <c r="G16" t="n">
+        <v>50</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>273</v>
       </c>
-      <c r="C16" t="n">
-        <v>273</v>
-      </c>
-      <c r="D16" t="n">
-        <v>273</v>
-      </c>
-      <c r="E16" t="n">
-        <v>273</v>
-      </c>
-      <c r="F16" t="n">
-        <v>688.2069</v>
-      </c>
-      <c r="G16" t="n">
-        <v>270.4666666666666</v>
-      </c>
-      <c r="H16" t="n">
-        <v>272.0166666666667</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="K16" t="n">
+        <v>271</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1066,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C17" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D17" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E17" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F17" t="n">
-        <v>614</v>
+        <v>3209.031</v>
       </c>
       <c r="G17" t="n">
-        <v>270.4666666666666</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>272.0333333333334</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="K17" t="n">
+        <v>274</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1105,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C18" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D18" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E18" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F18" t="n">
-        <v>124</v>
+        <v>225.2536</v>
       </c>
       <c r="G18" t="n">
-        <v>270.4666666666666</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
-        <v>272.0666666666667</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>274</v>
+      </c>
+      <c r="K18" t="n">
+        <v>274</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1148,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C19" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D19" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E19" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F19" t="n">
-        <v>3932.52</v>
+        <v>1470</v>
       </c>
       <c r="G19" t="n">
-        <v>270.4666666666666</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>272.0666666666667</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>274</v>
+      </c>
+      <c r="K19" t="n">
+        <v>274</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1191,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C20" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D20" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E20" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F20" t="n">
-        <v>2768.7177</v>
+        <v>2542.9964</v>
       </c>
       <c r="G20" t="n">
-        <v>270.4666666666666</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>272.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="K20" t="n">
+        <v>274</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1230,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C21" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E21" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F21" t="n">
-        <v>14.8999</v>
+        <v>2766.2908</v>
       </c>
       <c r="G21" t="n">
-        <v>270.5333333333334</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>272.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>274</v>
+      </c>
+      <c r="K21" t="n">
+        <v>274</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1273,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C22" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D22" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E22" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F22" t="n">
-        <v>14.8999</v>
+        <v>2434.3081</v>
       </c>
       <c r="G22" t="n">
-        <v>270.5333333333334</v>
+        <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>272.05</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>273</v>
+      </c>
+      <c r="K22" t="n">
+        <v>274</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1316,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C23" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D23" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E23" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F23" t="n">
-        <v>250.3502</v>
+        <v>2886.998</v>
       </c>
       <c r="G23" t="n">
-        <v>270.6</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>272.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>273</v>
+      </c>
+      <c r="K23" t="n">
+        <v>274</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1359,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C24" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D24" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E24" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F24" t="n">
-        <v>61</v>
+        <v>262.444</v>
       </c>
       <c r="G24" t="n">
-        <v>270.6666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>274</v>
+      </c>
+      <c r="K24" t="n">
+        <v>274</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1402,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C25" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D25" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E25" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F25" t="n">
-        <v>1997.1524</v>
+        <v>4761.1787</v>
       </c>
       <c r="G25" t="n">
-        <v>270.7333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>271.95</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>274</v>
+      </c>
+      <c r="K25" t="n">
+        <v>274</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1445,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C26" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D26" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E26" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F26" t="n">
-        <v>6349.6867</v>
+        <v>15027.7238</v>
       </c>
       <c r="G26" t="n">
-        <v>270.6</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>271.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>273</v>
+      </c>
+      <c r="K26" t="n">
+        <v>274</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1488,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C27" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D27" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E27" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F27" t="n">
-        <v>2462.8558</v>
+        <v>3523.5327</v>
       </c>
       <c r="G27" t="n">
-        <v>270.3333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>271.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>273</v>
+      </c>
+      <c r="K27" t="n">
+        <v>274</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1531,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C28" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D28" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E28" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F28" t="n">
-        <v>793.9385</v>
+        <v>138.8663</v>
       </c>
       <c r="G28" t="n">
-        <v>270</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>271.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>273</v>
+      </c>
+      <c r="K28" t="n">
+        <v>274</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1574,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C29" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D29" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E29" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F29" t="n">
-        <v>6604.89</v>
+        <v>2730</v>
       </c>
       <c r="G29" t="n">
-        <v>269.5333333333334</v>
+        <v>-50</v>
       </c>
       <c r="H29" t="n">
-        <v>271.3833333333333</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>273</v>
+      </c>
+      <c r="K29" t="n">
+        <v>274</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1617,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C30" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D30" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E30" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F30" t="n">
-        <v>1370.8118</v>
+        <v>2368</v>
       </c>
       <c r="G30" t="n">
-        <v>268.9333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>271.2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>272</v>
+      </c>
+      <c r="K30" t="n">
+        <v>274</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1660,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C31" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D31" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E31" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F31" t="n">
-        <v>363.9999</v>
+        <v>16116.2645</v>
       </c>
       <c r="G31" t="n">
-        <v>268.2666666666667</v>
+        <v>-50</v>
       </c>
       <c r="H31" t="n">
-        <v>271.0333333333334</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>272</v>
+      </c>
+      <c r="K31" t="n">
+        <v>274</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1703,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C32" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D32" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E32" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F32" t="n">
-        <v>299.7668</v>
+        <v>1618</v>
       </c>
       <c r="G32" t="n">
-        <v>267.7333333333333</v>
+        <v>-100</v>
       </c>
       <c r="H32" t="n">
-        <v>270.85</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>271</v>
+      </c>
+      <c r="K32" t="n">
+        <v>274</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1746,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C33" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D33" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E33" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F33" t="n">
-        <v>8973.577499999999</v>
+        <v>419.1193</v>
       </c>
       <c r="G33" t="n">
-        <v>267.0666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H33" t="n">
-        <v>270.65</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>271</v>
+      </c>
+      <c r="K33" t="n">
+        <v>274</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,37 +1789,42 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C34" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D34" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E34" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F34" t="n">
-        <v>15.5157</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>266.5333333333334</v>
+        <v>-100</v>
       </c>
       <c r="H34" t="n">
-        <v>270.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="K34" t="n">
+        <v>274</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9840510948905109</v>
       </c>
     </row>
     <row r="35">
@@ -1692,36 +1832,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C35" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D35" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E35" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F35" t="n">
-        <v>31.2861</v>
+        <v>497.0111</v>
       </c>
       <c r="G35" t="n">
-        <v>265.9333333333333</v>
+        <v>-100</v>
       </c>
       <c r="H35" t="n">
-        <v>270.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>271</v>
+      </c>
+      <c r="K35" t="n">
+        <v>271</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1871,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C36" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D36" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E36" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F36" t="n">
-        <v>438.1511</v>
+        <v>15</v>
       </c>
       <c r="G36" t="n">
-        <v>265.3333333333333</v>
+        <v>-100</v>
       </c>
       <c r="H36" t="n">
-        <v>270.15</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>270</v>
+      </c>
+      <c r="K36" t="n">
+        <v>271</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1914,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C37" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D37" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E37" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F37" t="n">
-        <v>10.3114</v>
+        <v>483.8605</v>
       </c>
       <c r="G37" t="n">
-        <v>264.8666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H37" t="n">
-        <v>269.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>269</v>
+      </c>
+      <c r="K37" t="n">
+        <v>271</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1957,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C38" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D38" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E38" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F38" t="n">
-        <v>37.7043</v>
+        <v>1845.6814</v>
       </c>
       <c r="G38" t="n">
-        <v>264.3333333333333</v>
+        <v>-50</v>
       </c>
       <c r="H38" t="n">
-        <v>269.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="K38" t="n">
+        <v>269</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1996,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C39" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D39" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E39" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F39" t="n">
-        <v>758.203</v>
+        <v>454.0191</v>
       </c>
       <c r="G39" t="n">
-        <v>263.8</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>269.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>270</v>
+      </c>
+      <c r="K39" t="n">
+        <v>269</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +2039,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C40" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D40" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E40" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F40" t="n">
-        <v>5309.9371</v>
+        <v>642.8108999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>263.4666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>269.5333333333334</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>268</v>
+      </c>
+      <c r="K40" t="n">
+        <v>269</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +2082,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C41" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D41" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E41" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F41" t="n">
-        <v>1183.8496</v>
+        <v>848.7084</v>
       </c>
       <c r="G41" t="n">
-        <v>263.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>269.4166666666667</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="K41" t="n">
+        <v>269</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2121,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C42" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D42" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E42" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>519.6826</v>
       </c>
       <c r="G42" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>269.2833333333334</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>271</v>
+      </c>
+      <c r="K42" t="n">
+        <v>269</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2164,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C43" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D43" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E43" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F43" t="n">
-        <v>37.7358</v>
+        <v>2238.732</v>
       </c>
       <c r="G43" t="n">
-        <v>262.9333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H43" t="n">
-        <v>269.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>271</v>
+      </c>
+      <c r="K43" t="n">
+        <v>269</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2207,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C44" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D44" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E44" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F44" t="n">
-        <v>484.8297</v>
+        <v>1389.5703</v>
       </c>
       <c r="G44" t="n">
-        <v>263.0666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="H44" t="n">
-        <v>269.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>270</v>
+      </c>
+      <c r="K44" t="n">
+        <v>270</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2246,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C45" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D45" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E45" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F45" t="n">
-        <v>344.4896</v>
+        <v>688.2069</v>
       </c>
       <c r="G45" t="n">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="H45" t="n">
-        <v>268.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>273</v>
+      </c>
+      <c r="K45" t="n">
+        <v>270</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2289,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C46" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D46" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E46" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F46" t="n">
-        <v>39.9</v>
+        <v>614</v>
       </c>
       <c r="G46" t="n">
-        <v>263</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H46" t="n">
-        <v>268.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>273</v>
+      </c>
+      <c r="K46" t="n">
+        <v>270</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2332,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C47" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D47" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E47" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F47" t="n">
-        <v>5685.1193</v>
+        <v>124</v>
       </c>
       <c r="G47" t="n">
-        <v>263</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H47" t="n">
-        <v>268.5833333333333</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>271</v>
+      </c>
+      <c r="K47" t="n">
+        <v>271</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2371,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C48" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D48" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E48" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F48" t="n">
-        <v>1995</v>
+        <v>3932.52</v>
       </c>
       <c r="G48" t="n">
-        <v>263.1333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>268.4</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>271</v>
+      </c>
+      <c r="K48" t="n">
+        <v>271</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2414,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C49" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D49" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E49" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F49" t="n">
-        <v>487.2474</v>
+        <v>2768.7177</v>
       </c>
       <c r="G49" t="n">
-        <v>263.2</v>
+        <v>25</v>
       </c>
       <c r="H49" t="n">
-        <v>268.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>271</v>
+      </c>
+      <c r="K49" t="n">
+        <v>271</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2457,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C50" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D50" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E50" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F50" t="n">
-        <v>1406.6919</v>
+        <v>14.8999</v>
       </c>
       <c r="G50" t="n">
-        <v>263.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>268.0666666666667</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>271</v>
+      </c>
+      <c r="K50" t="n">
+        <v>271</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2500,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C51" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D51" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E51" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F51" t="n">
-        <v>1996</v>
+        <v>14.8999</v>
       </c>
       <c r="G51" t="n">
-        <v>263.4</v>
+        <v>-25</v>
       </c>
       <c r="H51" t="n">
-        <v>267.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>271</v>
+      </c>
+      <c r="K51" t="n">
+        <v>271</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2543,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C52" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D52" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E52" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F52" t="n">
-        <v>10937.9499</v>
+        <v>250.3502</v>
       </c>
       <c r="G52" t="n">
-        <v>263.4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>267.7</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>269</v>
+      </c>
+      <c r="K52" t="n">
+        <v>271</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2586,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C53" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D53" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E53" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F53" t="n">
-        <v>15.5676</v>
+        <v>61</v>
       </c>
       <c r="G53" t="n">
-        <v>263.5333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>267.55</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>270</v>
+      </c>
+      <c r="K53" t="n">
+        <v>271</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2629,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C54" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D54" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E54" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F54" t="n">
-        <v>1592.9104</v>
+        <v>1997.1524</v>
       </c>
       <c r="G54" t="n">
-        <v>263.6</v>
+        <v>-50</v>
       </c>
       <c r="H54" t="n">
-        <v>267.3833333333333</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>271</v>
+      </c>
+      <c r="K54" t="n">
+        <v>271</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2672,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C55" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D55" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E55" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F55" t="n">
-        <v>342.4337</v>
+        <v>6349.6867</v>
       </c>
       <c r="G55" t="n">
-        <v>263.4666666666666</v>
+        <v>-50</v>
       </c>
       <c r="H55" t="n">
-        <v>267.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>269</v>
+      </c>
+      <c r="K55" t="n">
+        <v>271</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2715,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C56" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D56" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E56" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F56" t="n">
-        <v>800</v>
+        <v>2462.8558</v>
       </c>
       <c r="G56" t="n">
-        <v>263.2666666666667</v>
+        <v>-50</v>
       </c>
       <c r="H56" t="n">
-        <v>266.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>267</v>
+      </c>
+      <c r="K56" t="n">
+        <v>271</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2758,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C57" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D57" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E57" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F57" t="n">
-        <v>973.5492</v>
+        <v>793.9385</v>
       </c>
       <c r="G57" t="n">
-        <v>263.3333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="H57" t="n">
-        <v>266.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+        <v>267</v>
+      </c>
+      <c r="K57" t="n">
+        <v>271</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2801,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C58" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D58" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E58" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F58" t="n">
-        <v>761</v>
+        <v>6604.89</v>
       </c>
       <c r="G58" t="n">
-        <v>263.1333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>266.65</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+        <v>266</v>
+      </c>
+      <c r="K58" t="n">
+        <v>271</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2844,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C59" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D59" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E59" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F59" t="n">
-        <v>425.5075</v>
+        <v>1370.8118</v>
       </c>
       <c r="G59" t="n">
-        <v>262.9333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="H59" t="n">
-        <v>266.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>263</v>
+      </c>
+      <c r="K59" t="n">
+        <v>271</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,25 +2899,30 @@
         <v>263</v>
       </c>
       <c r="F60" t="n">
-        <v>262.32</v>
+        <v>363.9999</v>
       </c>
       <c r="G60" t="n">
-        <v>262.9333333333333</v>
+        <v>-50</v>
       </c>
       <c r="H60" t="n">
-        <v>266.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
-        <v>1</v>
+        <v>264</v>
+      </c>
+      <c r="K60" t="n">
+        <v>271</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0.9654797047970479</v>
       </c>
     </row>
     <row r="61">
@@ -2680,36 +2930,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C61" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D61" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E61" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F61" t="n">
-        <v>368.2878</v>
+        <v>299.7668</v>
       </c>
       <c r="G61" t="n">
-        <v>263</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="H61" t="n">
-        <v>266.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+        <v>263</v>
+      </c>
+      <c r="K61" t="n">
+        <v>263</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2721,33 +2976,38 @@
         <v>262</v>
       </c>
       <c r="C62" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D62" t="n">
         <v>262</v>
       </c>
       <c r="E62" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F62" t="n">
-        <v>2530</v>
+        <v>8973.577499999999</v>
       </c>
       <c r="G62" t="n">
-        <v>262.9333333333333</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>266.0333333333334</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>263</v>
+      </c>
+      <c r="K62" t="n">
+        <v>263</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,24 +3028,29 @@
         <v>263</v>
       </c>
       <c r="F63" t="n">
-        <v>3122.0658</v>
+        <v>15.5157</v>
       </c>
       <c r="G63" t="n">
-        <v>262.9333333333333</v>
+        <v>-50</v>
       </c>
       <c r="H63" t="n">
-        <v>265.9</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>261</v>
+      </c>
+      <c r="K63" t="n">
+        <v>263</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,24 +3071,29 @@
         <v>262</v>
       </c>
       <c r="F64" t="n">
-        <v>2600</v>
+        <v>31.2861</v>
       </c>
       <c r="G64" t="n">
-        <v>262.8</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="H64" t="n">
-        <v>265.75</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+        <v>263</v>
+      </c>
+      <c r="K64" t="n">
+        <v>263</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +3102,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F65" t="n">
-        <v>7300</v>
+        <v>438.1511</v>
       </c>
       <c r="G65" t="n">
-        <v>262.7333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="H65" t="n">
-        <v>265.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>262</v>
+      </c>
+      <c r="K65" t="n">
+        <v>263</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2882,24 +3157,29 @@
         <v>262</v>
       </c>
       <c r="F66" t="n">
-        <v>1002.3176</v>
+        <v>10.3114</v>
       </c>
       <c r="G66" t="n">
-        <v>262.6666666666667</v>
+        <v>-40</v>
       </c>
       <c r="H66" t="n">
-        <v>265.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>262</v>
+      </c>
+      <c r="K66" t="n">
+        <v>263</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,24 +3200,29 @@
         <v>262</v>
       </c>
       <c r="F67" t="n">
-        <v>680</v>
+        <v>37.7043</v>
       </c>
       <c r="G67" t="n">
-        <v>262.6666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H67" t="n">
-        <v>265.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>262</v>
+      </c>
+      <c r="K67" t="n">
+        <v>263</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +3231,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C68" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D68" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E68" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F68" t="n">
-        <v>28258.0837</v>
+        <v>758.203</v>
       </c>
       <c r="G68" t="n">
-        <v>262.5333333333334</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H68" t="n">
-        <v>265.25</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>262</v>
+      </c>
+      <c r="K68" t="n">
+        <v>263</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3274,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C69" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D69" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E69" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F69" t="n">
-        <v>1502</v>
+        <v>5309.9371</v>
       </c>
       <c r="G69" t="n">
-        <v>262.4</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H69" t="n">
-        <v>265.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>263</v>
+      </c>
+      <c r="K69" t="n">
+        <v>263</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3317,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C70" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D70" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E70" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F70" t="n">
-        <v>669</v>
+        <v>1183.8496</v>
       </c>
       <c r="G70" t="n">
-        <v>262.4</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H70" t="n">
-        <v>265.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>264</v>
+      </c>
+      <c r="K70" t="n">
+        <v>263</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3360,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C71" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D71" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E71" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F71" t="n">
-        <v>1700</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>262.4666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>264.9</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>264</v>
+      </c>
+      <c r="K71" t="n">
+        <v>263</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3403,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C72" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D72" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E72" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F72" t="n">
-        <v>2406.4797</v>
+        <v>37.7358</v>
       </c>
       <c r="G72" t="n">
-        <v>262.3333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>264.75</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>263</v>
+      </c>
+      <c r="K72" t="n">
+        <v>263</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,37 +3446,42 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C73" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D73" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E73" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>484.8297</v>
       </c>
       <c r="G73" t="n">
-        <v>262.3333333333333</v>
+        <v>60</v>
       </c>
       <c r="H73" t="n">
-        <v>264.6</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
-        <v>1</v>
+        <v>265</v>
+      </c>
+      <c r="K73" t="n">
+        <v>263</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1.002604562737643</v>
       </c>
     </row>
     <row r="74">
@@ -3177,33 +3492,38 @@
         <v>264</v>
       </c>
       <c r="C74" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D74" t="n">
         <v>264</v>
       </c>
       <c r="E74" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F74" t="n">
-        <v>3638.2992</v>
+        <v>344.4896</v>
       </c>
       <c r="G74" t="n">
-        <v>262.4666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H74" t="n">
-        <v>264.5</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>265</v>
+      </c>
+      <c r="K74" t="n">
+        <v>263</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3532,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C75" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D75" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E75" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F75" t="n">
-        <v>1004</v>
+        <v>39.9</v>
       </c>
       <c r="G75" t="n">
-        <v>262.6</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H75" t="n">
-        <v>264.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>263</v>
+      </c>
+      <c r="K75" t="n">
+        <v>263</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3575,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C76" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D76" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E76" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F76" t="n">
-        <v>1887.7924</v>
+        <v>5685.1193</v>
       </c>
       <c r="G76" t="n">
-        <v>262.6666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H76" t="n">
-        <v>264.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>263</v>
+      </c>
+      <c r="K76" t="n">
+        <v>263</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3618,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D77" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E77" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F77" t="n">
-        <v>554</v>
+        <v>1995</v>
       </c>
       <c r="G77" t="n">
-        <v>262.8</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>264.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>263</v>
+      </c>
+      <c r="K77" t="n">
+        <v>263</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,24 +3673,29 @@
         <v>264</v>
       </c>
       <c r="F78" t="n">
-        <v>79.613</v>
+        <v>487.2474</v>
       </c>
       <c r="G78" t="n">
-        <v>262.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>263</v>
+      </c>
+      <c r="K78" t="n">
+        <v>263</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3704,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C79" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D79" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E79" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F79" t="n">
-        <v>1148.6499</v>
+        <v>1406.6919</v>
       </c>
       <c r="G79" t="n">
-        <v>263.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>263.9</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>264</v>
+      </c>
+      <c r="K79" t="n">
+        <v>263</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3747,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C80" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D80" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E80" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="G80" t="n">
-        <v>263.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>263.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>264</v>
+      </c>
+      <c r="K80" t="n">
+        <v>263</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3790,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C81" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D81" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E81" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F81" t="n">
-        <v>1681.5386</v>
+        <v>10937.9499</v>
       </c>
       <c r="G81" t="n">
-        <v>263.4666666666666</v>
+        <v>-60</v>
       </c>
       <c r="H81" t="n">
-        <v>263.7166666666666</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+        <v>263</v>
+      </c>
+      <c r="K81" t="n">
+        <v>263</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3833,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C82" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D82" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E82" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0001</v>
+        <v>15.5676</v>
       </c>
       <c r="G82" t="n">
-        <v>263.6666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H82" t="n">
-        <v>263.65</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+        <v>262</v>
+      </c>
+      <c r="K82" t="n">
+        <v>263</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,7 +3876,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" t="n">
         <v>264</v>
@@ -3525,27 +3885,32 @@
         <v>264</v>
       </c>
       <c r="E83" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83" t="n">
-        <v>1.0278</v>
+        <v>1592.9104</v>
       </c>
       <c r="G83" t="n">
-        <v>263.8</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>263.55</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+        <v>264</v>
+      </c>
+      <c r="K83" t="n">
+        <v>263</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3919,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C84" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D84" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E84" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F84" t="n">
-        <v>311</v>
+        <v>342.4337</v>
       </c>
       <c r="G84" t="n">
-        <v>263.9333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H84" t="n">
-        <v>263.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>264</v>
+      </c>
+      <c r="K84" t="n">
+        <v>263</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,34 +3965,39 @@
         <v>264</v>
       </c>
       <c r="C85" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D85" t="n">
         <v>264</v>
       </c>
       <c r="E85" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F85" t="n">
-        <v>3315.7226</v>
+        <v>800</v>
       </c>
       <c r="G85" t="n">
-        <v>264.0666666666667</v>
+        <v>-25</v>
       </c>
       <c r="H85" t="n">
-        <v>263.35</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="K85" t="n">
+        <v>263</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9873954372623575</v>
       </c>
     </row>
     <row r="86">
@@ -3642,24 +4017,25 @@
         <v>264</v>
       </c>
       <c r="F86" t="n">
-        <v>23.2645</v>
+        <v>973.5492</v>
       </c>
       <c r="G86" t="n">
-        <v>264.2</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H86" t="n">
-        <v>263.3</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="K86" t="n">
+        <v>261</v>
+      </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +4044,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C87" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D87" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E87" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F87" t="n">
-        <v>6.0226</v>
+        <v>761</v>
       </c>
       <c r="G87" t="n">
-        <v>264.4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>263.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>264</v>
+      </c>
+      <c r="K87" t="n">
+        <v>261</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +4087,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C88" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D88" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E88" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F88" t="n">
-        <v>711.583</v>
+        <v>425.5075</v>
       </c>
       <c r="G88" t="n">
-        <v>264.5333333333334</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H88" t="n">
-        <v>263.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>262</v>
+      </c>
+      <c r="K88" t="n">
+        <v>261</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +4130,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C89" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D89" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E89" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F89" t="n">
-        <v>2.4</v>
+        <v>262.32</v>
       </c>
       <c r="G89" t="n">
-        <v>264.6</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>263.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="K89" t="n">
+        <v>262</v>
+      </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +4169,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C90" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E90" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F90" t="n">
-        <v>41.84905660377358</v>
+        <v>368.2878</v>
       </c>
       <c r="G90" t="n">
-        <v>264.6</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>263.2833333333334</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>263</v>
+      </c>
+      <c r="K90" t="n">
+        <v>262</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +4212,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C91" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E91" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F91" t="n">
-        <v>5.0189</v>
+        <v>2530</v>
       </c>
       <c r="G91" t="n">
-        <v>264.5333333333334</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>263.3</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>264</v>
+      </c>
+      <c r="K91" t="n">
+        <v>262</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +4255,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92" t="n">
-        <v>2.7121</v>
+        <v>3122.0658</v>
       </c>
       <c r="G92" t="n">
-        <v>264.5333333333334</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H92" t="n">
-        <v>263.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>262</v>
+      </c>
+      <c r="K92" t="n">
+        <v>262</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,24 +4310,29 @@
         <v>262</v>
       </c>
       <c r="F93" t="n">
-        <v>299.8616</v>
+        <v>2600</v>
       </c>
       <c r="G93" t="n">
-        <v>264.4</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>263.3333333333333</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>263</v>
+      </c>
+      <c r="K93" t="n">
+        <v>262</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +4341,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C94" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E94" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F94" t="n">
-        <v>102746.3861</v>
+        <v>7300</v>
       </c>
       <c r="G94" t="n">
-        <v>264.2</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H94" t="n">
-        <v>263.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>262</v>
+      </c>
+      <c r="K94" t="n">
+        <v>262</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +4384,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C95" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E95" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F95" t="n">
-        <v>30959.5814</v>
+        <v>1002.3176</v>
       </c>
       <c r="G95" t="n">
-        <v>264.0666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H95" t="n">
-        <v>263.35</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>263</v>
+      </c>
+      <c r="K95" t="n">
+        <v>262</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +4427,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C96" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E96" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F96" t="n">
-        <v>3936.7877</v>
+        <v>680</v>
       </c>
       <c r="G96" t="n">
-        <v>263.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>263.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>262</v>
+      </c>
+      <c r="K96" t="n">
+        <v>262</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +4470,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C97" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E97" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F97" t="n">
-        <v>4127.738</v>
+        <v>28258.0837</v>
       </c>
       <c r="G97" t="n">
-        <v>263.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>263.4</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>262</v>
+      </c>
+      <c r="K97" t="n">
+        <v>262</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4513,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D98" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E98" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F98" t="n">
-        <v>25966.9355</v>
+        <v>1502</v>
       </c>
       <c r="G98" t="n">
-        <v>263.8666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H98" t="n">
-        <v>263.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+        <v>262</v>
+      </c>
+      <c r="K98" t="n">
+        <v>262</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4556,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C99" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D99" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E99" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F99" t="n">
-        <v>58.0716</v>
+        <v>669</v>
       </c>
       <c r="G99" t="n">
-        <v>263.9333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="n">
+        <v>262</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4599,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C100" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D100" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E100" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F100" t="n">
-        <v>137.0379</v>
+        <v>1700</v>
       </c>
       <c r="G100" t="n">
-        <v>263.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>262</v>
+      </c>
+      <c r="K100" t="n">
+        <v>262</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,37 +4642,42 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C101" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D101" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E101" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F101" t="n">
-        <v>50.1639</v>
+        <v>2406.4797</v>
       </c>
       <c r="G101" t="n">
-        <v>263.9333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="K101" t="n">
+        <v>262</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="102">
@@ -4238,36 +4685,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C102" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D102" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E102" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F102" t="n">
-        <v>40.4866</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>263.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>263.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>262</v>
+      </c>
+      <c r="K102" t="n">
+        <v>262</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,24 +4740,25 @@
         <v>264</v>
       </c>
       <c r="F103" t="n">
-        <v>60.7299</v>
+        <v>3638.2992</v>
       </c>
       <c r="G103" t="n">
-        <v>263.8666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="K103" t="n">
+        <v>262</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4767,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C104" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D104" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E104" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F104" t="n">
-        <v>60.7299</v>
+        <v>1004</v>
       </c>
       <c r="G104" t="n">
-        <v>263.8</v>
+        <v>100</v>
       </c>
       <c r="H104" t="n">
-        <v>263.45</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>264</v>
+      </c>
+      <c r="K104" t="n">
+        <v>262</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4810,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C105" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D105" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E105" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F105" t="n">
-        <v>20.2433</v>
+        <v>1887.7924</v>
       </c>
       <c r="G105" t="n">
-        <v>263.7333333333333</v>
+        <v>100</v>
       </c>
       <c r="H105" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>265</v>
+      </c>
+      <c r="K105" t="n">
+        <v>262</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4393,33 +4856,34 @@
         <v>264</v>
       </c>
       <c r="C106" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D106" t="n">
         <v>264</v>
       </c>
       <c r="E106" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F106" t="n">
-        <v>1990</v>
+        <v>554</v>
       </c>
       <c r="G106" t="n">
-        <v>263.6666666666667</v>
+        <v>50</v>
       </c>
       <c r="H106" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="K106" t="n">
+        <v>265</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4892,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C107" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D107" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E107" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F107" t="n">
-        <v>48.124</v>
+        <v>79.613</v>
       </c>
       <c r="G107" t="n">
-        <v>263.6</v>
+        <v>50</v>
       </c>
       <c r="H107" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+        <v>264</v>
+      </c>
+      <c r="K107" t="n">
+        <v>265</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4935,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C108" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D108" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E108" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F108" t="n">
-        <v>20.3244</v>
+        <v>1148.6499</v>
       </c>
       <c r="G108" t="n">
-        <v>263.6666666666667</v>
+        <v>60</v>
       </c>
       <c r="H108" t="n">
-        <v>263.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>264</v>
+      </c>
+      <c r="K108" t="n">
+        <v>265</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4978,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C109" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D109" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E109" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F109" t="n">
-        <v>25.4528</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>263.8666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>263.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="K109" t="n">
+        <v>265</v>
+      </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,24 +5029,29 @@
         <v>265</v>
       </c>
       <c r="F110" t="n">
-        <v>510</v>
+        <v>1681.5386</v>
       </c>
       <c r="G110" t="n">
-        <v>263.9333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H110" t="n">
-        <v>263.5</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+        <v>266</v>
+      </c>
+      <c r="K110" t="n">
+        <v>265</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4592,24 +5072,29 @@
         <v>265</v>
       </c>
       <c r="F111" t="n">
-        <v>1627</v>
+        <v>0.0001</v>
       </c>
       <c r="G111" t="n">
-        <v>264.0666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H111" t="n">
-        <v>263.5333333333334</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+        <v>265</v>
+      </c>
+      <c r="K111" t="n">
+        <v>265</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +5103,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C112" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D112" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E112" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F112" t="n">
-        <v>10732.5289</v>
+        <v>1.0278</v>
       </c>
       <c r="G112" t="n">
-        <v>264.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>263.5833333333333</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="K112" t="n">
+        <v>265</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +5142,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C113" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D113" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E113" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F113" t="n">
-        <v>10094.21702089552</v>
+        <v>311</v>
       </c>
       <c r="G113" t="n">
-        <v>264.4</v>
+        <v>-20</v>
       </c>
       <c r="H113" t="n">
-        <v>263.65</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+        <v>264</v>
+      </c>
+      <c r="K113" t="n">
+        <v>265</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +5185,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C114" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D114" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E114" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F114" t="n">
-        <v>8665.0936</v>
+        <v>3315.7226</v>
       </c>
       <c r="G114" t="n">
-        <v>264.5333333333334</v>
+        <v>-20</v>
       </c>
       <c r="H114" t="n">
-        <v>263.7</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+        <v>264</v>
+      </c>
+      <c r="K114" t="n">
+        <v>265</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +5228,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C115" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D115" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E115" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F115" t="n">
-        <v>21.8947</v>
+        <v>23.2645</v>
       </c>
       <c r="G115" t="n">
-        <v>264.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>263.7833333333334</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K115" t="n">
+        <v>264</v>
+      </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +5267,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C116" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D116" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E116" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F116" t="n">
-        <v>14.9921</v>
+        <v>6.0226</v>
       </c>
       <c r="G116" t="n">
-        <v>264.9333333333333</v>
+        <v>20</v>
       </c>
       <c r="H116" t="n">
-        <v>263.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>264</v>
+      </c>
+      <c r="K116" t="n">
+        <v>264</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +5310,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C117" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D117" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E117" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F117" t="n">
-        <v>15.2094</v>
+        <v>711.583</v>
       </c>
       <c r="G117" t="n">
-        <v>265.2</v>
+        <v>-20</v>
       </c>
       <c r="H117" t="n">
-        <v>263.95</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+        <v>265</v>
+      </c>
+      <c r="K117" t="n">
+        <v>264</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +5353,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C118" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D118" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E118" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F118" t="n">
-        <v>2094.7174</v>
+        <v>2.4</v>
       </c>
       <c r="G118" t="n">
-        <v>265.4666666666666</v>
+        <v>-20</v>
       </c>
       <c r="H118" t="n">
-        <v>264.05</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K118" t="n">
+        <v>264</v>
+      </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +5392,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C119" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D119" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E119" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F119" t="n">
-        <v>25.3891</v>
+        <v>41.84905660377358</v>
       </c>
       <c r="G119" t="n">
-        <v>265.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>264.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+        <v>265</v>
+      </c>
+      <c r="K119" t="n">
+        <v>264</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +5435,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C120" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D120" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E120" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F120" t="n">
-        <v>2240</v>
+        <v>5.0189</v>
       </c>
       <c r="G120" t="n">
-        <v>266.2666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H120" t="n">
-        <v>264.3</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+        <v>265</v>
+      </c>
+      <c r="K120" t="n">
+        <v>264</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +5478,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C121" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D121" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E121" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F121" t="n">
-        <v>6320</v>
+        <v>2.7121</v>
       </c>
       <c r="G121" t="n">
-        <v>266.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>264.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="K121" t="n">
+        <v>264</v>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +5517,41 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C122" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D122" t="n">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E122" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F122" t="n">
-        <v>2850</v>
+        <v>299.8616</v>
       </c>
       <c r="G122" t="n">
-        <v>267.3333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>264.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+        <v>264</v>
+      </c>
+      <c r="K122" t="n">
+        <v>264</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +5560,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>264</v>
+      </c>
+      <c r="C123" t="n">
+        <v>262</v>
+      </c>
+      <c r="D123" t="n">
         <v>270</v>
       </c>
-      <c r="C123" t="n">
-        <v>272</v>
-      </c>
-      <c r="D123" t="n">
-        <v>272</v>
-      </c>
       <c r="E123" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F123" t="n">
-        <v>8212</v>
+        <v>102746.3861</v>
       </c>
       <c r="G123" t="n">
-        <v>267.9333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>264.7166666666666</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+        <v>262</v>
+      </c>
+      <c r="K123" t="n">
+        <v>264</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +5603,41 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C124" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D124" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E124" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F124" t="n">
-        <v>2800.5005</v>
+        <v>30959.5814</v>
       </c>
       <c r="G124" t="n">
-        <v>268.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>264.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+        <v>262</v>
+      </c>
+      <c r="K124" t="n">
+        <v>264</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +5646,41 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C125" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D125" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E125" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F125" t="n">
-        <v>23065.0043</v>
+        <v>3936.7877</v>
       </c>
       <c r="G125" t="n">
-        <v>268.2</v>
+        <v>-25</v>
       </c>
       <c r="H125" t="n">
-        <v>264.8666666666667</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+        <v>264</v>
+      </c>
+      <c r="K125" t="n">
+        <v>264</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +5689,41 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C126" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D126" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E126" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F126" t="n">
-        <v>845.7159</v>
+        <v>4127.738</v>
       </c>
       <c r="G126" t="n">
-        <v>268.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>264.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+        <v>263</v>
+      </c>
+      <c r="K126" t="n">
+        <v>264</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +5732,41 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C127" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D127" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E127" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F127" t="n">
-        <v>1176.9773</v>
+        <v>25966.9355</v>
       </c>
       <c r="G127" t="n">
-        <v>268.4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H127" t="n">
-        <v>265.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+        <v>264</v>
+      </c>
+      <c r="K127" t="n">
+        <v>264</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +5775,41 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C128" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D128" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E128" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F128" t="n">
-        <v>59.4954</v>
+        <v>58.0716</v>
       </c>
       <c r="G128" t="n">
-        <v>268.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>265.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+        <v>264</v>
+      </c>
+      <c r="K128" t="n">
+        <v>264</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +5818,41 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C129" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D129" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E129" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F129" t="n">
-        <v>15.4954</v>
+        <v>137.0379</v>
       </c>
       <c r="G129" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>265.1</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+        <v>265</v>
+      </c>
+      <c r="K129" t="n">
+        <v>264</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5308,30 +5867,35 @@
         <v>264</v>
       </c>
       <c r="D130" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E130" t="n">
         <v>264</v>
       </c>
       <c r="F130" t="n">
-        <v>2375.695</v>
+        <v>50.1639</v>
       </c>
       <c r="G130" t="n">
-        <v>267.8</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>265.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+        <v>264</v>
+      </c>
+      <c r="K130" t="n">
+        <v>264</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +5904,41 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C131" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D131" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E131" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>40.4866</v>
       </c>
       <c r="G131" t="n">
-        <v>267.7333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>265.2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+        <v>264</v>
+      </c>
+      <c r="K131" t="n">
+        <v>264</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +5947,41 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D132" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E132" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F132" t="n">
-        <v>399.7437</v>
+        <v>60.7299</v>
       </c>
       <c r="G132" t="n">
-        <v>267.4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>265.2166666666666</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+        <v>264</v>
+      </c>
+      <c r="K132" t="n">
+        <v>264</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5990,41 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C133" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D133" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E133" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F133" t="n">
-        <v>570</v>
+        <v>60.7299</v>
       </c>
       <c r="G133" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>265.2166666666666</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+        <v>264</v>
+      </c>
+      <c r="K133" t="n">
+        <v>264</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,37 +6033,42 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C134" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D134" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E134" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F134" t="n">
-        <v>17561.5601</v>
+        <v>20.2433</v>
       </c>
       <c r="G134" t="n">
-        <v>266.2666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>265.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
-        <v>1</v>
+        <v>264</v>
+      </c>
+      <c r="K134" t="n">
+        <v>264</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="135">
@@ -5492,36 +6076,41 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C135" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D135" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E135" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F135" t="n">
-        <v>2156.6067</v>
+        <v>1990</v>
       </c>
       <c r="G135" t="n">
-        <v>265.6</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>265.05</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+        <v>264</v>
+      </c>
+      <c r="K135" t="n">
+        <v>264</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +6119,41 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C136" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D136" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E136" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F136" t="n">
-        <v>6439.3943</v>
+        <v>48.124</v>
       </c>
       <c r="G136" t="n">
-        <v>264.7333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>264.95</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+        <v>263</v>
+      </c>
+      <c r="K136" t="n">
+        <v>264</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,42 +6162,41 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C137" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D137" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E137" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F137" t="n">
-        <v>3798.459</v>
+        <v>20.3244</v>
       </c>
       <c r="G137" t="n">
-        <v>264.0666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H137" t="n">
-        <v>264.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="K137" t="n">
-        <v>259</v>
-      </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+        <v>264</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,42 +6205,41 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C138" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D138" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E138" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F138" t="n">
-        <v>1902.1978</v>
+        <v>25.4528</v>
       </c>
       <c r="G138" t="n">
-        <v>263.2</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>264.8</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="K138" t="n">
-        <v>260</v>
-      </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+        <v>264</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,42 +6248,41 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C139" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D139" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E139" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="n">
-        <v>1070</v>
+        <v>510</v>
       </c>
       <c r="G139" t="n">
-        <v>263.1333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>264.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="K139" t="n">
-        <v>259</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+        <v>264</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,40 +6291,41 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C140" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D140" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E140" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="n">
-        <v>2624.1292</v>
+        <v>1627</v>
       </c>
       <c r="G140" t="n">
-        <v>263.2</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>264.85</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+        <v>265</v>
+      </c>
+      <c r="K140" t="n">
+        <v>264</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5742,40 +6334,41 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C141" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D141" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E141" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F141" t="n">
-        <v>15.1399</v>
+        <v>10732.5289</v>
       </c>
       <c r="G141" t="n">
-        <v>263.3333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>264.9</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+        <v>265</v>
+      </c>
+      <c r="K141" t="n">
+        <v>264</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,7 +6377,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C142" t="n">
         <v>268</v>
@@ -5793,31 +6386,32 @@
         <v>268</v>
       </c>
       <c r="E142" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F142" t="n">
-        <v>633.7463</v>
+        <v>10094.21702089552</v>
       </c>
       <c r="G142" t="n">
-        <v>263.4</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H142" t="n">
-        <v>264.95</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+        <v>265</v>
+      </c>
+      <c r="K142" t="n">
+        <v>264</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,40 +6420,41 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>267</v>
+      </c>
+      <c r="C143" t="n">
+        <v>267</v>
+      </c>
+      <c r="D143" t="n">
+        <v>267</v>
+      </c>
+      <c r="E143" t="n">
+        <v>267</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8665.0936</v>
+      </c>
+      <c r="G143" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
         <v>268</v>
       </c>
-      <c r="C143" t="n">
-        <v>265</v>
-      </c>
-      <c r="D143" t="n">
-        <v>268</v>
-      </c>
-      <c r="E143" t="n">
-        <v>265</v>
-      </c>
-      <c r="F143" t="n">
-        <v>210.5548</v>
-      </c>
-      <c r="G143" t="n">
-        <v>263.3333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>264.9666666666666</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="K143" t="n">
+        <v>264</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,28 +6475,1272 @@
         <v>267</v>
       </c>
       <c r="F144" t="n">
+        <v>21.8947</v>
+      </c>
+      <c r="G144" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>267</v>
+      </c>
+      <c r="K144" t="n">
+        <v>264</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>267</v>
+      </c>
+      <c r="C145" t="n">
+        <v>267</v>
+      </c>
+      <c r="D145" t="n">
+        <v>267</v>
+      </c>
+      <c r="E145" t="n">
+        <v>267</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14.9921</v>
+      </c>
+      <c r="G145" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>267</v>
+      </c>
+      <c r="K145" t="n">
+        <v>264</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>268</v>
+      </c>
+      <c r="C146" t="n">
+        <v>268</v>
+      </c>
+      <c r="D146" t="n">
+        <v>268</v>
+      </c>
+      <c r="E146" t="n">
+        <v>268</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15.2094</v>
+      </c>
+      <c r="G146" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>267</v>
+      </c>
+      <c r="K146" t="n">
+        <v>264</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1.010151515151515</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>269</v>
+      </c>
+      <c r="C147" t="n">
+        <v>268</v>
+      </c>
+      <c r="D147" t="n">
+        <v>269</v>
+      </c>
+      <c r="E147" t="n">
+        <v>268</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2094.7174</v>
+      </c>
+      <c r="G147" t="n">
+        <v>60</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>268</v>
+      </c>
+      <c r="K147" t="n">
+        <v>267</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>270</v>
+      </c>
+      <c r="C148" t="n">
+        <v>270</v>
+      </c>
+      <c r="D148" t="n">
+        <v>270</v>
+      </c>
+      <c r="E148" t="n">
+        <v>270</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25.3891</v>
+      </c>
+      <c r="G148" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>268</v>
+      </c>
+      <c r="K148" t="n">
+        <v>268</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>270</v>
+      </c>
+      <c r="C149" t="n">
+        <v>270</v>
+      </c>
+      <c r="D149" t="n">
+        <v>270</v>
+      </c>
+      <c r="E149" t="n">
+        <v>270</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2240</v>
+      </c>
+      <c r="G149" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>270</v>
+      </c>
+      <c r="K149" t="n">
+        <v>268</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>270</v>
+      </c>
+      <c r="C150" t="n">
+        <v>272</v>
+      </c>
+      <c r="D150" t="n">
+        <v>272</v>
+      </c>
+      <c r="E150" t="n">
+        <v>270</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6320</v>
+      </c>
+      <c r="G150" t="n">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>270</v>
+      </c>
+      <c r="K150" t="n">
+        <v>268</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>273</v>
+      </c>
+      <c r="C151" t="n">
+        <v>270</v>
+      </c>
+      <c r="D151" t="n">
+        <v>273</v>
+      </c>
+      <c r="E151" t="n">
+        <v>270</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2850</v>
+      </c>
+      <c r="G151" t="n">
+        <v>25</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>272</v>
+      </c>
+      <c r="K151" t="n">
+        <v>268</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>270</v>
+      </c>
+      <c r="C152" t="n">
+        <v>272</v>
+      </c>
+      <c r="D152" t="n">
+        <v>272</v>
+      </c>
+      <c r="E152" t="n">
+        <v>270</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8212</v>
+      </c>
+      <c r="G152" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>270</v>
+      </c>
+      <c r="K152" t="n">
+        <v>268</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>268</v>
+      </c>
+      <c r="C153" t="n">
+        <v>268</v>
+      </c>
+      <c r="D153" t="n">
+        <v>268</v>
+      </c>
+      <c r="E153" t="n">
+        <v>268</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2800.5005</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>272</v>
+      </c>
+      <c r="K153" t="n">
+        <v>268</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>268</v>
+      </c>
+      <c r="C154" t="n">
+        <v>266</v>
+      </c>
+      <c r="D154" t="n">
+        <v>268</v>
+      </c>
+      <c r="E154" t="n">
+        <v>266</v>
+      </c>
+      <c r="F154" t="n">
+        <v>23065.0043</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>268</v>
+      </c>
+      <c r="K154" t="n">
+        <v>268</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>266</v>
+      </c>
+      <c r="C155" t="n">
+        <v>266</v>
+      </c>
+      <c r="D155" t="n">
+        <v>266</v>
+      </c>
+      <c r="E155" t="n">
+        <v>266</v>
+      </c>
+      <c r="F155" t="n">
+        <v>845.7159</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>266</v>
+      </c>
+      <c r="K155" t="n">
+        <v>268</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>267</v>
+      </c>
+      <c r="C156" t="n">
+        <v>267</v>
+      </c>
+      <c r="D156" t="n">
+        <v>267</v>
+      </c>
+      <c r="E156" t="n">
+        <v>267</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1176.9773</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>266</v>
+      </c>
+      <c r="K156" t="n">
+        <v>268</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>265</v>
+      </c>
+      <c r="C157" t="n">
+        <v>266</v>
+      </c>
+      <c r="D157" t="n">
+        <v>266</v>
+      </c>
+      <c r="E157" t="n">
+        <v>265</v>
+      </c>
+      <c r="F157" t="n">
+        <v>59.4954</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-28.57142857142857</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>267</v>
+      </c>
+      <c r="K157" t="n">
+        <v>268</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>263</v>
+      </c>
+      <c r="C158" t="n">
+        <v>263</v>
+      </c>
+      <c r="D158" t="n">
+        <v>263</v>
+      </c>
+      <c r="E158" t="n">
+        <v>263</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15.4954</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-41.17647058823529</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>266</v>
+      </c>
+      <c r="K158" t="n">
+        <v>268</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>264</v>
+      </c>
+      <c r="C159" t="n">
+        <v>264</v>
+      </c>
+      <c r="D159" t="n">
+        <v>264</v>
+      </c>
+      <c r="E159" t="n">
+        <v>264</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2375.695</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>263</v>
+      </c>
+      <c r="K159" t="n">
+        <v>268</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>266</v>
+      </c>
+      <c r="C160" t="n">
+        <v>266</v>
+      </c>
+      <c r="D160" t="n">
+        <v>266</v>
+      </c>
+      <c r="E160" t="n">
+        <v>266</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>264</v>
+      </c>
+      <c r="K160" t="n">
+        <v>268</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>263</v>
+      </c>
+      <c r="C161" t="n">
+        <v>263</v>
+      </c>
+      <c r="D161" t="n">
+        <v>263</v>
+      </c>
+      <c r="E161" t="n">
+        <v>263</v>
+      </c>
+      <c r="F161" t="n">
+        <v>399.7437</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-52.94117647058824</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>266</v>
+      </c>
+      <c r="K161" t="n">
+        <v>268</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>261</v>
+      </c>
+      <c r="C162" t="n">
+        <v>262</v>
+      </c>
+      <c r="D162" t="n">
+        <v>262</v>
+      </c>
+      <c r="E162" t="n">
+        <v>260</v>
+      </c>
+      <c r="F162" t="n">
+        <v>570</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-42.85714285714285</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>263</v>
+      </c>
+      <c r="K162" t="n">
+        <v>268</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>0.9726119402985075</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>258</v>
+      </c>
+      <c r="C163" t="n">
+        <v>259</v>
+      </c>
+      <c r="D163" t="n">
+        <v>259</v>
+      </c>
+      <c r="E163" t="n">
+        <v>258</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17561.5601</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-46.66666666666666</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>262</v>
+      </c>
+      <c r="K163" t="n">
+        <v>266</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>260</v>
+      </c>
+      <c r="C164" t="n">
+        <v>260</v>
+      </c>
+      <c r="D164" t="n">
+        <v>260</v>
+      </c>
+      <c r="E164" t="n">
+        <v>260</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2156.6067</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>259</v>
+      </c>
+      <c r="K164" t="n">
+        <v>266</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>259</v>
+      </c>
+      <c r="C165" t="n">
+        <v>259</v>
+      </c>
+      <c r="D165" t="n">
+        <v>259</v>
+      </c>
+      <c r="E165" t="n">
+        <v>259</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6439.3943</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>260</v>
+      </c>
+      <c r="K165" t="n">
+        <v>266</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>259</v>
+      </c>
+      <c r="C166" t="n">
+        <v>260</v>
+      </c>
+      <c r="D166" t="n">
+        <v>260</v>
+      </c>
+      <c r="E166" t="n">
+        <v>259</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3798.459</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>259</v>
+      </c>
+      <c r="K166" t="n">
+        <v>266</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>259</v>
+      </c>
+      <c r="C167" t="n">
+        <v>259</v>
+      </c>
+      <c r="D167" t="n">
+        <v>259</v>
+      </c>
+      <c r="E167" t="n">
+        <v>259</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1902.1978</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-28.57142857142857</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>260</v>
+      </c>
+      <c r="K167" t="n">
+        <v>266</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>267</v>
+      </c>
+      <c r="C168" t="n">
+        <v>267</v>
+      </c>
+      <c r="D168" t="n">
+        <v>267</v>
+      </c>
+      <c r="E168" t="n">
+        <v>267</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G168" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>259</v>
+      </c>
+      <c r="K168" t="n">
+        <v>266</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>267</v>
+      </c>
+      <c r="C169" t="n">
+        <v>267</v>
+      </c>
+      <c r="D169" t="n">
+        <v>267</v>
+      </c>
+      <c r="E169" t="n">
+        <v>267</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2624.1292</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>267</v>
+      </c>
+      <c r="K169" t="n">
+        <v>266</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>268</v>
+      </c>
+      <c r="C170" t="n">
+        <v>268</v>
+      </c>
+      <c r="D170" t="n">
+        <v>268</v>
+      </c>
+      <c r="E170" t="n">
+        <v>268</v>
+      </c>
+      <c r="F170" t="n">
+        <v>15.1399</v>
+      </c>
+      <c r="G170" t="n">
+        <v>29.41176470588236</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>267</v>
+      </c>
+      <c r="K170" t="n">
+        <v>266</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>268</v>
+      </c>
+      <c r="C171" t="n">
+        <v>268</v>
+      </c>
+      <c r="D171" t="n">
+        <v>268</v>
+      </c>
+      <c r="E171" t="n">
+        <v>268</v>
+      </c>
+      <c r="F171" t="n">
+        <v>633.7463</v>
+      </c>
+      <c r="G171" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>268</v>
+      </c>
+      <c r="K171" t="n">
+        <v>266</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>268</v>
+      </c>
+      <c r="C172" t="n">
+        <v>265</v>
+      </c>
+      <c r="D172" t="n">
+        <v>268</v>
+      </c>
+      <c r="E172" t="n">
+        <v>265</v>
+      </c>
+      <c r="F172" t="n">
+        <v>210.5548</v>
+      </c>
+      <c r="G172" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>268</v>
+      </c>
+      <c r="K172" t="n">
+        <v>266</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>267</v>
+      </c>
+      <c r="C173" t="n">
+        <v>267</v>
+      </c>
+      <c r="D173" t="n">
+        <v>267</v>
+      </c>
+      <c r="E173" t="n">
+        <v>267</v>
+      </c>
+      <c r="F173" t="n">
         <v>42</v>
       </c>
-      <c r="G144" t="n">
-        <v>263.6</v>
-      </c>
-      <c r="H144" t="n">
-        <v>265.0166666666667</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="G173" t="n">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>265</v>
+      </c>
+      <c r="K173" t="n">
+        <v>266</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D2" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E2" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F2" t="n">
-        <v>1389.5703</v>
+        <v>5143.6765</v>
       </c>
       <c r="G2" t="n">
-        <v>11159.2044786007</v>
+        <v>13648.90611449814</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C3" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D3" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E3" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F3" t="n">
-        <v>688.2069</v>
+        <v>14450</v>
       </c>
       <c r="G3" t="n">
-        <v>11159.2044786007</v>
+        <v>13648.90611449814</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" t="n">
-        <v>614</v>
+        <v>10281.2413</v>
       </c>
       <c r="G4" t="n">
-        <v>10545.2044786007</v>
+        <v>23930.14741449814</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -558,16 +558,16 @@
         <v>271</v>
       </c>
       <c r="F5" t="n">
-        <v>124</v>
+        <v>1670</v>
       </c>
       <c r="G5" t="n">
-        <v>10545.2044786007</v>
+        <v>25600.14741449814</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,16 +594,16 @@
         <v>271</v>
       </c>
       <c r="F6" t="n">
-        <v>3932.52</v>
+        <v>1316.3911</v>
       </c>
       <c r="G6" t="n">
-        <v>10545.2044786007</v>
+        <v>25600.14741449814</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -621,25 +621,25 @@
         <v>272</v>
       </c>
       <c r="C7" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D7" t="n">
+        <v>273</v>
+      </c>
+      <c r="E7" t="n">
         <v>272</v>
       </c>
-      <c r="E7" t="n">
-        <v>271</v>
-      </c>
       <c r="F7" t="n">
-        <v>2768.7177</v>
+        <v>12223.7582</v>
       </c>
       <c r="G7" t="n">
-        <v>10545.2044786007</v>
+        <v>37823.90561449814</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F8" t="n">
-        <v>14.8999</v>
+        <v>1535.5238</v>
       </c>
       <c r="G8" t="n">
-        <v>10545.2044786007</v>
+        <v>37823.90561449814</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C9" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D9" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E9" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F9" t="n">
-        <v>14.8999</v>
+        <v>24408.0291</v>
       </c>
       <c r="G9" t="n">
-        <v>10530.3045786007</v>
+        <v>62231.93471449814</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C10" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D10" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E10" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F10" t="n">
-        <v>250.3502</v>
+        <v>5631.897435897436</v>
       </c>
       <c r="G10" t="n">
-        <v>10780.6547786007</v>
+        <v>56600.0372786007</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C11" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D11" t="n">
+        <v>274</v>
+      </c>
+      <c r="E11" t="n">
         <v>272</v>
       </c>
-      <c r="E11" t="n">
-        <v>271</v>
-      </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>1942.7613</v>
       </c>
       <c r="G11" t="n">
-        <v>10841.6547786007</v>
+        <v>54657.2759786007</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E12" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F12" t="n">
-        <v>1997.1524</v>
+        <v>4191.6937</v>
       </c>
       <c r="G12" t="n">
-        <v>8844.5023786007</v>
+        <v>50465.5822786007</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C13" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D13" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E13" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F13" t="n">
-        <v>6349.6867</v>
+        <v>2837.3999</v>
       </c>
       <c r="G13" t="n">
-        <v>2494.8156786007</v>
+        <v>50465.5822786007</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C14" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D14" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F14" t="n">
-        <v>2462.8558</v>
+        <v>464.389</v>
       </c>
       <c r="G14" t="n">
-        <v>2494.8156786007</v>
+        <v>50465.5822786007</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C15" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D15" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E15" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F15" t="n">
-        <v>793.9385</v>
+        <v>3841.9535</v>
       </c>
       <c r="G15" t="n">
-        <v>1700.8771786007</v>
+        <v>46623.6287786007</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C16" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D16" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E16" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F16" t="n">
-        <v>6604.89</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>-4904.0128213993</v>
+        <v>46601.6287786007</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C17" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D17" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E17" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F17" t="n">
-        <v>1370.8118</v>
+        <v>14415.1988</v>
       </c>
       <c r="G17" t="n">
-        <v>-3533.2010213993</v>
+        <v>61016.8275786007</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C18" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D18" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E18" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F18" t="n">
-        <v>363.9999</v>
+        <v>428.4638</v>
       </c>
       <c r="G18" t="n">
-        <v>-3897.200921399301</v>
+        <v>60588.3637786007</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C19" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D19" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E19" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F19" t="n">
-        <v>299.7668</v>
+        <v>3802.2</v>
       </c>
       <c r="G19" t="n">
-        <v>-3897.200921399301</v>
+        <v>64390.5637786007</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C20" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D20" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E20" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F20" t="n">
-        <v>8973.577499999999</v>
+        <v>1887.9824</v>
       </c>
       <c r="G20" t="n">
-        <v>-12870.7784213993</v>
+        <v>64390.5637786007</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C21" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D21" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E21" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F21" t="n">
-        <v>15.5157</v>
+        <v>3200</v>
       </c>
       <c r="G21" t="n">
-        <v>-12855.2627213993</v>
+        <v>67590.5637786007</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C22" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D22" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E22" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F22" t="n">
-        <v>31.2861</v>
+        <v>831.1603</v>
       </c>
       <c r="G22" t="n">
-        <v>-12886.5488213993</v>
+        <v>67590.5637786007</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C23" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D23" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E23" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F23" t="n">
-        <v>438.1511</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>-12886.5488213993</v>
+        <v>67590.5637786007</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C24" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D24" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E24" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F24" t="n">
-        <v>10.3114</v>
+        <v>7341.6814</v>
       </c>
       <c r="G24" t="n">
-        <v>-12886.5488213993</v>
+        <v>74932.2451786007</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C25" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D25" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E25" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F25" t="n">
-        <v>37.7043</v>
+        <v>4331.4399</v>
       </c>
       <c r="G25" t="n">
-        <v>-12886.5488213993</v>
+        <v>74932.2451786007</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C26" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D26" t="n">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E26" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F26" t="n">
-        <v>758.203</v>
+        <v>48190.838</v>
       </c>
       <c r="G26" t="n">
-        <v>-12128.3458213993</v>
+        <v>26741.4071786007</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C27" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D27" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E27" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F27" t="n">
-        <v>5309.9371</v>
+        <v>371.651</v>
       </c>
       <c r="G27" t="n">
-        <v>-6818.4087213993</v>
+        <v>27113.0581786007</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C28" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D28" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E28" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F28" t="n">
-        <v>1183.8496</v>
+        <v>4523</v>
       </c>
       <c r="G28" t="n">
-        <v>-6818.4087213993</v>
+        <v>31636.0581786007</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C29" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D29" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E29" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>824.91</v>
       </c>
       <c r="G29" t="n">
-        <v>-6829.4087213993</v>
+        <v>30811.1481786007</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C30" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D30" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E30" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F30" t="n">
-        <v>37.7358</v>
+        <v>8852.427600000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-6791.672921399299</v>
+        <v>39663.5757786007</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C31" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D31" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E31" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8297</v>
+        <v>154</v>
       </c>
       <c r="G31" t="n">
-        <v>-6791.672921399299</v>
+        <v>39509.5757786007</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C32" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D32" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E32" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F32" t="n">
-        <v>344.4896</v>
+        <v>14303.169</v>
       </c>
       <c r="G32" t="n">
-        <v>-7136.162521399299</v>
+        <v>39509.5757786007</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C33" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D33" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E33" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F33" t="n">
-        <v>39.9</v>
+        <v>2612.5109</v>
       </c>
       <c r="G33" t="n">
-        <v>-7136.162521399299</v>
+        <v>36897.0648786007</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C34" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D34" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E34" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F34" t="n">
-        <v>5685.1193</v>
+        <v>2114.7274</v>
       </c>
       <c r="G34" t="n">
-        <v>-7136.162521399299</v>
+        <v>36897.0648786007</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C35" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D35" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E35" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F35" t="n">
-        <v>1995</v>
+        <v>1829.2</v>
       </c>
       <c r="G35" t="n">
-        <v>-7136.162521399299</v>
+        <v>36897.0648786007</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C36" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D36" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E36" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F36" t="n">
-        <v>487.2474</v>
+        <v>644.8018</v>
       </c>
       <c r="G36" t="n">
-        <v>-6648.915121399299</v>
+        <v>36897.0648786007</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C37" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D37" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E37" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F37" t="n">
-        <v>1406.6919</v>
+        <v>2646.9001</v>
       </c>
       <c r="G37" t="n">
-        <v>-6648.915121399299</v>
+        <v>36897.0648786007</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C38" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D38" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E38" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F38" t="n">
-        <v>1996</v>
+        <v>345.3529</v>
       </c>
       <c r="G38" t="n">
-        <v>-8644.915121399299</v>
+        <v>36897.0648786007</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,38 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C39" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D39" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E39" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F39" t="n">
-        <v>10937.9499</v>
+        <v>12000</v>
       </c>
       <c r="G39" t="n">
-        <v>-19582.8650213993</v>
+        <v>24897.0648786007</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>263</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1812,38 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C40" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D40" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E40" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F40" t="n">
-        <v>15.5676</v>
+        <v>2057.6246</v>
       </c>
       <c r="G40" t="n">
-        <v>-19567.2974213993</v>
+        <v>24897.0648786007</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>262</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1854,38 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C41" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D41" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E41" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F41" t="n">
-        <v>1592.9104</v>
+        <v>1034.7204</v>
       </c>
       <c r="G41" t="n">
-        <v>-19567.2974213993</v>
+        <v>24897.0648786007</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>264</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1896,38 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C42" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D42" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E42" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F42" t="n">
-        <v>342.4337</v>
+        <v>875.29</v>
       </c>
       <c r="G42" t="n">
-        <v>-19909.7311213993</v>
+        <v>24897.0648786007</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>264</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1938,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C43" t="n">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D43" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E43" t="n">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>1112.8668</v>
       </c>
       <c r="G43" t="n">
-        <v>-20709.7311213993</v>
+        <v>26009.9316786007</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>262</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1980,38 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C44" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D44" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E44" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F44" t="n">
-        <v>973.5492</v>
+        <v>3310</v>
       </c>
       <c r="G44" t="n">
-        <v>-19736.1819213993</v>
+        <v>29319.9316786007</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>261</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2022,36 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C45" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D45" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E45" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F45" t="n">
-        <v>761</v>
+        <v>3804</v>
       </c>
       <c r="G45" t="n">
-        <v>-20497.1819213993</v>
+        <v>33123.9316786007</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2062,36 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C46" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D46" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E46" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F46" t="n">
-        <v>425.5075</v>
+        <v>3209.031</v>
       </c>
       <c r="G46" t="n">
-        <v>-20497.1819213993</v>
+        <v>33123.9316786007</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2102,36 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C47" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D47" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E47" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F47" t="n">
-        <v>262.32</v>
+        <v>225.2536</v>
       </c>
       <c r="G47" t="n">
-        <v>-20234.8619213993</v>
+        <v>33123.9316786007</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2142,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C48" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D48" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E48" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F48" t="n">
-        <v>368.2878</v>
+        <v>1470</v>
       </c>
       <c r="G48" t="n">
-        <v>-19866.5741213993</v>
+        <v>33123.9316786007</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2167,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2182,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C49" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D49" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E49" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F49" t="n">
-        <v>2530</v>
+        <v>2542.9964</v>
       </c>
       <c r="G49" t="n">
-        <v>-22396.5741213993</v>
+        <v>33123.9316786007</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2207,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2222,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C50" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D50" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E50" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F50" t="n">
-        <v>3122.0658</v>
+        <v>2766.2908</v>
       </c>
       <c r="G50" t="n">
-        <v>-19274.5083213993</v>
+        <v>30357.6408786007</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2247,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2262,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C51" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D51" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E51" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F51" t="n">
-        <v>2600</v>
+        <v>2434.3081</v>
       </c>
       <c r="G51" t="n">
-        <v>-21874.5083213993</v>
+        <v>30357.6408786007</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2287,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2302,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C52" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D52" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E52" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F52" t="n">
-        <v>7300</v>
+        <v>2886.998</v>
       </c>
       <c r="G52" t="n">
-        <v>-14574.5083213993</v>
+        <v>33244.6388786007</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2327,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2342,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C53" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D53" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E53" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F53" t="n">
-        <v>1002.3176</v>
+        <v>262.444</v>
       </c>
       <c r="G53" t="n">
-        <v>-15576.8259213993</v>
+        <v>33244.6388786007</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2367,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C54" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D54" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E54" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F54" t="n">
-        <v>680</v>
+        <v>4761.1787</v>
       </c>
       <c r="G54" t="n">
-        <v>-15576.8259213993</v>
+        <v>28483.4601786007</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2407,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2422,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C55" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D55" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E55" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F55" t="n">
-        <v>28258.0837</v>
+        <v>15027.7238</v>
       </c>
       <c r="G55" t="n">
-        <v>-15576.8259213993</v>
+        <v>28483.4601786007</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>262</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2464,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C56" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D56" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E56" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F56" t="n">
-        <v>1502</v>
+        <v>3523.5327</v>
       </c>
       <c r="G56" t="n">
-        <v>-15576.8259213993</v>
+        <v>28483.4601786007</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>262</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2506,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C57" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D57" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E57" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F57" t="n">
-        <v>669</v>
+        <v>138.8663</v>
       </c>
       <c r="G57" t="n">
-        <v>-15576.8259213993</v>
+        <v>28483.4601786007</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>262</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2548,38 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C58" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D58" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E58" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F58" t="n">
-        <v>1700</v>
+        <v>2730</v>
       </c>
       <c r="G58" t="n">
-        <v>-15576.8259213993</v>
+        <v>25753.4601786007</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>262</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2590,38 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C59" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D59" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E59" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F59" t="n">
-        <v>2406.4797</v>
+        <v>2368</v>
       </c>
       <c r="G59" t="n">
-        <v>-15576.8259213993</v>
+        <v>25753.4601786007</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>262</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2632,38 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C60" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D60" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E60" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>16116.2645</v>
       </c>
       <c r="G60" t="n">
-        <v>-15576.8259213993</v>
+        <v>9637.195678600701</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>262</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2674,38 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C61" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D61" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E61" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F61" t="n">
-        <v>3638.2992</v>
+        <v>1618</v>
       </c>
       <c r="G61" t="n">
-        <v>-11938.5267213993</v>
+        <v>9637.195678600701</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>262</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2716,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C62" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D62" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E62" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F62" t="n">
-        <v>1004</v>
+        <v>419.1193</v>
       </c>
       <c r="G62" t="n">
-        <v>-10934.5267213993</v>
+        <v>9637.195678600701</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>264</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2758,38 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C63" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D63" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E63" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F63" t="n">
-        <v>1887.7924</v>
+        <v>15</v>
       </c>
       <c r="G63" t="n">
-        <v>-10934.5267213993</v>
+        <v>9637.195678600701</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>265</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2800,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C64" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D64" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E64" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F64" t="n">
-        <v>554</v>
+        <v>497.0111</v>
       </c>
       <c r="G64" t="n">
-        <v>-11488.5267213993</v>
+        <v>9140.184578600702</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2825,11 +2695,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2840,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C65" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D65" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E65" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F65" t="n">
-        <v>79.613</v>
+        <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>-11488.5267213993</v>
+        <v>9125.184578600702</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2865,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2880,38 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C66" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D66" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E66" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F66" t="n">
-        <v>1148.6499</v>
+        <v>483.8605</v>
       </c>
       <c r="G66" t="n">
-        <v>-10339.8768213993</v>
+        <v>9125.184578600702</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>264</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2922,38 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C67" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D67" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E67" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>1845.6814</v>
       </c>
       <c r="G67" t="n">
-        <v>-10338.8768213993</v>
+        <v>10970.8659786007</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>265</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2964,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C68" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D68" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E68" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F68" t="n">
-        <v>1681.5386</v>
+        <v>454.0191</v>
       </c>
       <c r="G68" t="n">
-        <v>-12020.4154213993</v>
+        <v>10516.8468786007</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2989,11 +2839,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3004,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C69" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D69" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E69" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0001</v>
+        <v>642.8108999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-12020.4154213993</v>
+        <v>11159.6577786007</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3029,11 +2875,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3044,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C70" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D70" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E70" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0278</v>
+        <v>848.7084</v>
       </c>
       <c r="G70" t="n">
-        <v>-12021.4432213993</v>
+        <v>12008.3661786007</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3069,11 +2911,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3084,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C71" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D71" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E71" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F71" t="n">
-        <v>311</v>
+        <v>519.6826</v>
       </c>
       <c r="G71" t="n">
-        <v>-12021.4432213993</v>
+        <v>12008.3661786007</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3109,11 +2947,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3124,38 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C72" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D72" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E72" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F72" t="n">
-        <v>3315.7226</v>
+        <v>2238.732</v>
       </c>
       <c r="G72" t="n">
-        <v>-12021.4432213993</v>
+        <v>9769.634178600701</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>264</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3166,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C73" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D73" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E73" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F73" t="n">
-        <v>23.2645</v>
+        <v>1389.5703</v>
       </c>
       <c r="G73" t="n">
-        <v>-12021.4432213993</v>
+        <v>11159.2044786007</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3191,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3206,38 +3030,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C74" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D74" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E74" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F74" t="n">
-        <v>6.0226</v>
+        <v>688.2069</v>
       </c>
       <c r="G74" t="n">
-        <v>-12015.4206213993</v>
+        <v>11159.2044786007</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>264</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3248,38 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D75" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E75" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F75" t="n">
-        <v>711.583</v>
+        <v>614</v>
       </c>
       <c r="G75" t="n">
-        <v>-12727.0036213993</v>
+        <v>10545.2044786007</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>265</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3290,38 +3102,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C76" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D76" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E76" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F76" t="n">
-        <v>2.4</v>
+        <v>124</v>
       </c>
       <c r="G76" t="n">
-        <v>-12724.6036213993</v>
+        <v>10545.2044786007</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>264</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3332,38 +3138,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C77" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D77" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E77" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F77" t="n">
-        <v>41.84905660377358</v>
+        <v>3932.52</v>
       </c>
       <c r="G77" t="n">
-        <v>-12724.6036213993</v>
+        <v>10545.2044786007</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>265</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3374,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C78" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D78" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E78" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F78" t="n">
-        <v>5.0189</v>
+        <v>2768.7177</v>
       </c>
       <c r="G78" t="n">
-        <v>-12729.6225213993</v>
+        <v>10545.2044786007</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3399,11 +3199,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3414,38 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C79" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D79" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E79" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F79" t="n">
-        <v>2.7121</v>
+        <v>14.8999</v>
       </c>
       <c r="G79" t="n">
-        <v>-12729.6225213993</v>
+        <v>10545.2044786007</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>264</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3456,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C80" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D80" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E80" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F80" t="n">
-        <v>299.8616</v>
+        <v>14.8999</v>
       </c>
       <c r="G80" t="n">
-        <v>-13029.4841213993</v>
+        <v>10530.3045786007</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3481,11 +3271,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3496,38 +3282,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C81" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D81" t="n">
         <v>270</v>
       </c>
       <c r="E81" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F81" t="n">
-        <v>102746.3861</v>
+        <v>250.3502</v>
       </c>
       <c r="G81" t="n">
-        <v>-13029.4841213993</v>
+        <v>10780.6547786007</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>262</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3538,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C82" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D82" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E82" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F82" t="n">
-        <v>30959.5814</v>
+        <v>61</v>
       </c>
       <c r="G82" t="n">
-        <v>17930.0972786007</v>
+        <v>10841.6547786007</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3563,11 +3343,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3578,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C83" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D83" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E83" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F83" t="n">
-        <v>3936.7877</v>
+        <v>1997.1524</v>
       </c>
       <c r="G83" t="n">
-        <v>13993.3095786007</v>
+        <v>8844.5023786007</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3603,11 +3379,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C84" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D84" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E84" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F84" t="n">
-        <v>4127.738</v>
+        <v>6349.6867</v>
       </c>
       <c r="G84" t="n">
-        <v>18121.0475786007</v>
+        <v>2494.8156786007</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3643,11 +3415,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C85" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D85" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E85" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F85" t="n">
-        <v>25966.9355</v>
+        <v>2462.8558</v>
       </c>
       <c r="G85" t="n">
-        <v>18121.0475786007</v>
+        <v>2494.8156786007</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3683,11 +3451,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3698,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C86" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D86" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E86" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F86" t="n">
-        <v>58.0716</v>
+        <v>793.9385</v>
       </c>
       <c r="G86" t="n">
-        <v>18179.1191786007</v>
+        <v>1700.8771786007</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3723,11 +3487,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3738,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C87" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D87" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E87" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F87" t="n">
-        <v>137.0379</v>
+        <v>6604.89</v>
       </c>
       <c r="G87" t="n">
-        <v>18042.0812786007</v>
+        <v>-4904.0128213993</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3763,11 +3523,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3784,30 +3540,30 @@
         <v>264</v>
       </c>
       <c r="D88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E88" t="n">
         <v>264</v>
       </c>
       <c r="F88" t="n">
-        <v>50.1639</v>
+        <v>1370.8118</v>
       </c>
       <c r="G88" t="n">
-        <v>18042.0812786007</v>
+        <v>-3533.2010213993</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="n">
+        <v>263</v>
+      </c>
+      <c r="K88" t="n">
+        <v>263</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3818,34 +3574,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E89" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F89" t="n">
-        <v>40.4866</v>
+        <v>363.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>18042.0812786007</v>
+        <v>-3897.200921399301</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>264</v>
+      </c>
+      <c r="K89" t="n">
+        <v>263</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3858,34 +3618,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E90" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F90" t="n">
-        <v>60.7299</v>
+        <v>299.7668</v>
       </c>
       <c r="G90" t="n">
-        <v>18042.0812786007</v>
+        <v>-3897.200921399301</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>263</v>
+      </c>
+      <c r="K90" t="n">
+        <v>263</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3898,34 +3662,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C91" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D91" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E91" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F91" t="n">
-        <v>60.7299</v>
+        <v>8973.577499999999</v>
       </c>
       <c r="G91" t="n">
-        <v>18042.0812786007</v>
+        <v>-12870.7784213993</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>263</v>
+      </c>
+      <c r="K91" t="n">
+        <v>263</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -3938,31 +3706,35 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E92" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92" t="n">
-        <v>20.2433</v>
+        <v>15.5157</v>
       </c>
       <c r="G92" t="n">
-        <v>18042.0812786007</v>
+        <v>-12855.2627213993</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>261</v>
+      </c>
+      <c r="K92" t="n">
+        <v>263</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,31 +3750,35 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C93" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E93" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F93" t="n">
-        <v>1990</v>
+        <v>31.2861</v>
       </c>
       <c r="G93" t="n">
-        <v>16052.0812786007</v>
+        <v>-12886.5488213993</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>263</v>
+      </c>
+      <c r="K93" t="n">
+        <v>263</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,31 +3794,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C94" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E94" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F94" t="n">
-        <v>48.124</v>
+        <v>438.1511</v>
       </c>
       <c r="G94" t="n">
-        <v>16052.0812786007</v>
+        <v>-12886.5488213993</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>262</v>
+      </c>
+      <c r="K94" t="n">
+        <v>263</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,31 +3838,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C95" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E95" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F95" t="n">
-        <v>20.3244</v>
+        <v>10.3114</v>
       </c>
       <c r="G95" t="n">
-        <v>16052.0812786007</v>
+        <v>-12886.5488213993</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>262</v>
+      </c>
+      <c r="K95" t="n">
+        <v>263</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,31 +3882,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C96" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E96" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F96" t="n">
-        <v>25.4528</v>
+        <v>37.7043</v>
       </c>
       <c r="G96" t="n">
-        <v>16077.5340786007</v>
+        <v>-12886.5488213993</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>262</v>
+      </c>
+      <c r="K96" t="n">
+        <v>263</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,31 +3926,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C97" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E97" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F97" t="n">
-        <v>510</v>
+        <v>758.203</v>
       </c>
       <c r="G97" t="n">
-        <v>16077.5340786007</v>
+        <v>-12128.3458213993</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>262</v>
+      </c>
+      <c r="K97" t="n">
+        <v>263</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4178,31 +3970,35 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F98" t="n">
-        <v>1627</v>
+        <v>5309.9371</v>
       </c>
       <c r="G98" t="n">
-        <v>16077.5340786007</v>
+        <v>-6818.4087213993</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>263</v>
+      </c>
+      <c r="K98" t="n">
+        <v>263</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4218,31 +4014,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C99" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D99" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E99" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F99" t="n">
-        <v>10732.5289</v>
+        <v>1183.8496</v>
       </c>
       <c r="G99" t="n">
-        <v>16077.5340786007</v>
+        <v>-6818.4087213993</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>264</v>
+      </c>
+      <c r="K99" t="n">
+        <v>263</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4258,31 +4058,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C100" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D100" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E100" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F100" t="n">
-        <v>10094.21702089552</v>
+        <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>26171.75109949621</v>
+        <v>-6829.4087213993</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>264</v>
+      </c>
+      <c r="K100" t="n">
+        <v>263</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4298,31 +4102,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C101" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D101" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E101" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F101" t="n">
-        <v>8665.0936</v>
+        <v>37.7358</v>
       </c>
       <c r="G101" t="n">
-        <v>17506.65749949621</v>
+        <v>-6791.672921399299</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>263</v>
+      </c>
+      <c r="K101" t="n">
+        <v>263</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,22 +4146,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F102" t="n">
-        <v>21.8947</v>
+        <v>484.8297</v>
       </c>
       <c r="G102" t="n">
-        <v>17506.65749949621</v>
+        <v>-6791.672921399299</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4362,7 +4170,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>263</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,22 +4188,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C103" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D103" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E103" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F103" t="n">
-        <v>14.9921</v>
+        <v>344.4896</v>
       </c>
       <c r="G103" t="n">
-        <v>17506.65749949621</v>
+        <v>-7136.162521399299</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4402,7 +4212,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>263</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,31 +4230,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C104" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D104" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E104" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F104" t="n">
-        <v>15.2094</v>
+        <v>39.9</v>
       </c>
       <c r="G104" t="n">
-        <v>17521.86689949621</v>
+        <v>-7136.162521399299</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>263</v>
+      </c>
+      <c r="K104" t="n">
+        <v>263</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,31 +4274,35 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C105" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D105" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E105" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F105" t="n">
-        <v>2094.7174</v>
+        <v>5685.1193</v>
       </c>
       <c r="G105" t="n">
-        <v>17521.86689949621</v>
+        <v>-7136.162521399299</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>263</v>
+      </c>
+      <c r="K105" t="n">
+        <v>263</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,31 +4318,35 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C106" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D106" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E106" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F106" t="n">
-        <v>25.3891</v>
+        <v>1995</v>
       </c>
       <c r="G106" t="n">
-        <v>17547.25599949621</v>
+        <v>-7136.162521399299</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>263</v>
+      </c>
+      <c r="K106" t="n">
+        <v>263</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,31 +4362,35 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C107" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D107" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E107" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F107" t="n">
-        <v>2240</v>
+        <v>487.2474</v>
       </c>
       <c r="G107" t="n">
-        <v>17547.25599949621</v>
+        <v>-6648.915121399299</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>263</v>
+      </c>
+      <c r="K107" t="n">
+        <v>263</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,31 +4406,35 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C108" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D108" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E108" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F108" t="n">
-        <v>6320</v>
+        <v>1406.6919</v>
       </c>
       <c r="G108" t="n">
-        <v>23867.25599949621</v>
+        <v>-6648.915121399299</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>264</v>
+      </c>
+      <c r="K108" t="n">
+        <v>263</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,31 +4450,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C109" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D109" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E109" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F109" t="n">
-        <v>2850</v>
+        <v>1996</v>
       </c>
       <c r="G109" t="n">
-        <v>21017.25599949621</v>
+        <v>-8644.915121399299</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>264</v>
+      </c>
+      <c r="K109" t="n">
+        <v>263</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,31 +4494,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C110" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D110" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E110" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F110" t="n">
-        <v>8212</v>
+        <v>10937.9499</v>
       </c>
       <c r="G110" t="n">
-        <v>29229.25599949621</v>
+        <v>-19582.8650213993</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>263</v>
+      </c>
+      <c r="K110" t="n">
+        <v>263</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4698,31 +4538,35 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C111" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D111" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E111" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F111" t="n">
-        <v>2800.5005</v>
+        <v>15.5676</v>
       </c>
       <c r="G111" t="n">
-        <v>26428.75549949621</v>
+        <v>-19567.2974213993</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>262</v>
+      </c>
+      <c r="K111" t="n">
+        <v>263</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,31 +4582,35 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C112" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D112" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E112" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F112" t="n">
-        <v>23065.0043</v>
+        <v>1592.9104</v>
       </c>
       <c r="G112" t="n">
-        <v>3363.751199496211</v>
+        <v>-19567.2974213993</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>264</v>
+      </c>
+      <c r="K112" t="n">
+        <v>263</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,31 +4626,35 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C113" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D113" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E113" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F113" t="n">
-        <v>845.7159</v>
+        <v>342.4337</v>
       </c>
       <c r="G113" t="n">
-        <v>3363.751199496211</v>
+        <v>-19909.7311213993</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>264</v>
+      </c>
+      <c r="K113" t="n">
+        <v>263</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4818,31 +4670,35 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C114" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D114" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E114" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F114" t="n">
-        <v>1176.9773</v>
+        <v>800</v>
       </c>
       <c r="G114" t="n">
-        <v>4540.728499496212</v>
+        <v>-20709.7311213993</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>262</v>
+      </c>
+      <c r="K114" t="n">
+        <v>263</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,31 +4714,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C115" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D115" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E115" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F115" t="n">
-        <v>59.4954</v>
+        <v>973.5492</v>
       </c>
       <c r="G115" t="n">
-        <v>4481.233099496212</v>
+        <v>-19736.1819213993</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>261</v>
+      </c>
+      <c r="K115" t="n">
+        <v>263</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4898,31 +4758,35 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C116" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D116" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E116" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F116" t="n">
-        <v>15.4954</v>
+        <v>761</v>
       </c>
       <c r="G116" t="n">
-        <v>4465.737699496212</v>
+        <v>-20497.1819213993</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>264</v>
+      </c>
+      <c r="K116" t="n">
+        <v>263</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,31 +4802,35 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C117" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D117" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E117" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F117" t="n">
-        <v>2375.695</v>
+        <v>425.5075</v>
       </c>
       <c r="G117" t="n">
-        <v>6841.432699496212</v>
+        <v>-20497.1819213993</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>262</v>
+      </c>
+      <c r="K117" t="n">
+        <v>263</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,31 +4846,35 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C118" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D118" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E118" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>262.32</v>
       </c>
       <c r="G118" t="n">
-        <v>6843.432699496212</v>
+        <v>-20234.8619213993</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>262</v>
+      </c>
+      <c r="K118" t="n">
+        <v>263</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,31 +4890,35 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D119" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F119" t="n">
-        <v>399.7437</v>
+        <v>368.2878</v>
       </c>
       <c r="G119" t="n">
-        <v>6443.688999496212</v>
+        <v>-19866.5741213993</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>263</v>
+      </c>
+      <c r="K119" t="n">
+        <v>263</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5058,7 +4934,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C120" t="n">
         <v>262</v>
@@ -5067,22 +4943,26 @@
         <v>262</v>
       </c>
       <c r="E120" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F120" t="n">
-        <v>570</v>
+        <v>2530</v>
       </c>
       <c r="G120" t="n">
-        <v>5873.688999496212</v>
+        <v>-22396.5741213993</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>264</v>
+      </c>
+      <c r="K120" t="n">
+        <v>263</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,31 +4978,35 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C121" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D121" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E121" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F121" t="n">
-        <v>17561.5601</v>
+        <v>3122.0658</v>
       </c>
       <c r="G121" t="n">
-        <v>-11687.87110050379</v>
+        <v>-19274.5083213993</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>262</v>
+      </c>
+      <c r="K121" t="n">
+        <v>263</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,31 +5022,35 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C122" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D122" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E122" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F122" t="n">
-        <v>2156.6067</v>
+        <v>2600</v>
       </c>
       <c r="G122" t="n">
-        <v>-9531.264400503787</v>
+        <v>-21874.5083213993</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>263</v>
+      </c>
+      <c r="K122" t="n">
+        <v>263</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,31 +5066,35 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C123" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D123" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E123" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F123" t="n">
-        <v>6439.3943</v>
+        <v>7300</v>
       </c>
       <c r="G123" t="n">
-        <v>-15970.65870050379</v>
+        <v>-14574.5083213993</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>262</v>
+      </c>
+      <c r="K123" t="n">
+        <v>263</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5218,33 +5110,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C124" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D124" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E124" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F124" t="n">
-        <v>3798.459</v>
+        <v>1002.3176</v>
       </c>
       <c r="G124" t="n">
-        <v>-12172.19970050379</v>
+        <v>-15576.8259213993</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>259</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>263</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5260,33 +5152,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C125" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D125" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E125" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F125" t="n">
-        <v>1902.1978</v>
+        <v>680</v>
       </c>
       <c r="G125" t="n">
-        <v>-14074.39750050379</v>
+        <v>-15576.8259213993</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>260</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>263</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,33 +5194,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C126" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D126" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E126" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F126" t="n">
-        <v>1070</v>
+        <v>28258.0837</v>
       </c>
       <c r="G126" t="n">
-        <v>-13004.39750050379</v>
+        <v>-15576.8259213993</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>259</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>263</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,33 +5236,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C127" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D127" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E127" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F127" t="n">
-        <v>2624.1292</v>
+        <v>1502</v>
       </c>
       <c r="G127" t="n">
-        <v>-13004.39750050379</v>
+        <v>-15576.8259213993</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>267</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>263</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,22 +5278,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C128" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D128" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E128" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F128" t="n">
-        <v>15.1399</v>
+        <v>669</v>
       </c>
       <c r="G128" t="n">
-        <v>-12989.25760050379</v>
+        <v>-15576.8259213993</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5410,7 +5302,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>263</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,22 +5320,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C129" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D129" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E129" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F129" t="n">
-        <v>633.7463</v>
+        <v>1700</v>
       </c>
       <c r="G129" t="n">
-        <v>-12989.25760050379</v>
+        <v>-15576.8259213993</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5450,7 +5344,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>263</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,22 +5362,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C130" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D130" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E130" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F130" t="n">
-        <v>210.5548</v>
+        <v>2406.4797</v>
       </c>
       <c r="G130" t="n">
-        <v>-13199.81240050379</v>
+        <v>-15576.8259213993</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5490,7 +5386,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>263</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,40 +5404,3044 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>262</v>
+      </c>
+      <c r="C131" t="n">
+        <v>262</v>
+      </c>
+      <c r="D131" t="n">
+        <v>262</v>
+      </c>
+      <c r="E131" t="n">
+        <v>262</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>263</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>264</v>
+      </c>
+      <c r="C132" t="n">
+        <v>264</v>
+      </c>
+      <c r="D132" t="n">
+        <v>264</v>
+      </c>
+      <c r="E132" t="n">
+        <v>264</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3638.2992</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-11938.5267213993</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>263</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>265</v>
+      </c>
+      <c r="C133" t="n">
+        <v>265</v>
+      </c>
+      <c r="D133" t="n">
+        <v>265</v>
+      </c>
+      <c r="E133" t="n">
+        <v>265</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-10934.5267213993</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>263</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>266</v>
+      </c>
+      <c r="C134" t="n">
+        <v>265</v>
+      </c>
+      <c r="D134" t="n">
+        <v>266</v>
+      </c>
+      <c r="E134" t="n">
+        <v>265</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1887.7924</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-10934.5267213993</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>263</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>264</v>
+      </c>
+      <c r="C135" t="n">
+        <v>264</v>
+      </c>
+      <c r="D135" t="n">
+        <v>264</v>
+      </c>
+      <c r="E135" t="n">
+        <v>264</v>
+      </c>
+      <c r="F135" t="n">
+        <v>554</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-11488.5267213993</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>263</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>264</v>
+      </c>
+      <c r="C136" t="n">
+        <v>264</v>
+      </c>
+      <c r="D136" t="n">
+        <v>264</v>
+      </c>
+      <c r="E136" t="n">
+        <v>264</v>
+      </c>
+      <c r="F136" t="n">
+        <v>79.613</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-11488.5267213993</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>263</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>265</v>
+      </c>
+      <c r="C137" t="n">
+        <v>265</v>
+      </c>
+      <c r="D137" t="n">
+        <v>265</v>
+      </c>
+      <c r="E137" t="n">
+        <v>265</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1148.6499</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-10339.8768213993</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>263</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>266</v>
+      </c>
+      <c r="C138" t="n">
+        <v>266</v>
+      </c>
+      <c r="D138" t="n">
+        <v>266</v>
+      </c>
+      <c r="E138" t="n">
+        <v>266</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-10338.8768213993</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>263</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>265</v>
+      </c>
+      <c r="C139" t="n">
+        <v>265</v>
+      </c>
+      <c r="D139" t="n">
+        <v>265</v>
+      </c>
+      <c r="E139" t="n">
+        <v>265</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1681.5386</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-12020.4154213993</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>263</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>265</v>
+      </c>
+      <c r="C140" t="n">
+        <v>265</v>
+      </c>
+      <c r="D140" t="n">
+        <v>265</v>
+      </c>
+      <c r="E140" t="n">
+        <v>265</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-12020.4154213993</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>263</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>264</v>
+      </c>
+      <c r="C141" t="n">
+        <v>264</v>
+      </c>
+      <c r="D141" t="n">
+        <v>264</v>
+      </c>
+      <c r="E141" t="n">
+        <v>264</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.0278</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>263</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>264</v>
+      </c>
+      <c r="C142" t="n">
+        <v>264</v>
+      </c>
+      <c r="D142" t="n">
+        <v>264</v>
+      </c>
+      <c r="E142" t="n">
+        <v>264</v>
+      </c>
+      <c r="F142" t="n">
+        <v>311</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>263</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>264</v>
+      </c>
+      <c r="C143" t="n">
+        <v>264</v>
+      </c>
+      <c r="D143" t="n">
+        <v>264</v>
+      </c>
+      <c r="E143" t="n">
+        <v>264</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3315.7226</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>263</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>264</v>
+      </c>
+      <c r="C144" t="n">
+        <v>264</v>
+      </c>
+      <c r="D144" t="n">
+        <v>264</v>
+      </c>
+      <c r="E144" t="n">
+        <v>264</v>
+      </c>
+      <c r="F144" t="n">
+        <v>23.2645</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>264</v>
+      </c>
+      <c r="K144" t="n">
+        <v>263</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>265</v>
+      </c>
+      <c r="C145" t="n">
+        <v>265</v>
+      </c>
+      <c r="D145" t="n">
+        <v>265</v>
+      </c>
+      <c r="E145" t="n">
+        <v>265</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6.0226</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-12015.4206213993</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>264</v>
+      </c>
+      <c r="K145" t="n">
+        <v>263</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>264</v>
+      </c>
+      <c r="C146" t="n">
+        <v>264</v>
+      </c>
+      <c r="D146" t="n">
+        <v>264</v>
+      </c>
+      <c r="E146" t="n">
+        <v>264</v>
+      </c>
+      <c r="F146" t="n">
+        <v>711.583</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-12727.0036213993</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>265</v>
+      </c>
+      <c r="K146" t="n">
+        <v>263</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>265</v>
+      </c>
+      <c r="C147" t="n">
+        <v>265</v>
+      </c>
+      <c r="D147" t="n">
+        <v>265</v>
+      </c>
+      <c r="E147" t="n">
+        <v>265</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-12724.6036213993</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>263</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>265</v>
+      </c>
+      <c r="C148" t="n">
+        <v>265</v>
+      </c>
+      <c r="D148" t="n">
+        <v>265</v>
+      </c>
+      <c r="E148" t="n">
+        <v>265</v>
+      </c>
+      <c r="F148" t="n">
+        <v>41.84905660377358</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-12724.6036213993</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>265</v>
+      </c>
+      <c r="K148" t="n">
+        <v>263</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>264</v>
+      </c>
+      <c r="C149" t="n">
+        <v>264</v>
+      </c>
+      <c r="D149" t="n">
+        <v>264</v>
+      </c>
+      <c r="E149" t="n">
+        <v>264</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.0189</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-12729.6225213993</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>263</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>264</v>
+      </c>
+      <c r="C150" t="n">
+        <v>264</v>
+      </c>
+      <c r="D150" t="n">
+        <v>264</v>
+      </c>
+      <c r="E150" t="n">
+        <v>264</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.7121</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-12729.6225213993</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>263</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>262</v>
+      </c>
+      <c r="C151" t="n">
+        <v>262</v>
+      </c>
+      <c r="D151" t="n">
+        <v>262</v>
+      </c>
+      <c r="E151" t="n">
+        <v>262</v>
+      </c>
+      <c r="F151" t="n">
+        <v>299.8616</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-13029.4841213993</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>263</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>264</v>
+      </c>
+      <c r="C152" t="n">
+        <v>262</v>
+      </c>
+      <c r="D152" t="n">
+        <v>270</v>
+      </c>
+      <c r="E152" t="n">
+        <v>262</v>
+      </c>
+      <c r="F152" t="n">
+        <v>102746.3861</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-13029.4841213993</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>262</v>
+      </c>
+      <c r="K152" t="n">
+        <v>263</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>264</v>
+      </c>
+      <c r="C153" t="n">
+        <v>264</v>
+      </c>
+      <c r="D153" t="n">
+        <v>264</v>
+      </c>
+      <c r="E153" t="n">
+        <v>263</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30959.5814</v>
+      </c>
+      <c r="G153" t="n">
+        <v>17930.0972786007</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>263</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>264</v>
+      </c>
+      <c r="C154" t="n">
+        <v>263</v>
+      </c>
+      <c r="D154" t="n">
+        <v>265</v>
+      </c>
+      <c r="E154" t="n">
+        <v>263</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3936.7877</v>
+      </c>
+      <c r="G154" t="n">
+        <v>13993.3095786007</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>263</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>264</v>
+      </c>
+      <c r="C155" t="n">
+        <v>264</v>
+      </c>
+      <c r="D155" t="n">
+        <v>264</v>
+      </c>
+      <c r="E155" t="n">
+        <v>264</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4127.738</v>
+      </c>
+      <c r="G155" t="n">
+        <v>18121.0475786007</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>263</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>263</v>
+      </c>
+      <c r="C156" t="n">
+        <v>264</v>
+      </c>
+      <c r="D156" t="n">
+        <v>264</v>
+      </c>
+      <c r="E156" t="n">
+        <v>263</v>
+      </c>
+      <c r="F156" t="n">
+        <v>25966.9355</v>
+      </c>
+      <c r="G156" t="n">
+        <v>18121.0475786007</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>263</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>264</v>
+      </c>
+      <c r="C157" t="n">
+        <v>265</v>
+      </c>
+      <c r="D157" t="n">
+        <v>265</v>
+      </c>
+      <c r="E157" t="n">
+        <v>264</v>
+      </c>
+      <c r="F157" t="n">
+        <v>58.0716</v>
+      </c>
+      <c r="G157" t="n">
+        <v>18179.1191786007</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>263</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>264</v>
+      </c>
+      <c r="C158" t="n">
+        <v>264</v>
+      </c>
+      <c r="D158" t="n">
+        <v>264</v>
+      </c>
+      <c r="E158" t="n">
+        <v>264</v>
+      </c>
+      <c r="F158" t="n">
+        <v>137.0379</v>
+      </c>
+      <c r="G158" t="n">
+        <v>18042.0812786007</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>263</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>264</v>
+      </c>
+      <c r="C159" t="n">
+        <v>264</v>
+      </c>
+      <c r="D159" t="n">
+        <v>265</v>
+      </c>
+      <c r="E159" t="n">
+        <v>264</v>
+      </c>
+      <c r="F159" t="n">
+        <v>50.1639</v>
+      </c>
+      <c r="G159" t="n">
+        <v>18042.0812786007</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>263</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>264</v>
+      </c>
+      <c r="C160" t="n">
+        <v>264</v>
+      </c>
+      <c r="D160" t="n">
+        <v>264</v>
+      </c>
+      <c r="E160" t="n">
+        <v>264</v>
+      </c>
+      <c r="F160" t="n">
+        <v>40.4866</v>
+      </c>
+      <c r="G160" t="n">
+        <v>18042.0812786007</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>263</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>264</v>
+      </c>
+      <c r="C161" t="n">
+        <v>264</v>
+      </c>
+      <c r="D161" t="n">
+        <v>264</v>
+      </c>
+      <c r="E161" t="n">
+        <v>264</v>
+      </c>
+      <c r="F161" t="n">
+        <v>60.7299</v>
+      </c>
+      <c r="G161" t="n">
+        <v>18042.0812786007</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>263</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>264</v>
+      </c>
+      <c r="C162" t="n">
+        <v>264</v>
+      </c>
+      <c r="D162" t="n">
+        <v>264</v>
+      </c>
+      <c r="E162" t="n">
+        <v>264</v>
+      </c>
+      <c r="F162" t="n">
+        <v>60.7299</v>
+      </c>
+      <c r="G162" t="n">
+        <v>18042.0812786007</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>263</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>264</v>
+      </c>
+      <c r="C163" t="n">
+        <v>264</v>
+      </c>
+      <c r="D163" t="n">
+        <v>264</v>
+      </c>
+      <c r="E163" t="n">
+        <v>264</v>
+      </c>
+      <c r="F163" t="n">
+        <v>20.2433</v>
+      </c>
+      <c r="G163" t="n">
+        <v>18042.0812786007</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>263</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>264</v>
+      </c>
+      <c r="C164" t="n">
+        <v>263</v>
+      </c>
+      <c r="D164" t="n">
+        <v>264</v>
+      </c>
+      <c r="E164" t="n">
+        <v>263</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G164" t="n">
+        <v>16052.0812786007</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>263</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>263</v>
+      </c>
+      <c r="C165" t="n">
+        <v>263</v>
+      </c>
+      <c r="D165" t="n">
+        <v>263</v>
+      </c>
+      <c r="E165" t="n">
+        <v>263</v>
+      </c>
+      <c r="F165" t="n">
+        <v>48.124</v>
+      </c>
+      <c r="G165" t="n">
+        <v>16052.0812786007</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>263</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>263</v>
+      </c>
+      <c r="C166" t="n">
+        <v>263</v>
+      </c>
+      <c r="D166" t="n">
+        <v>263</v>
+      </c>
+      <c r="E166" t="n">
+        <v>263</v>
+      </c>
+      <c r="F166" t="n">
+        <v>20.3244</v>
+      </c>
+      <c r="G166" t="n">
+        <v>16052.0812786007</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>263</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>265</v>
+      </c>
+      <c r="C167" t="n">
+        <v>265</v>
+      </c>
+      <c r="D167" t="n">
+        <v>265</v>
+      </c>
+      <c r="E167" t="n">
+        <v>265</v>
+      </c>
+      <c r="F167" t="n">
+        <v>25.4528</v>
+      </c>
+      <c r="G167" t="n">
+        <v>16077.5340786007</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>263</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>265</v>
+      </c>
+      <c r="C168" t="n">
+        <v>265</v>
+      </c>
+      <c r="D168" t="n">
+        <v>265</v>
+      </c>
+      <c r="E168" t="n">
+        <v>265</v>
+      </c>
+      <c r="F168" t="n">
+        <v>510</v>
+      </c>
+      <c r="G168" t="n">
+        <v>16077.5340786007</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>263</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>265</v>
+      </c>
+      <c r="C169" t="n">
+        <v>265</v>
+      </c>
+      <c r="D169" t="n">
+        <v>265</v>
+      </c>
+      <c r="E169" t="n">
+        <v>265</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1627</v>
+      </c>
+      <c r="G169" t="n">
+        <v>16077.5340786007</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>263</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>265</v>
+      </c>
+      <c r="C170" t="n">
+        <v>265</v>
+      </c>
+      <c r="D170" t="n">
+        <v>265</v>
+      </c>
+      <c r="E170" t="n">
+        <v>265</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10732.5289</v>
+      </c>
+      <c r="G170" t="n">
+        <v>16077.5340786007</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>265</v>
+      </c>
+      <c r="K170" t="n">
+        <v>263</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>267</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C171" t="n">
+        <v>268</v>
+      </c>
+      <c r="D171" t="n">
+        <v>268</v>
+      </c>
+      <c r="E171" t="n">
         <v>267</v>
       </c>
-      <c r="D131" t="n">
+      <c r="F171" t="n">
+        <v>10094.21702089552</v>
+      </c>
+      <c r="G171" t="n">
+        <v>26171.75109949621</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>263</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>267</v>
       </c>
-      <c r="E131" t="n">
+      <c r="C172" t="n">
         <v>267</v>
       </c>
-      <c r="F131" t="n">
+      <c r="D172" t="n">
+        <v>267</v>
+      </c>
+      <c r="E172" t="n">
+        <v>267</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8665.0936</v>
+      </c>
+      <c r="G172" t="n">
+        <v>17506.65749949621</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>263</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>267</v>
+      </c>
+      <c r="C173" t="n">
+        <v>267</v>
+      </c>
+      <c r="D173" t="n">
+        <v>267</v>
+      </c>
+      <c r="E173" t="n">
+        <v>267</v>
+      </c>
+      <c r="F173" t="n">
+        <v>21.8947</v>
+      </c>
+      <c r="G173" t="n">
+        <v>17506.65749949621</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>263</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>267</v>
+      </c>
+      <c r="C174" t="n">
+        <v>267</v>
+      </c>
+      <c r="D174" t="n">
+        <v>267</v>
+      </c>
+      <c r="E174" t="n">
+        <v>267</v>
+      </c>
+      <c r="F174" t="n">
+        <v>14.9921</v>
+      </c>
+      <c r="G174" t="n">
+        <v>17506.65749949621</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>263</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>268</v>
+      </c>
+      <c r="C175" t="n">
+        <v>268</v>
+      </c>
+      <c r="D175" t="n">
+        <v>268</v>
+      </c>
+      <c r="E175" t="n">
+        <v>268</v>
+      </c>
+      <c r="F175" t="n">
+        <v>15.2094</v>
+      </c>
+      <c r="G175" t="n">
+        <v>17521.86689949621</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>263</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>269</v>
+      </c>
+      <c r="C176" t="n">
+        <v>268</v>
+      </c>
+      <c r="D176" t="n">
+        <v>269</v>
+      </c>
+      <c r="E176" t="n">
+        <v>268</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2094.7174</v>
+      </c>
+      <c r="G176" t="n">
+        <v>17521.86689949621</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>263</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>270</v>
+      </c>
+      <c r="C177" t="n">
+        <v>270</v>
+      </c>
+      <c r="D177" t="n">
+        <v>270</v>
+      </c>
+      <c r="E177" t="n">
+        <v>270</v>
+      </c>
+      <c r="F177" t="n">
+        <v>25.3891</v>
+      </c>
+      <c r="G177" t="n">
+        <v>17547.25599949621</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>263</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>270</v>
+      </c>
+      <c r="C178" t="n">
+        <v>270</v>
+      </c>
+      <c r="D178" t="n">
+        <v>270</v>
+      </c>
+      <c r="E178" t="n">
+        <v>270</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2240</v>
+      </c>
+      <c r="G178" t="n">
+        <v>17547.25599949621</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>263</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>270</v>
+      </c>
+      <c r="C179" t="n">
+        <v>272</v>
+      </c>
+      <c r="D179" t="n">
+        <v>272</v>
+      </c>
+      <c r="E179" t="n">
+        <v>270</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6320</v>
+      </c>
+      <c r="G179" t="n">
+        <v>23867.25599949621</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>263</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>273</v>
+      </c>
+      <c r="C180" t="n">
+        <v>270</v>
+      </c>
+      <c r="D180" t="n">
+        <v>273</v>
+      </c>
+      <c r="E180" t="n">
+        <v>270</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2850</v>
+      </c>
+      <c r="G180" t="n">
+        <v>21017.25599949621</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>263</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>270</v>
+      </c>
+      <c r="C181" t="n">
+        <v>272</v>
+      </c>
+      <c r="D181" t="n">
+        <v>272</v>
+      </c>
+      <c r="E181" t="n">
+        <v>270</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8212</v>
+      </c>
+      <c r="G181" t="n">
+        <v>29229.25599949621</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>263</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>268</v>
+      </c>
+      <c r="C182" t="n">
+        <v>268</v>
+      </c>
+      <c r="D182" t="n">
+        <v>268</v>
+      </c>
+      <c r="E182" t="n">
+        <v>268</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2800.5005</v>
+      </c>
+      <c r="G182" t="n">
+        <v>26428.75549949621</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>263</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>268</v>
+      </c>
+      <c r="C183" t="n">
+        <v>266</v>
+      </c>
+      <c r="D183" t="n">
+        <v>268</v>
+      </c>
+      <c r="E183" t="n">
+        <v>266</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23065.0043</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3363.751199496211</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>263</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>266</v>
+      </c>
+      <c r="C184" t="n">
+        <v>266</v>
+      </c>
+      <c r="D184" t="n">
+        <v>266</v>
+      </c>
+      <c r="E184" t="n">
+        <v>266</v>
+      </c>
+      <c r="F184" t="n">
+        <v>845.7159</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3363.751199496211</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>263</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>267</v>
+      </c>
+      <c r="C185" t="n">
+        <v>267</v>
+      </c>
+      <c r="D185" t="n">
+        <v>267</v>
+      </c>
+      <c r="E185" t="n">
+        <v>267</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1176.9773</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4540.728499496212</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>263</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>265</v>
+      </c>
+      <c r="C186" t="n">
+        <v>266</v>
+      </c>
+      <c r="D186" t="n">
+        <v>266</v>
+      </c>
+      <c r="E186" t="n">
+        <v>265</v>
+      </c>
+      <c r="F186" t="n">
+        <v>59.4954</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4481.233099496212</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>263</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>263</v>
+      </c>
+      <c r="C187" t="n">
+        <v>263</v>
+      </c>
+      <c r="D187" t="n">
+        <v>263</v>
+      </c>
+      <c r="E187" t="n">
+        <v>263</v>
+      </c>
+      <c r="F187" t="n">
+        <v>15.4954</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4465.737699496212</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>263</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>264</v>
+      </c>
+      <c r="C188" t="n">
+        <v>264</v>
+      </c>
+      <c r="D188" t="n">
+        <v>264</v>
+      </c>
+      <c r="E188" t="n">
+        <v>264</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2375.695</v>
+      </c>
+      <c r="G188" t="n">
+        <v>6841.432699496212</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>263</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>266</v>
+      </c>
+      <c r="C189" t="n">
+        <v>266</v>
+      </c>
+      <c r="D189" t="n">
+        <v>266</v>
+      </c>
+      <c r="E189" t="n">
+        <v>266</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
+      <c r="G189" t="n">
+        <v>6843.432699496212</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>263</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>263</v>
+      </c>
+      <c r="C190" t="n">
+        <v>263</v>
+      </c>
+      <c r="D190" t="n">
+        <v>263</v>
+      </c>
+      <c r="E190" t="n">
+        <v>263</v>
+      </c>
+      <c r="F190" t="n">
+        <v>399.7437</v>
+      </c>
+      <c r="G190" t="n">
+        <v>6443.688999496212</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>263</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>261</v>
+      </c>
+      <c r="C191" t="n">
+        <v>262</v>
+      </c>
+      <c r="D191" t="n">
+        <v>262</v>
+      </c>
+      <c r="E191" t="n">
+        <v>260</v>
+      </c>
+      <c r="F191" t="n">
+        <v>570</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5873.688999496212</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>263</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>258</v>
+      </c>
+      <c r="C192" t="n">
+        <v>259</v>
+      </c>
+      <c r="D192" t="n">
+        <v>259</v>
+      </c>
+      <c r="E192" t="n">
+        <v>258</v>
+      </c>
+      <c r="F192" t="n">
+        <v>17561.5601</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-11687.87110050379</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>263</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>260</v>
+      </c>
+      <c r="C193" t="n">
+        <v>260</v>
+      </c>
+      <c r="D193" t="n">
+        <v>260</v>
+      </c>
+      <c r="E193" t="n">
+        <v>260</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2156.6067</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-9531.264400503787</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>263</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>259</v>
+      </c>
+      <c r="C194" t="n">
+        <v>259</v>
+      </c>
+      <c r="D194" t="n">
+        <v>259</v>
+      </c>
+      <c r="E194" t="n">
+        <v>259</v>
+      </c>
+      <c r="F194" t="n">
+        <v>6439.3943</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-15970.65870050379</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>260</v>
+      </c>
+      <c r="K194" t="n">
+        <v>263</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>259</v>
+      </c>
+      <c r="C195" t="n">
+        <v>260</v>
+      </c>
+      <c r="D195" t="n">
+        <v>260</v>
+      </c>
+      <c r="E195" t="n">
+        <v>259</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3798.459</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-12172.19970050379</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>259</v>
+      </c>
+      <c r="K195" t="n">
+        <v>263</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>259</v>
+      </c>
+      <c r="C196" t="n">
+        <v>259</v>
+      </c>
+      <c r="D196" t="n">
+        <v>259</v>
+      </c>
+      <c r="E196" t="n">
+        <v>259</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1902.1978</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-14074.39750050379</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>260</v>
+      </c>
+      <c r="K196" t="n">
+        <v>263</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>267</v>
+      </c>
+      <c r="C197" t="n">
+        <v>267</v>
+      </c>
+      <c r="D197" t="n">
+        <v>267</v>
+      </c>
+      <c r="E197" t="n">
+        <v>267</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-13004.39750050379</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>259</v>
+      </c>
+      <c r="K197" t="n">
+        <v>263</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>267</v>
+      </c>
+      <c r="C198" t="n">
+        <v>267</v>
+      </c>
+      <c r="D198" t="n">
+        <v>267</v>
+      </c>
+      <c r="E198" t="n">
+        <v>267</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2624.1292</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-13004.39750050379</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>263</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>268</v>
+      </c>
+      <c r="C199" t="n">
+        <v>268</v>
+      </c>
+      <c r="D199" t="n">
+        <v>268</v>
+      </c>
+      <c r="E199" t="n">
+        <v>268</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15.1399</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-12989.25760050379</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>263</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>268</v>
+      </c>
+      <c r="C200" t="n">
+        <v>268</v>
+      </c>
+      <c r="D200" t="n">
+        <v>268</v>
+      </c>
+      <c r="E200" t="n">
+        <v>268</v>
+      </c>
+      <c r="F200" t="n">
+        <v>633.7463</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-12989.25760050379</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>263</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>268</v>
+      </c>
+      <c r="C201" t="n">
+        <v>265</v>
+      </c>
+      <c r="D201" t="n">
+        <v>268</v>
+      </c>
+      <c r="E201" t="n">
+        <v>265</v>
+      </c>
+      <c r="F201" t="n">
+        <v>210.5548</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-13199.81240050379</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>263</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>267</v>
+      </c>
+      <c r="C202" t="n">
+        <v>267</v>
+      </c>
+      <c r="D202" t="n">
+        <v>267</v>
+      </c>
+      <c r="E202" t="n">
+        <v>267</v>
+      </c>
+      <c r="F202" t="n">
         <v>42</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G202" t="n">
         <v>-13157.81240050379</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>263</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>37823.90561449814</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>62231.93471449814</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>56600.0372786007</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>54657.2759786007</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>50465.5822786007</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>50465.5822786007</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>50465.5822786007</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>46601.6287786007</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>26741.4071786007</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>27113.0581786007</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>31636.0581786007</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>30811.1481786007</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>39663.5757786007</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>39509.5757786007</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>39509.5757786007</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>26009.9316786007</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>29319.9316786007</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>30357.6408786007</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>30357.6408786007</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>33244.6388786007</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>9637.195678600701</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>9637.195678600701</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>9637.195678600701</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>9140.184578600702</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>9125.184578600702</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>9125.184578600702</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>10970.8659786007</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>10516.8468786007</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>11159.6577786007</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>12008.3661786007</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>12008.3661786007</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>9769.634178600701</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>11159.2044786007</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>11159.2044786007</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>10545.2044786007</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>10545.2044786007</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>10545.2044786007</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>10530.3045786007</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -5599,14 +5599,10 @@
         <v>18042.0812786007</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>265</v>
-      </c>
-      <c r="J158" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
@@ -5636,19 +5632,11 @@
         <v>18042.0812786007</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>264</v>
-      </c>
-      <c r="J159" t="n">
-        <v>265</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5677,19 +5665,11 @@
         <v>18042.0812786007</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>264</v>
-      </c>
-      <c r="J160" t="n">
-        <v>265</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5718,19 +5698,11 @@
         <v>18042.0812786007</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>264</v>
-      </c>
-      <c r="J161" t="n">
-        <v>265</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5759,19 +5731,11 @@
         <v>18042.0812786007</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>264</v>
-      </c>
-      <c r="J162" t="n">
-        <v>265</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5800,19 +5764,11 @@
         <v>18042.0812786007</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>264</v>
-      </c>
-      <c r="J163" t="n">
-        <v>265</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5841,19 +5797,11 @@
         <v>16052.0812786007</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>264</v>
-      </c>
-      <c r="J164" t="n">
-        <v>265</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5885,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>265</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5924,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>265</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5963,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>265</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6002,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>265</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6041,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>265</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6080,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>265</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6119,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>265</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6158,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>265</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6197,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>265</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6236,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>265</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6275,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>265</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6314,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>265</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6353,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>265</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6392,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>265</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6431,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>265</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6470,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>265</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6509,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>265</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6548,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>265</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6587,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>265</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6626,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>265</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6665,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>265</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6704,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>265</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6743,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>265</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6782,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>265</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>265</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6860,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>265</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6899,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>265</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6938,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>265</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6977,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>265</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>265</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>265</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7091,17 +6853,15 @@
         <v>-14074.39750050379</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>260</v>
+      </c>
       <c r="J196" t="n">
-        <v>265</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7130,17 +6890,17 @@
         <v>-13004.39750050379</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>259</v>
       </c>
       <c r="J197" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -7175,11 +6935,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7213,14 +6973,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>265</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +7006,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>265</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7291,14 +7039,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>265</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7330,20 +7072,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>265</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,7 +1309,7 @@
         <v>31636.0581786007</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>30811.1481786007</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>39663.5757786007</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>39509.5757786007</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>39509.5757786007</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>26009.9316786007</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>29319.9316786007</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>30357.6408786007</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>30357.6408786007</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>33244.6388786007</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>9637.195678600701</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>9637.195678600701</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>9637.195678600701</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>9140.184578600702</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>9125.184578600702</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>9125.184578600702</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>10970.8659786007</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>10516.8468786007</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>11159.6577786007</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>12008.3661786007</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>12008.3661786007</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>9769.634178600701</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>11159.2044786007</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>11159.2044786007</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>10545.2044786007</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>10545.2044786007</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>10545.2044786007</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>10530.3045786007</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3586,10 +3586,14 @@
         <v>-12128.3458213993</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>262</v>
+      </c>
+      <c r="J97" t="n">
+        <v>262</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3622,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>262</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3665,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3718,10 +3734,14 @@
         <v>-6791.672921399299</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>263</v>
+      </c>
+      <c r="J101" t="n">
+        <v>263</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3754,8 +3774,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>263</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3813,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>263</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3852,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>263</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>263</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3930,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>263</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +3969,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>263</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4008,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>263</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4047,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>263</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4086,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>263</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4125,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>263</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4164,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>263</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4203,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>263</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4242,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>263</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4281,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>263</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4320,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>263</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4359,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>263</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4398,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>263</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4437,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>263</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4476,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>263</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4515,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>263</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4554,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>263</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4590,19 @@
         <v>-14574.5083213993</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>262</v>
+      </c>
+      <c r="J123" t="n">
+        <v>263</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4631,19 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>263</v>
+      </c>
+      <c r="J124" t="n">
+        <v>263</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4672,19 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>262</v>
+      </c>
+      <c r="J125" t="n">
+        <v>263</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4713,19 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>262</v>
+      </c>
+      <c r="J126" t="n">
+        <v>263</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4754,19 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>262</v>
+      </c>
+      <c r="J127" t="n">
+        <v>263</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4795,19 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>262</v>
+      </c>
+      <c r="J128" t="n">
+        <v>263</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4839,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>263</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4878,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>263</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4917,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>263</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4956,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>263</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4995,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>263</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5034,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>263</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5073,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>263</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5112,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>263</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5151,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>263</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>263</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5229,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>263</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5268,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>263</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5307,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>263</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5346,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>263</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5385,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>263</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5424,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>263</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5463,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>263</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5502,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>263</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5541,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>263</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5580,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>263</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5619,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>263</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5658,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>263</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5697,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>263</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5736,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>263</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5775,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>263</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5814,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>263</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5853,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>263</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5892,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>263</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5931,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>263</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5970,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>263</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6009,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>263</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6048,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>263</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6087,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>263</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6126,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>263</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6165,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>263</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6204,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>263</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6243,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>263</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6282,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>263</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6321,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>263</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6360,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>263</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6399,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>263</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6438,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>263</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6477,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>263</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6516,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>263</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,13 +6552,19 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>263</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>1.010209125475285</v>
       </c>
       <c r="M173" t="inlineStr"/>
     </row>
@@ -6127,7 +6591,7 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6624,7 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6657,7 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6690,7 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6723,7 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6756,7 @@
         <v>23867.25599949621</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6789,7 @@
         <v>21017.25599949621</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6822,7 @@
         <v>29229.25599949621</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6855,7 @@
         <v>26428.75549949621</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6888,7 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6921,7 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6853,14 +7317,10 @@
         <v>-14074.39750050379</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>260</v>
-      </c>
-      <c r="J196" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -6890,19 +7350,11 @@
         <v>-13004.39750050379</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>259</v>
-      </c>
-      <c r="J197" t="n">
-        <v>260</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +7386,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>260</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7080,6 +7526,6 @@
       <c r="M202" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -1210,7 +1210,7 @@
         <v>74932.2451786007</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>26741.4071786007</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>27113.0581786007</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>31636.0581786007</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>30811.1481786007</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>39663.5757786007</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>33244.6388786007</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>28483.4601786007</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>28483.4601786007</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3586,14 +3586,10 @@
         <v>-12128.3458213993</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>262</v>
-      </c>
-      <c r="J97" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3626,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>262</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3665,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>262</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3718,10 @@
         <v>-6791.672921399299</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>263</v>
-      </c>
-      <c r="J101" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3774,1976 +3754,1738 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>263</v>
-      </c>
-      <c r="K102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>264</v>
+      </c>
+      <c r="C103" t="n">
+        <v>263</v>
+      </c>
+      <c r="D103" t="n">
+        <v>264</v>
+      </c>
+      <c r="E103" t="n">
+        <v>263</v>
+      </c>
+      <c r="F103" t="n">
+        <v>344.4896</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-7136.162521399299</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>263</v>
+      </c>
+      <c r="C104" t="n">
+        <v>263</v>
+      </c>
+      <c r="D104" t="n">
+        <v>263</v>
+      </c>
+      <c r="E104" t="n">
+        <v>263</v>
+      </c>
+      <c r="F104" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-7136.162521399299</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>263</v>
+      </c>
+      <c r="C105" t="n">
+        <v>263</v>
+      </c>
+      <c r="D105" t="n">
+        <v>263</v>
+      </c>
+      <c r="E105" t="n">
+        <v>263</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5685.1193</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-7136.162521399299</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>263</v>
+      </c>
+      <c r="C106" t="n">
+        <v>263</v>
+      </c>
+      <c r="D106" t="n">
+        <v>263</v>
+      </c>
+      <c r="E106" t="n">
+        <v>263</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1995</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-7136.162521399299</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>264</v>
+      </c>
+      <c r="C107" t="n">
+        <v>264</v>
+      </c>
+      <c r="D107" t="n">
+        <v>264</v>
+      </c>
+      <c r="E107" t="n">
+        <v>264</v>
+      </c>
+      <c r="F107" t="n">
+        <v>487.2474</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-6648.915121399299</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>264</v>
+      </c>
+      <c r="C108" t="n">
+        <v>264</v>
+      </c>
+      <c r="D108" t="n">
+        <v>264</v>
+      </c>
+      <c r="E108" t="n">
+        <v>264</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1406.6919</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-6648.915121399299</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>263</v>
+      </c>
+      <c r="C109" t="n">
+        <v>263</v>
+      </c>
+      <c r="D109" t="n">
+        <v>263</v>
+      </c>
+      <c r="E109" t="n">
+        <v>263</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-8644.915121399299</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>264</v>
+      </c>
+      <c r="C110" t="n">
+        <v>262</v>
+      </c>
+      <c r="D110" t="n">
+        <v>264</v>
+      </c>
+      <c r="E110" t="n">
+        <v>262</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10937.9499</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-19582.8650213993</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>264</v>
+      </c>
+      <c r="C111" t="n">
+        <v>264</v>
+      </c>
+      <c r="D111" t="n">
+        <v>264</v>
+      </c>
+      <c r="E111" t="n">
+        <v>264</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15.5676</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-19567.2974213993</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>263</v>
+      </c>
+      <c r="C112" t="n">
+        <v>264</v>
+      </c>
+      <c r="D112" t="n">
+        <v>264</v>
+      </c>
+      <c r="E112" t="n">
+        <v>263</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1592.9104</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-19567.2974213993</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>262</v>
+      </c>
+      <c r="C113" t="n">
+        <v>262</v>
+      </c>
+      <c r="D113" t="n">
+        <v>262</v>
+      </c>
+      <c r="E113" t="n">
+        <v>262</v>
+      </c>
+      <c r="F113" t="n">
+        <v>342.4337</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-19909.7311213993</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>264</v>
+      </c>
+      <c r="C114" t="n">
+        <v>261</v>
+      </c>
+      <c r="D114" t="n">
+        <v>264</v>
+      </c>
+      <c r="E114" t="n">
+        <v>261</v>
+      </c>
+      <c r="F114" t="n">
+        <v>800</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-20709.7311213993</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>264</v>
+      </c>
+      <c r="C115" t="n">
+        <v>264</v>
+      </c>
+      <c r="D115" t="n">
+        <v>264</v>
+      </c>
+      <c r="E115" t="n">
+        <v>264</v>
+      </c>
+      <c r="F115" t="n">
+        <v>973.5492</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-19736.1819213993</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>262</v>
+      </c>
+      <c r="C116" t="n">
+        <v>262</v>
+      </c>
+      <c r="D116" t="n">
+        <v>262</v>
+      </c>
+      <c r="E116" t="n">
+        <v>262</v>
+      </c>
+      <c r="F116" t="n">
+        <v>761</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-20497.1819213993</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>262</v>
+      </c>
+      <c r="C117" t="n">
+        <v>262</v>
+      </c>
+      <c r="D117" t="n">
+        <v>262</v>
+      </c>
+      <c r="E117" t="n">
+        <v>262</v>
+      </c>
+      <c r="F117" t="n">
+        <v>425.5075</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-20497.1819213993</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>263</v>
+      </c>
+      <c r="C118" t="n">
+        <v>263</v>
+      </c>
+      <c r="D118" t="n">
+        <v>263</v>
+      </c>
+      <c r="E118" t="n">
+        <v>263</v>
+      </c>
+      <c r="F118" t="n">
+        <v>262.32</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-20234.8619213993</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>262</v>
+      </c>
+      <c r="C119" t="n">
+        <v>264</v>
+      </c>
+      <c r="D119" t="n">
+        <v>264</v>
+      </c>
+      <c r="E119" t="n">
+        <v>262</v>
+      </c>
+      <c r="F119" t="n">
+        <v>368.2878</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-19866.5741213993</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>262</v>
+      </c>
+      <c r="C120" t="n">
+        <v>262</v>
+      </c>
+      <c r="D120" t="n">
+        <v>262</v>
+      </c>
+      <c r="E120" t="n">
+        <v>262</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2530</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-22396.5741213993</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>263</v>
+      </c>
+      <c r="C121" t="n">
+        <v>263</v>
+      </c>
+      <c r="D121" t="n">
+        <v>263</v>
+      </c>
+      <c r="E121" t="n">
+        <v>263</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3122.0658</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-19274.5083213993</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>262</v>
+      </c>
+      <c r="C122" t="n">
+        <v>262</v>
+      </c>
+      <c r="D122" t="n">
+        <v>262</v>
+      </c>
+      <c r="E122" t="n">
+        <v>262</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-21874.5083213993</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>263</v>
+      </c>
+      <c r="C123" t="n">
+        <v>263</v>
+      </c>
+      <c r="D123" t="n">
+        <v>263</v>
+      </c>
+      <c r="E123" t="n">
+        <v>263</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7300</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-14574.5083213993</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>262</v>
+      </c>
+      <c r="C124" t="n">
+        <v>262</v>
+      </c>
+      <c r="D124" t="n">
+        <v>262</v>
+      </c>
+      <c r="E124" t="n">
+        <v>262</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1002.3176</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>262</v>
+      </c>
+      <c r="C125" t="n">
+        <v>262</v>
+      </c>
+      <c r="D125" t="n">
+        <v>262</v>
+      </c>
+      <c r="E125" t="n">
+        <v>262</v>
+      </c>
+      <c r="F125" t="n">
+        <v>680</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>262</v>
+      </c>
+      <c r="C126" t="n">
+        <v>262</v>
+      </c>
+      <c r="D126" t="n">
+        <v>262</v>
+      </c>
+      <c r="E126" t="n">
+        <v>262</v>
+      </c>
+      <c r="F126" t="n">
+        <v>28258.0837</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>262</v>
+      </c>
+      <c r="C127" t="n">
+        <v>262</v>
+      </c>
+      <c r="D127" t="n">
+        <v>262</v>
+      </c>
+      <c r="E127" t="n">
+        <v>262</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1502</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>262</v>
+      </c>
+      <c r="C128" t="n">
+        <v>262</v>
+      </c>
+      <c r="D128" t="n">
+        <v>262</v>
+      </c>
+      <c r="E128" t="n">
+        <v>262</v>
+      </c>
+      <c r="F128" t="n">
+        <v>669</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>262</v>
+      </c>
+      <c r="C129" t="n">
+        <v>262</v>
+      </c>
+      <c r="D129" t="n">
+        <v>262</v>
+      </c>
+      <c r="E129" t="n">
+        <v>262</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>262</v>
+      </c>
+      <c r="C130" t="n">
+        <v>262</v>
+      </c>
+      <c r="D130" t="n">
+        <v>262</v>
+      </c>
+      <c r="E130" t="n">
+        <v>262</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2406.4797</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>262</v>
+      </c>
+      <c r="C131" t="n">
+        <v>262</v>
+      </c>
+      <c r="D131" t="n">
+        <v>262</v>
+      </c>
+      <c r="E131" t="n">
+        <v>262</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-15576.8259213993</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>264</v>
+      </c>
+      <c r="C132" t="n">
+        <v>264</v>
+      </c>
+      <c r="D132" t="n">
+        <v>264</v>
+      </c>
+      <c r="E132" t="n">
+        <v>264</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3638.2992</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-11938.5267213993</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>265</v>
+      </c>
+      <c r="C133" t="n">
+        <v>265</v>
+      </c>
+      <c r="D133" t="n">
+        <v>265</v>
+      </c>
+      <c r="E133" t="n">
+        <v>265</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-10934.5267213993</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>266</v>
+      </c>
+      <c r="C134" t="n">
+        <v>265</v>
+      </c>
+      <c r="D134" t="n">
+        <v>266</v>
+      </c>
+      <c r="E134" t="n">
+        <v>265</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1887.7924</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-10934.5267213993</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>264</v>
+      </c>
+      <c r="C135" t="n">
+        <v>264</v>
+      </c>
+      <c r="D135" t="n">
+        <v>264</v>
+      </c>
+      <c r="E135" t="n">
+        <v>264</v>
+      </c>
+      <c r="F135" t="n">
+        <v>554</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-11488.5267213993</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>264</v>
+      </c>
+      <c r="C136" t="n">
+        <v>264</v>
+      </c>
+      <c r="D136" t="n">
+        <v>264</v>
+      </c>
+      <c r="E136" t="n">
+        <v>264</v>
+      </c>
+      <c r="F136" t="n">
+        <v>79.613</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-11488.5267213993</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>265</v>
+      </c>
+      <c r="C137" t="n">
+        <v>265</v>
+      </c>
+      <c r="D137" t="n">
+        <v>265</v>
+      </c>
+      <c r="E137" t="n">
+        <v>265</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1148.6499</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-10339.8768213993</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>266</v>
+      </c>
+      <c r="C138" t="n">
+        <v>266</v>
+      </c>
+      <c r="D138" t="n">
+        <v>266</v>
+      </c>
+      <c r="E138" t="n">
+        <v>266</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-10338.8768213993</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>265</v>
+      </c>
+      <c r="C139" t="n">
+        <v>265</v>
+      </c>
+      <c r="D139" t="n">
+        <v>265</v>
+      </c>
+      <c r="E139" t="n">
+        <v>265</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1681.5386</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-12020.4154213993</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>265</v>
+      </c>
+      <c r="C140" t="n">
+        <v>265</v>
+      </c>
+      <c r="D140" t="n">
+        <v>265</v>
+      </c>
+      <c r="E140" t="n">
+        <v>265</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-12020.4154213993</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>264</v>
+      </c>
+      <c r="C141" t="n">
+        <v>264</v>
+      </c>
+      <c r="D141" t="n">
+        <v>264</v>
+      </c>
+      <c r="E141" t="n">
+        <v>264</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.0278</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>265</v>
+      </c>
+      <c r="J141" t="n">
+        <v>265</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>264</v>
+      </c>
+      <c r="C142" t="n">
+        <v>264</v>
+      </c>
+      <c r="D142" t="n">
+        <v>264</v>
+      </c>
+      <c r="E142" t="n">
+        <v>264</v>
+      </c>
+      <c r="F142" t="n">
+        <v>311</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>264</v>
+      </c>
+      <c r="J142" t="n">
+        <v>265</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>264</v>
-      </c>
-      <c r="C103" t="n">
-        <v>263</v>
-      </c>
-      <c r="D103" t="n">
-        <v>264</v>
-      </c>
-      <c r="E103" t="n">
-        <v>263</v>
-      </c>
-      <c r="F103" t="n">
-        <v>344.4896</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-7136.162521399299</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>263</v>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>264</v>
+      </c>
+      <c r="C143" t="n">
+        <v>264</v>
+      </c>
+      <c r="D143" t="n">
+        <v>264</v>
+      </c>
+      <c r="E143" t="n">
+        <v>264</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3315.7226</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>264</v>
+      </c>
+      <c r="J143" t="n">
+        <v>265</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>264</v>
+      </c>
+      <c r="C144" t="n">
+        <v>264</v>
+      </c>
+      <c r="D144" t="n">
+        <v>264</v>
+      </c>
+      <c r="E144" t="n">
+        <v>264</v>
+      </c>
+      <c r="F144" t="n">
+        <v>23.2645</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-12021.4432213993</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>264</v>
+      </c>
+      <c r="J144" t="n">
+        <v>264</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>265</v>
+      </c>
+      <c r="C145" t="n">
+        <v>265</v>
+      </c>
+      <c r="D145" t="n">
+        <v>265</v>
+      </c>
+      <c r="E145" t="n">
+        <v>265</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6.0226</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-12015.4206213993</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>264</v>
+      </c>
+      <c r="J145" t="n">
+        <v>264</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>264</v>
+      </c>
+      <c r="C146" t="n">
+        <v>264</v>
+      </c>
+      <c r="D146" t="n">
+        <v>264</v>
+      </c>
+      <c r="E146" t="n">
+        <v>264</v>
+      </c>
+      <c r="F146" t="n">
+        <v>711.583</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-12727.0036213993</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>265</v>
+      </c>
+      <c r="J146" t="n">
+        <v>264</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>265</v>
+      </c>
+      <c r="C147" t="n">
+        <v>265</v>
+      </c>
+      <c r="D147" t="n">
+        <v>265</v>
+      </c>
+      <c r="E147" t="n">
+        <v>265</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-12724.6036213993</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>264</v>
+      </c>
+      <c r="J147" t="n">
+        <v>264</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>265</v>
+      </c>
+      <c r="C148" t="n">
+        <v>265</v>
+      </c>
+      <c r="D148" t="n">
+        <v>265</v>
+      </c>
+      <c r="E148" t="n">
+        <v>265</v>
+      </c>
+      <c r="F148" t="n">
+        <v>41.84905660377358</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-12724.6036213993</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>265</v>
+      </c>
+      <c r="J148" t="n">
+        <v>264</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>264</v>
+      </c>
+      <c r="C149" t="n">
+        <v>264</v>
+      </c>
+      <c r="D149" t="n">
+        <v>264</v>
+      </c>
+      <c r="E149" t="n">
+        <v>264</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.0189</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-12729.6225213993</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>265</v>
+      </c>
+      <c r="J149" t="n">
+        <v>264</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>264</v>
+      </c>
+      <c r="C150" t="n">
+        <v>264</v>
+      </c>
+      <c r="D150" t="n">
+        <v>264</v>
+      </c>
+      <c r="E150" t="n">
+        <v>264</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.7121</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-12729.6225213993</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>264</v>
+      </c>
+      <c r="J150" t="n">
+        <v>264</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>262</v>
+      </c>
+      <c r="C151" t="n">
+        <v>262</v>
+      </c>
+      <c r="D151" t="n">
+        <v>262</v>
+      </c>
+      <c r="E151" t="n">
+        <v>262</v>
+      </c>
+      <c r="F151" t="n">
+        <v>299.8616</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-13029.4841213993</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>264</v>
+      </c>
+      <c r="J151" t="n">
+        <v>264</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>264</v>
+      </c>
+      <c r="C152" t="n">
+        <v>262</v>
+      </c>
+      <c r="D152" t="n">
+        <v>270</v>
+      </c>
+      <c r="E152" t="n">
+        <v>262</v>
+      </c>
+      <c r="F152" t="n">
+        <v>102746.3861</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-13029.4841213993</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>262</v>
+      </c>
+      <c r="J152" t="n">
+        <v>264</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>263</v>
-      </c>
-      <c r="C104" t="n">
-        <v>263</v>
-      </c>
-      <c r="D104" t="n">
-        <v>263</v>
-      </c>
-      <c r="E104" t="n">
-        <v>263</v>
-      </c>
-      <c r="F104" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-7136.162521399299</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>263</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>263</v>
-      </c>
-      <c r="C105" t="n">
-        <v>263</v>
-      </c>
-      <c r="D105" t="n">
-        <v>263</v>
-      </c>
-      <c r="E105" t="n">
-        <v>263</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5685.1193</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-7136.162521399299</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>263</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>263</v>
-      </c>
-      <c r="C106" t="n">
-        <v>263</v>
-      </c>
-      <c r="D106" t="n">
-        <v>263</v>
-      </c>
-      <c r="E106" t="n">
-        <v>263</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1995</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-7136.162521399299</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>263</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>264</v>
-      </c>
-      <c r="C107" t="n">
-        <v>264</v>
-      </c>
-      <c r="D107" t="n">
-        <v>264</v>
-      </c>
-      <c r="E107" t="n">
-        <v>264</v>
-      </c>
-      <c r="F107" t="n">
-        <v>487.2474</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-6648.915121399299</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>263</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>264</v>
-      </c>
-      <c r="C108" t="n">
-        <v>264</v>
-      </c>
-      <c r="D108" t="n">
-        <v>264</v>
-      </c>
-      <c r="E108" t="n">
-        <v>264</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1406.6919</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-6648.915121399299</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>263</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>263</v>
-      </c>
-      <c r="C109" t="n">
-        <v>263</v>
-      </c>
-      <c r="D109" t="n">
-        <v>263</v>
-      </c>
-      <c r="E109" t="n">
-        <v>263</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1996</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-8644.915121399299</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>263</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>264</v>
-      </c>
-      <c r="C110" t="n">
-        <v>262</v>
-      </c>
-      <c r="D110" t="n">
-        <v>264</v>
-      </c>
-      <c r="E110" t="n">
-        <v>262</v>
-      </c>
-      <c r="F110" t="n">
-        <v>10937.9499</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-19582.8650213993</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>263</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>264</v>
-      </c>
-      <c r="C111" t="n">
-        <v>264</v>
-      </c>
-      <c r="D111" t="n">
-        <v>264</v>
-      </c>
-      <c r="E111" t="n">
-        <v>264</v>
-      </c>
-      <c r="F111" t="n">
-        <v>15.5676</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-19567.2974213993</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>263</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>263</v>
-      </c>
-      <c r="C112" t="n">
-        <v>264</v>
-      </c>
-      <c r="D112" t="n">
-        <v>264</v>
-      </c>
-      <c r="E112" t="n">
-        <v>263</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1592.9104</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-19567.2974213993</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>263</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>262</v>
-      </c>
-      <c r="C113" t="n">
-        <v>262</v>
-      </c>
-      <c r="D113" t="n">
-        <v>262</v>
-      </c>
-      <c r="E113" t="n">
-        <v>262</v>
-      </c>
-      <c r="F113" t="n">
-        <v>342.4337</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-19909.7311213993</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>263</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>264</v>
-      </c>
-      <c r="C114" t="n">
-        <v>261</v>
-      </c>
-      <c r="D114" t="n">
-        <v>264</v>
-      </c>
-      <c r="E114" t="n">
-        <v>261</v>
-      </c>
-      <c r="F114" t="n">
-        <v>800</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-20709.7311213993</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>263</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>264</v>
-      </c>
-      <c r="C115" t="n">
-        <v>264</v>
-      </c>
-      <c r="D115" t="n">
-        <v>264</v>
-      </c>
-      <c r="E115" t="n">
-        <v>264</v>
-      </c>
-      <c r="F115" t="n">
-        <v>973.5492</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-19736.1819213993</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>263</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>262</v>
-      </c>
-      <c r="C116" t="n">
-        <v>262</v>
-      </c>
-      <c r="D116" t="n">
-        <v>262</v>
-      </c>
-      <c r="E116" t="n">
-        <v>262</v>
-      </c>
-      <c r="F116" t="n">
-        <v>761</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-20497.1819213993</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>263</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>262</v>
-      </c>
-      <c r="C117" t="n">
-        <v>262</v>
-      </c>
-      <c r="D117" t="n">
-        <v>262</v>
-      </c>
-      <c r="E117" t="n">
-        <v>262</v>
-      </c>
-      <c r="F117" t="n">
-        <v>425.5075</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-20497.1819213993</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>263</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>263</v>
-      </c>
-      <c r="C118" t="n">
-        <v>263</v>
-      </c>
-      <c r="D118" t="n">
-        <v>263</v>
-      </c>
-      <c r="E118" t="n">
-        <v>263</v>
-      </c>
-      <c r="F118" t="n">
-        <v>262.32</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-20234.8619213993</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>263</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>262</v>
-      </c>
-      <c r="C119" t="n">
-        <v>264</v>
-      </c>
-      <c r="D119" t="n">
-        <v>264</v>
-      </c>
-      <c r="E119" t="n">
-        <v>262</v>
-      </c>
-      <c r="F119" t="n">
-        <v>368.2878</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-19866.5741213993</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>263</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>262</v>
-      </c>
-      <c r="C120" t="n">
-        <v>262</v>
-      </c>
-      <c r="D120" t="n">
-        <v>262</v>
-      </c>
-      <c r="E120" t="n">
-        <v>262</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2530</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-22396.5741213993</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>263</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>263</v>
-      </c>
-      <c r="C121" t="n">
-        <v>263</v>
-      </c>
-      <c r="D121" t="n">
-        <v>263</v>
-      </c>
-      <c r="E121" t="n">
-        <v>263</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3122.0658</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-19274.5083213993</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>263</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>262</v>
-      </c>
-      <c r="C122" t="n">
-        <v>262</v>
-      </c>
-      <c r="D122" t="n">
-        <v>262</v>
-      </c>
-      <c r="E122" t="n">
-        <v>262</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2600</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-21874.5083213993</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>263</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>263</v>
-      </c>
-      <c r="C123" t="n">
-        <v>263</v>
-      </c>
-      <c r="D123" t="n">
-        <v>263</v>
-      </c>
-      <c r="E123" t="n">
-        <v>263</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7300</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-14574.5083213993</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>262</v>
-      </c>
-      <c r="J123" t="n">
-        <v>263</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>262</v>
-      </c>
-      <c r="C124" t="n">
-        <v>262</v>
-      </c>
-      <c r="D124" t="n">
-        <v>262</v>
-      </c>
-      <c r="E124" t="n">
-        <v>262</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1002.3176</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>263</v>
-      </c>
-      <c r="J124" t="n">
-        <v>263</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>262</v>
-      </c>
-      <c r="C125" t="n">
-        <v>262</v>
-      </c>
-      <c r="D125" t="n">
-        <v>262</v>
-      </c>
-      <c r="E125" t="n">
-        <v>262</v>
-      </c>
-      <c r="F125" t="n">
-        <v>680</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>262</v>
-      </c>
-      <c r="J125" t="n">
-        <v>263</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>262</v>
-      </c>
-      <c r="C126" t="n">
-        <v>262</v>
-      </c>
-      <c r="D126" t="n">
-        <v>262</v>
-      </c>
-      <c r="E126" t="n">
-        <v>262</v>
-      </c>
-      <c r="F126" t="n">
-        <v>28258.0837</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>262</v>
-      </c>
-      <c r="J126" t="n">
-        <v>263</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>262</v>
-      </c>
-      <c r="C127" t="n">
-        <v>262</v>
-      </c>
-      <c r="D127" t="n">
-        <v>262</v>
-      </c>
-      <c r="E127" t="n">
-        <v>262</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1502</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>262</v>
-      </c>
-      <c r="J127" t="n">
-        <v>263</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>262</v>
-      </c>
-      <c r="C128" t="n">
-        <v>262</v>
-      </c>
-      <c r="D128" t="n">
-        <v>262</v>
-      </c>
-      <c r="E128" t="n">
-        <v>262</v>
-      </c>
-      <c r="F128" t="n">
-        <v>669</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>262</v>
-      </c>
-      <c r="J128" t="n">
-        <v>263</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>262</v>
-      </c>
-      <c r="C129" t="n">
-        <v>262</v>
-      </c>
-      <c r="D129" t="n">
-        <v>262</v>
-      </c>
-      <c r="E129" t="n">
-        <v>262</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>263</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>262</v>
-      </c>
-      <c r="C130" t="n">
-        <v>262</v>
-      </c>
-      <c r="D130" t="n">
-        <v>262</v>
-      </c>
-      <c r="E130" t="n">
-        <v>262</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2406.4797</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>263</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>262</v>
-      </c>
-      <c r="C131" t="n">
-        <v>262</v>
-      </c>
-      <c r="D131" t="n">
-        <v>262</v>
-      </c>
-      <c r="E131" t="n">
-        <v>262</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>263</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>264</v>
-      </c>
-      <c r="C132" t="n">
-        <v>264</v>
-      </c>
-      <c r="D132" t="n">
-        <v>264</v>
-      </c>
-      <c r="E132" t="n">
-        <v>264</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3638.2992</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-11938.5267213993</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>263</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>265</v>
-      </c>
-      <c r="C133" t="n">
-        <v>265</v>
-      </c>
-      <c r="D133" t="n">
-        <v>265</v>
-      </c>
-      <c r="E133" t="n">
-        <v>265</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1004</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-10934.5267213993</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>263</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>266</v>
-      </c>
-      <c r="C134" t="n">
-        <v>265</v>
-      </c>
-      <c r="D134" t="n">
-        <v>266</v>
-      </c>
-      <c r="E134" t="n">
-        <v>265</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1887.7924</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-10934.5267213993</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>263</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>264</v>
-      </c>
-      <c r="C135" t="n">
-        <v>264</v>
-      </c>
-      <c r="D135" t="n">
-        <v>264</v>
-      </c>
-      <c r="E135" t="n">
-        <v>264</v>
-      </c>
-      <c r="F135" t="n">
-        <v>554</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-11488.5267213993</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>263</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>264</v>
-      </c>
-      <c r="C136" t="n">
-        <v>264</v>
-      </c>
-      <c r="D136" t="n">
-        <v>264</v>
-      </c>
-      <c r="E136" t="n">
-        <v>264</v>
-      </c>
-      <c r="F136" t="n">
-        <v>79.613</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-11488.5267213993</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>263</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>265</v>
-      </c>
-      <c r="C137" t="n">
-        <v>265</v>
-      </c>
-      <c r="D137" t="n">
-        <v>265</v>
-      </c>
-      <c r="E137" t="n">
-        <v>265</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1148.6499</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-10339.8768213993</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>263</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>266</v>
-      </c>
-      <c r="C138" t="n">
-        <v>266</v>
-      </c>
-      <c r="D138" t="n">
-        <v>266</v>
-      </c>
-      <c r="E138" t="n">
-        <v>266</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-10338.8768213993</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>263</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>265</v>
-      </c>
-      <c r="C139" t="n">
-        <v>265</v>
-      </c>
-      <c r="D139" t="n">
-        <v>265</v>
-      </c>
-      <c r="E139" t="n">
-        <v>265</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1681.5386</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-12020.4154213993</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>263</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>265</v>
-      </c>
-      <c r="C140" t="n">
-        <v>265</v>
-      </c>
-      <c r="D140" t="n">
-        <v>265</v>
-      </c>
-      <c r="E140" t="n">
-        <v>265</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-12020.4154213993</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>263</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>264</v>
-      </c>
-      <c r="C141" t="n">
-        <v>264</v>
-      </c>
-      <c r="D141" t="n">
-        <v>264</v>
-      </c>
-      <c r="E141" t="n">
-        <v>264</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1.0278</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>263</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>264</v>
-      </c>
-      <c r="C142" t="n">
-        <v>264</v>
-      </c>
-      <c r="D142" t="n">
-        <v>264</v>
-      </c>
-      <c r="E142" t="n">
-        <v>264</v>
-      </c>
-      <c r="F142" t="n">
-        <v>311</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>263</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>264</v>
-      </c>
-      <c r="C143" t="n">
-        <v>264</v>
-      </c>
-      <c r="D143" t="n">
-        <v>264</v>
-      </c>
-      <c r="E143" t="n">
-        <v>264</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3315.7226</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>263</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>264</v>
-      </c>
-      <c r="C144" t="n">
-        <v>264</v>
-      </c>
-      <c r="D144" t="n">
-        <v>264</v>
-      </c>
-      <c r="E144" t="n">
-        <v>264</v>
-      </c>
-      <c r="F144" t="n">
-        <v>23.2645</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>263</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>265</v>
-      </c>
-      <c r="C145" t="n">
-        <v>265</v>
-      </c>
-      <c r="D145" t="n">
-        <v>265</v>
-      </c>
-      <c r="E145" t="n">
-        <v>265</v>
-      </c>
-      <c r="F145" t="n">
-        <v>6.0226</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-12015.4206213993</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>263</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>264</v>
-      </c>
-      <c r="C146" t="n">
-        <v>264</v>
-      </c>
-      <c r="D146" t="n">
-        <v>264</v>
-      </c>
-      <c r="E146" t="n">
-        <v>264</v>
-      </c>
-      <c r="F146" t="n">
-        <v>711.583</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-12727.0036213993</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>263</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>265</v>
-      </c>
-      <c r="C147" t="n">
-        <v>265</v>
-      </c>
-      <c r="D147" t="n">
-        <v>265</v>
-      </c>
-      <c r="E147" t="n">
-        <v>265</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-12724.6036213993</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>263</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>265</v>
-      </c>
-      <c r="C148" t="n">
-        <v>265</v>
-      </c>
-      <c r="D148" t="n">
-        <v>265</v>
-      </c>
-      <c r="E148" t="n">
-        <v>265</v>
-      </c>
-      <c r="F148" t="n">
-        <v>41.84905660377358</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-12724.6036213993</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>263</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>264</v>
-      </c>
-      <c r="C149" t="n">
-        <v>264</v>
-      </c>
-      <c r="D149" t="n">
-        <v>264</v>
-      </c>
-      <c r="E149" t="n">
-        <v>264</v>
-      </c>
-      <c r="F149" t="n">
-        <v>5.0189</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-12729.6225213993</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>263</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>264</v>
-      </c>
-      <c r="C150" t="n">
-        <v>264</v>
-      </c>
-      <c r="D150" t="n">
-        <v>264</v>
-      </c>
-      <c r="E150" t="n">
-        <v>264</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2.7121</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-12729.6225213993</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>263</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>262</v>
-      </c>
-      <c r="C151" t="n">
-        <v>262</v>
-      </c>
-      <c r="D151" t="n">
-        <v>262</v>
-      </c>
-      <c r="E151" t="n">
-        <v>262</v>
-      </c>
-      <c r="F151" t="n">
-        <v>299.8616</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-13029.4841213993</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>263</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>264</v>
-      </c>
-      <c r="C152" t="n">
-        <v>262</v>
-      </c>
-      <c r="D152" t="n">
-        <v>270</v>
-      </c>
-      <c r="E152" t="n">
-        <v>262</v>
-      </c>
-      <c r="F152" t="n">
-        <v>102746.3861</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-13029.4841213993</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>263</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5776,7 +5518,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5815,7 +5557,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5854,7 +5596,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5893,7 +5635,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5932,7 +5674,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5971,7 +5713,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6010,7 +5752,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6049,7 +5791,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6088,7 +5830,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6127,7 +5869,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6166,7 +5908,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6205,7 +5947,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6244,7 +5986,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6283,7 +6025,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6322,7 +6064,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6361,7 +6103,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6400,7 +6142,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6439,7 +6181,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6478,7 +6220,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6517,7 +6259,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6552,19 +6294,19 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.010209125475285</v>
+        <v>1</v>
       </c>
       <c r="M173" t="inlineStr"/>
     </row>
@@ -6591,11 +6333,17 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>264</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6372,17 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>264</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6657,11 +6411,17 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>264</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +6450,17 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>264</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6723,11 +6489,17 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>264</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6756,11 +6528,17 @@
         <v>23867.25599949621</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>264</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6789,11 +6567,17 @@
         <v>21017.25599949621</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>264</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6822,11 +6606,17 @@
         <v>29229.25599949621</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>264</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6855,11 +6645,17 @@
         <v>26428.75549949621</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>264</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6888,11 +6684,17 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>264</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6921,11 +6723,17 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>264</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6957,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>264</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>264</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7023,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>264</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7056,8 +6882,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>264</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +6921,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>264</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7122,8 +6960,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>264</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7155,8 +6999,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>264</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7188,8 +7038,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>264</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7221,8 +7077,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>264</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7254,8 +7116,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>264</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +7155,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>264</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7320,8 +7194,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>264</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +7233,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>264</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7386,8 +7272,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>264</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7419,8 +7311,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>264</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7452,8 +7350,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>264</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7485,8 +7389,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>264</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7518,8 +7428,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>264</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest BAT.xlsx
+++ b/BackTest/2019-10-18 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5143.6765</v>
       </c>
       <c r="G2" t="n">
-        <v>13648.90611449814</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>14450</v>
       </c>
       <c r="G3" t="n">
-        <v>13648.90611449814</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10281.2413</v>
       </c>
       <c r="G4" t="n">
-        <v>23930.14741449814</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1670</v>
       </c>
       <c r="G5" t="n">
-        <v>25600.14741449814</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1316.3911</v>
       </c>
       <c r="G6" t="n">
-        <v>25600.14741449814</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>12223.7582</v>
       </c>
       <c r="G7" t="n">
-        <v>37823.90561449814</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1535.5238</v>
       </c>
       <c r="G8" t="n">
-        <v>37823.90561449814</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>24408.0291</v>
       </c>
       <c r="G9" t="n">
-        <v>62231.93471449814</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5631.897435897436</v>
       </c>
       <c r="G10" t="n">
-        <v>56600.0372786007</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1942.7613</v>
       </c>
       <c r="G11" t="n">
-        <v>54657.2759786007</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4191.6937</v>
       </c>
       <c r="G12" t="n">
-        <v>50465.5822786007</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2837.3999</v>
       </c>
       <c r="G13" t="n">
-        <v>50465.5822786007</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>464.389</v>
       </c>
       <c r="G14" t="n">
-        <v>50465.5822786007</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3841.9535</v>
       </c>
       <c r="G15" t="n">
-        <v>46623.6287786007</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>46601.6287786007</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>14415.1988</v>
       </c>
       <c r="G17" t="n">
-        <v>61016.8275786007</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>428.4638</v>
       </c>
       <c r="G18" t="n">
-        <v>60588.3637786007</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3802.2</v>
       </c>
       <c r="G19" t="n">
-        <v>64390.5637786007</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1887.9824</v>
       </c>
       <c r="G20" t="n">
-        <v>64390.5637786007</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3200</v>
       </c>
       <c r="G21" t="n">
-        <v>67590.5637786007</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>831.1603</v>
       </c>
       <c r="G22" t="n">
-        <v>67590.5637786007</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>67590.5637786007</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7341.6814</v>
       </c>
       <c r="G24" t="n">
-        <v>74932.2451786007</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>4331.4399</v>
       </c>
       <c r="G25" t="n">
-        <v>74932.2451786007</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>48190.838</v>
       </c>
       <c r="G26" t="n">
-        <v>26741.4071786007</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>371.651</v>
       </c>
       <c r="G27" t="n">
-        <v>27113.0581786007</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4523</v>
       </c>
       <c r="G28" t="n">
-        <v>31636.0581786007</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>824.91</v>
       </c>
       <c r="G29" t="n">
-        <v>30811.1481786007</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>8852.427600000001</v>
       </c>
       <c r="G30" t="n">
-        <v>39663.5757786007</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>154</v>
       </c>
       <c r="G31" t="n">
-        <v>39509.5757786007</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>14303.169</v>
       </c>
       <c r="G32" t="n">
-        <v>39509.5757786007</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2612.5109</v>
       </c>
       <c r="G33" t="n">
-        <v>36897.0648786007</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2114.7274</v>
       </c>
       <c r="G34" t="n">
-        <v>36897.0648786007</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1829.2</v>
       </c>
       <c r="G35" t="n">
-        <v>36897.0648786007</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>644.8018</v>
       </c>
       <c r="G36" t="n">
-        <v>36897.0648786007</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>2646.9001</v>
       </c>
       <c r="G37" t="n">
-        <v>36897.0648786007</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>345.3529</v>
       </c>
       <c r="G38" t="n">
-        <v>36897.0648786007</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>12000</v>
       </c>
       <c r="G39" t="n">
-        <v>24897.0648786007</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2057.6246</v>
       </c>
       <c r="G40" t="n">
-        <v>24897.0648786007</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1034.7204</v>
       </c>
       <c r="G41" t="n">
-        <v>24897.0648786007</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>875.29</v>
       </c>
       <c r="G42" t="n">
-        <v>24897.0648786007</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1112.8668</v>
       </c>
       <c r="G43" t="n">
-        <v>26009.9316786007</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>3310</v>
       </c>
       <c r="G44" t="n">
-        <v>29319.9316786007</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>3804</v>
       </c>
       <c r="G45" t="n">
-        <v>33123.9316786007</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>3209.031</v>
       </c>
       <c r="G46" t="n">
-        <v>33123.9316786007</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>225.2536</v>
       </c>
       <c r="G47" t="n">
-        <v>33123.9316786007</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1470</v>
       </c>
       <c r="G48" t="n">
-        <v>33123.9316786007</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2542.9964</v>
       </c>
       <c r="G49" t="n">
-        <v>33123.9316786007</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2766.2908</v>
       </c>
       <c r="G50" t="n">
-        <v>30357.6408786007</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2434.3081</v>
       </c>
       <c r="G51" t="n">
-        <v>30357.6408786007</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2886.998</v>
       </c>
       <c r="G52" t="n">
-        <v>33244.6388786007</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>262.444</v>
       </c>
       <c r="G53" t="n">
-        <v>33244.6388786007</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4761.1787</v>
       </c>
       <c r="G54" t="n">
-        <v>28483.4601786007</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>15027.7238</v>
       </c>
       <c r="G55" t="n">
-        <v>28483.4601786007</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3523.5327</v>
       </c>
       <c r="G56" t="n">
-        <v>28483.4601786007</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>138.8663</v>
       </c>
       <c r="G57" t="n">
-        <v>28483.4601786007</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2730</v>
       </c>
       <c r="G58" t="n">
-        <v>25753.4601786007</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2368</v>
       </c>
       <c r="G59" t="n">
-        <v>25753.4601786007</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>16116.2645</v>
       </c>
       <c r="G60" t="n">
-        <v>9637.195678600701</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1618</v>
       </c>
       <c r="G61" t="n">
-        <v>9637.195678600701</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>419.1193</v>
       </c>
       <c r="G62" t="n">
-        <v>9637.195678600701</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>15</v>
       </c>
       <c r="G63" t="n">
-        <v>9637.195678600701</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>497.0111</v>
       </c>
       <c r="G64" t="n">
-        <v>9140.184578600702</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>9125.184578600702</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>483.8605</v>
       </c>
       <c r="G66" t="n">
-        <v>9125.184578600702</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1845.6814</v>
       </c>
       <c r="G67" t="n">
-        <v>10970.8659786007</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>454.0191</v>
       </c>
       <c r="G68" t="n">
-        <v>10516.8468786007</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>642.8108999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>11159.6577786007</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>848.7084</v>
       </c>
       <c r="G70" t="n">
-        <v>12008.3661786007</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>519.6826</v>
       </c>
       <c r="G71" t="n">
-        <v>12008.3661786007</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2238.732</v>
       </c>
       <c r="G72" t="n">
-        <v>9769.634178600701</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1389.5703</v>
       </c>
       <c r="G73" t="n">
-        <v>11159.2044786007</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>688.2069</v>
       </c>
       <c r="G74" t="n">
-        <v>11159.2044786007</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>614</v>
       </c>
       <c r="G75" t="n">
-        <v>10545.2044786007</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>124</v>
       </c>
       <c r="G76" t="n">
-        <v>10545.2044786007</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3932.52</v>
       </c>
       <c r="G77" t="n">
-        <v>10545.2044786007</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2768.7177</v>
       </c>
       <c r="G78" t="n">
-        <v>10545.2044786007</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>14.8999</v>
       </c>
       <c r="G79" t="n">
-        <v>10545.2044786007</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>14.8999</v>
       </c>
       <c r="G80" t="n">
-        <v>10530.3045786007</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>250.3502</v>
       </c>
       <c r="G81" t="n">
-        <v>10780.6547786007</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>61</v>
       </c>
       <c r="G82" t="n">
-        <v>10841.6547786007</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1997.1524</v>
       </c>
       <c r="G83" t="n">
-        <v>8844.5023786007</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>6349.6867</v>
       </c>
       <c r="G84" t="n">
-        <v>2494.8156786007</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2462.8558</v>
       </c>
       <c r="G85" t="n">
-        <v>2494.8156786007</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>793.9385</v>
       </c>
       <c r="G86" t="n">
-        <v>1700.8771786007</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>6604.89</v>
       </c>
       <c r="G87" t="n">
-        <v>-4904.0128213993</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1370.8118</v>
       </c>
       <c r="G88" t="n">
-        <v>-3533.2010213993</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>363.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>-3897.200921399301</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>299.7668</v>
       </c>
       <c r="G90" t="n">
-        <v>-3897.200921399301</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>8973.577499999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-12870.7784213993</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>15.5157</v>
       </c>
       <c r="G92" t="n">
-        <v>-12855.2627213993</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>31.2861</v>
       </c>
       <c r="G93" t="n">
-        <v>-12886.5488213993</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>438.1511</v>
       </c>
       <c r="G94" t="n">
-        <v>-12886.5488213993</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,19 @@
         <v>10.3114</v>
       </c>
       <c r="G95" t="n">
-        <v>-12886.5488213993</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I95" t="n">
+        <v>262</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3267,23 @@
         <v>37.7043</v>
       </c>
       <c r="G96" t="n">
-        <v>-12886.5488213993</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I96" t="n">
+        <v>262</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3305,23 @@
         <v>758.203</v>
       </c>
       <c r="G97" t="n">
-        <v>-12128.3458213993</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I97" t="n">
+        <v>262</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3343,19 @@
         <v>5309.9371</v>
       </c>
       <c r="G98" t="n">
-        <v>-6818.4087213993</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I98" t="n">
+        <v>263</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3377,23 @@
         <v>1183.8496</v>
       </c>
       <c r="G99" t="n">
-        <v>-6818.4087213993</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I99" t="n">
+        <v>263</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3415,23 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>-6829.4087213993</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I100" t="n">
+        <v>263</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3453,19 @@
         <v>37.7358</v>
       </c>
       <c r="G101" t="n">
-        <v>-6791.672921399299</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I101" t="n">
+        <v>263</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3487,23 @@
         <v>484.8297</v>
       </c>
       <c r="G102" t="n">
-        <v>-6791.672921399299</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I102" t="n">
+        <v>263</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3525,21 @@
         <v>344.4896</v>
       </c>
       <c r="G103" t="n">
-        <v>-7136.162521399299</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>263</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3561,23 @@
         <v>39.9</v>
       </c>
       <c r="G104" t="n">
-        <v>-7136.162521399299</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I104" t="n">
+        <v>263</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3599,23 @@
         <v>5685.1193</v>
       </c>
       <c r="G105" t="n">
-        <v>-7136.162521399299</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I105" t="n">
+        <v>263</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3637,23 @@
         <v>1995</v>
       </c>
       <c r="G106" t="n">
-        <v>-7136.162521399299</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I106" t="n">
+        <v>263</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3675,23 @@
         <v>487.2474</v>
       </c>
       <c r="G107" t="n">
-        <v>-6648.915121399299</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I107" t="n">
+        <v>263</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3713,23 @@
         <v>1406.6919</v>
       </c>
       <c r="G108" t="n">
-        <v>-6648.915121399299</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I108" t="n">
+        <v>263</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3751,23 @@
         <v>1996</v>
       </c>
       <c r="G109" t="n">
-        <v>-8644.915121399299</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I109" t="n">
+        <v>263</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3789,23 @@
         <v>10937.9499</v>
       </c>
       <c r="G110" t="n">
-        <v>-19582.8650213993</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I110" t="n">
+        <v>263</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3827,23 @@
         <v>15.5676</v>
       </c>
       <c r="G111" t="n">
-        <v>-19567.2974213993</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I111" t="n">
+        <v>263</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3865,23 @@
         <v>1592.9104</v>
       </c>
       <c r="G112" t="n">
-        <v>-19567.2974213993</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I112" t="n">
+        <v>263</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3903,21 @@
         <v>342.4337</v>
       </c>
       <c r="G113" t="n">
-        <v>-19909.7311213993</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>263</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3939,23 @@
         <v>800</v>
       </c>
       <c r="G114" t="n">
-        <v>-20709.7311213993</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I114" t="n">
+        <v>263</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3977,23 @@
         <v>973.5492</v>
       </c>
       <c r="G115" t="n">
-        <v>-19736.1819213993</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="I115" t="n">
+        <v>263</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4015,21 @@
         <v>761</v>
       </c>
       <c r="G116" t="n">
-        <v>-20497.1819213993</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>263</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4051,21 @@
         <v>425.5075</v>
       </c>
       <c r="G117" t="n">
-        <v>-20497.1819213993</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>263</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4087,23 @@
         <v>262.32</v>
       </c>
       <c r="G118" t="n">
-        <v>-20234.8619213993</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I118" t="n">
+        <v>263</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4125,21 @@
         <v>368.2878</v>
       </c>
       <c r="G119" t="n">
-        <v>-19866.5741213993</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>263</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4161,23 @@
         <v>2530</v>
       </c>
       <c r="G120" t="n">
-        <v>-22396.5741213993</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I120" t="n">
+        <v>263</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4199,23 @@
         <v>3122.0658</v>
       </c>
       <c r="G121" t="n">
-        <v>-19274.5083213993</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I121" t="n">
+        <v>263</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4237,23 @@
         <v>2600</v>
       </c>
       <c r="G122" t="n">
-        <v>-21874.5083213993</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I122" t="n">
+        <v>263</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4275,23 @@
         <v>7300</v>
       </c>
       <c r="G123" t="n">
-        <v>-14574.5083213993</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I123" t="n">
+        <v>263</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4313,23 @@
         <v>1002.3176</v>
       </c>
       <c r="G124" t="n">
-        <v>-15576.8259213993</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I124" t="n">
+        <v>263</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4351,23 @@
         <v>680</v>
       </c>
       <c r="G125" t="n">
-        <v>-15576.8259213993</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I125" t="n">
+        <v>263</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4389,21 @@
         <v>28258.0837</v>
       </c>
       <c r="G126" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>263</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4425,21 @@
         <v>1502</v>
       </c>
       <c r="G127" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>263</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4461,21 @@
         <v>669</v>
       </c>
       <c r="G128" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>263</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4497,21 @@
         <v>1700</v>
       </c>
       <c r="G129" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>263</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4533,23 @@
         <v>2406.4797</v>
       </c>
       <c r="G130" t="n">
-        <v>-15576.8259213993</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I130" t="n">
+        <v>263</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4571,21 @@
         <v>1000</v>
       </c>
       <c r="G131" t="n">
-        <v>-15576.8259213993</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>263</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4607,21 @@
         <v>3638.2992</v>
       </c>
       <c r="G132" t="n">
-        <v>-11938.5267213993</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>263</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4643,21 @@
         <v>1004</v>
       </c>
       <c r="G133" t="n">
-        <v>-10934.5267213993</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>263</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4679,21 @@
         <v>1887.7924</v>
       </c>
       <c r="G134" t="n">
-        <v>-10934.5267213993</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>263</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4715,21 @@
         <v>554</v>
       </c>
       <c r="G135" t="n">
-        <v>-11488.5267213993</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>263</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4751,21 @@
         <v>79.613</v>
       </c>
       <c r="G136" t="n">
-        <v>-11488.5267213993</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>263</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4787,21 @@
         <v>1148.6499</v>
       </c>
       <c r="G137" t="n">
-        <v>-10339.8768213993</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>263</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4823,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>-10338.8768213993</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>263</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4859,21 @@
         <v>1681.5386</v>
       </c>
       <c r="G139" t="n">
-        <v>-12020.4154213993</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>263</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4895,21 @@
         <v>0.0001</v>
       </c>
       <c r="G140" t="n">
-        <v>-12020.4154213993</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>263</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,22 +4931,21 @@
         <v>1.0278</v>
       </c>
       <c r="G141" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>265</v>
-      </c>
-      <c r="J141" t="n">
-        <v>265</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5072,26 +4967,21 @@
         <v>311</v>
       </c>
       <c r="G142" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>264</v>
-      </c>
-      <c r="J142" t="n">
-        <v>265</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5113,26 +5003,21 @@
         <v>3315.7226</v>
       </c>
       <c r="G143" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>264</v>
-      </c>
-      <c r="J143" t="n">
-        <v>265</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5154,22 +5039,21 @@
         <v>23.2645</v>
       </c>
       <c r="G144" t="n">
-        <v>-12021.4432213993</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>264</v>
-      </c>
-      <c r="J144" t="n">
-        <v>264</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5191,26 +5075,21 @@
         <v>6.0226</v>
       </c>
       <c r="G145" t="n">
-        <v>-12015.4206213993</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>264</v>
-      </c>
-      <c r="J145" t="n">
-        <v>264</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5232,26 +5111,21 @@
         <v>711.583</v>
       </c>
       <c r="G146" t="n">
-        <v>-12727.0036213993</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>265</v>
-      </c>
-      <c r="J146" t="n">
-        <v>264</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5273,22 +5147,21 @@
         <v>2.4</v>
       </c>
       <c r="G147" t="n">
-        <v>-12724.6036213993</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>264</v>
-      </c>
-      <c r="J147" t="n">
-        <v>264</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5310,26 +5183,21 @@
         <v>41.84905660377358</v>
       </c>
       <c r="G148" t="n">
-        <v>-12724.6036213993</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>265</v>
-      </c>
-      <c r="J148" t="n">
-        <v>264</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5351,26 +5219,21 @@
         <v>5.0189</v>
       </c>
       <c r="G149" t="n">
-        <v>-12729.6225213993</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>265</v>
-      </c>
-      <c r="J149" t="n">
-        <v>264</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5392,22 +5255,21 @@
         <v>2.7121</v>
       </c>
       <c r="G150" t="n">
-        <v>-12729.6225213993</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>264</v>
-      </c>
-      <c r="J150" t="n">
-        <v>264</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5429,26 +5291,21 @@
         <v>299.8616</v>
       </c>
       <c r="G151" t="n">
-        <v>-13029.4841213993</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>264</v>
-      </c>
-      <c r="J151" t="n">
-        <v>264</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5470,26 +5327,21 @@
         <v>102746.3861</v>
       </c>
       <c r="G152" t="n">
-        <v>-13029.4841213993</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>262</v>
-      </c>
-      <c r="J152" t="n">
-        <v>264</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5511,24 +5363,21 @@
         <v>30959.5814</v>
       </c>
       <c r="G153" t="n">
-        <v>17930.0972786007</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>264</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>263</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5550,24 +5399,21 @@
         <v>3936.7877</v>
       </c>
       <c r="G154" t="n">
-        <v>13993.3095786007</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>264</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>263</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5589,24 +5435,21 @@
         <v>4127.738</v>
       </c>
       <c r="G155" t="n">
-        <v>18121.0475786007</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>264</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>263</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5628,24 +5471,21 @@
         <v>25966.9355</v>
       </c>
       <c r="G156" t="n">
-        <v>18121.0475786007</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>264</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>263</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5667,24 +5507,21 @@
         <v>58.0716</v>
       </c>
       <c r="G157" t="n">
-        <v>18179.1191786007</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>264</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>263</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5706,24 +5543,21 @@
         <v>137.0379</v>
       </c>
       <c r="G158" t="n">
-        <v>18042.0812786007</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>264</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>263</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5745,24 +5579,21 @@
         <v>50.1639</v>
       </c>
       <c r="G159" t="n">
-        <v>18042.0812786007</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>264</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>263</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5784,24 +5615,21 @@
         <v>40.4866</v>
       </c>
       <c r="G160" t="n">
-        <v>18042.0812786007</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>264</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>263</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5823,24 +5651,21 @@
         <v>60.7299</v>
       </c>
       <c r="G161" t="n">
-        <v>18042.0812786007</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>264</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>263</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5862,24 +5687,21 @@
         <v>60.7299</v>
       </c>
       <c r="G162" t="n">
-        <v>18042.0812786007</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>264</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>263</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5901,24 +5723,21 @@
         <v>20.2433</v>
       </c>
       <c r="G163" t="n">
-        <v>18042.0812786007</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>264</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>263</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5940,24 +5759,21 @@
         <v>1990</v>
       </c>
       <c r="G164" t="n">
-        <v>16052.0812786007</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>264</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>263</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5979,24 +5795,21 @@
         <v>48.124</v>
       </c>
       <c r="G165" t="n">
-        <v>16052.0812786007</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>264</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>263</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6018,24 +5831,21 @@
         <v>20.3244</v>
       </c>
       <c r="G166" t="n">
-        <v>16052.0812786007</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>264</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>263</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6057,24 +5867,21 @@
         <v>25.4528</v>
       </c>
       <c r="G167" t="n">
-        <v>16077.5340786007</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>264</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>263</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6096,24 +5903,21 @@
         <v>510</v>
       </c>
       <c r="G168" t="n">
-        <v>16077.5340786007</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>264</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>263</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6135,24 +5939,21 @@
         <v>1627</v>
       </c>
       <c r="G169" t="n">
-        <v>16077.5340786007</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>264</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>263</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6174,24 +5975,21 @@
         <v>10732.5289</v>
       </c>
       <c r="G170" t="n">
-        <v>16077.5340786007</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>264</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>263</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6213,24 +6011,21 @@
         <v>10094.21702089552</v>
       </c>
       <c r="G171" t="n">
-        <v>26171.75109949621</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>264</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>263</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6252,24 +6047,21 @@
         <v>8665.0936</v>
       </c>
       <c r="G172" t="n">
-        <v>17506.65749949621</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>264</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>263</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6291,24 +6083,21 @@
         <v>21.8947</v>
       </c>
       <c r="G173" t="n">
-        <v>17506.65749949621</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>264</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>263</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6330,24 +6119,21 @@
         <v>14.9921</v>
       </c>
       <c r="G174" t="n">
-        <v>17506.65749949621</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>264</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>263</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6369,24 +6155,21 @@
         <v>15.2094</v>
       </c>
       <c r="G175" t="n">
-        <v>17521.86689949621</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>264</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>263</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6408,24 +6191,21 @@
         <v>2094.7174</v>
       </c>
       <c r="G176" t="n">
-        <v>17521.86689949621</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>264</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>263</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6447,24 +6227,21 @@
         <v>25.3891</v>
       </c>
       <c r="G177" t="n">
-        <v>17547.25599949621</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>264</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>263</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6486,24 +6263,21 @@
         <v>2240</v>
       </c>
       <c r="G178" t="n">
-        <v>17547.25599949621</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>264</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>263</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6525,24 +6299,21 @@
         <v>6320</v>
       </c>
       <c r="G179" t="n">
-        <v>23867.25599949621</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>264</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>263</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6564,24 +6335,21 @@
         <v>2850</v>
       </c>
       <c r="G180" t="n">
-        <v>21017.25599949621</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>264</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>263</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6603,24 +6371,21 @@
         <v>8212</v>
       </c>
       <c r="G181" t="n">
-        <v>29229.25599949621</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>264</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>263</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6642,24 +6407,21 @@
         <v>2800.5005</v>
       </c>
       <c r="G182" t="n">
-        <v>26428.75549949621</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>264</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>263</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6681,24 +6443,21 @@
         <v>23065.0043</v>
       </c>
       <c r="G183" t="n">
-        <v>3363.751199496211</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>264</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>263</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6720,24 +6479,21 @@
         <v>845.7159</v>
       </c>
       <c r="G184" t="n">
-        <v>3363.751199496211</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>264</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>263</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6759,24 +6515,21 @@
         <v>1176.9773</v>
       </c>
       <c r="G185" t="n">
-        <v>4540.728499496212</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>264</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>263</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6798,24 +6551,21 @@
         <v>59.4954</v>
       </c>
       <c r="G186" t="n">
-        <v>4481.233099496212</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>264</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>263</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6837,24 +6587,21 @@
         <v>15.4954</v>
       </c>
       <c r="G187" t="n">
-        <v>4465.737699496212</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>264</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>263</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6876,24 +6623,21 @@
         <v>2375.695</v>
       </c>
       <c r="G188" t="n">
-        <v>6841.432699496212</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>264</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>263</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6915,24 +6659,21 @@
         <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>6843.432699496212</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>264</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>263</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6954,24 +6695,21 @@
         <v>399.7437</v>
       </c>
       <c r="G190" t="n">
-        <v>6443.688999496212</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>264</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>263</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6993,24 +6731,21 @@
         <v>570</v>
       </c>
       <c r="G191" t="n">
-        <v>5873.688999496212</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>264</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>263</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7032,24 +6767,21 @@
         <v>17561.5601</v>
       </c>
       <c r="G192" t="n">
-        <v>-11687.87110050379</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>264</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>263</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7071,24 +6803,21 @@
         <v>2156.6067</v>
       </c>
       <c r="G193" t="n">
-        <v>-9531.264400503787</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>264</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>263</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7110,24 +6839,21 @@
         <v>6439.3943</v>
       </c>
       <c r="G194" t="n">
-        <v>-15970.65870050379</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>264</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>263</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7149,24 +6875,21 @@
         <v>3798.459</v>
       </c>
       <c r="G195" t="n">
-        <v>-12172.19970050379</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>264</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>263</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7188,24 +6911,21 @@
         <v>1902.1978</v>
       </c>
       <c r="G196" t="n">
-        <v>-14074.39750050379</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>264</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>263</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7227,24 +6947,21 @@
         <v>1070</v>
       </c>
       <c r="G197" t="n">
-        <v>-13004.39750050379</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>264</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>263</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7266,24 +6983,21 @@
         <v>2624.1292</v>
       </c>
       <c r="G198" t="n">
-        <v>-13004.39750050379</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>264</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>263</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7305,24 +7019,21 @@
         <v>15.1399</v>
       </c>
       <c r="G199" t="n">
-        <v>-12989.25760050379</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>264</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>263</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7344,24 +7055,21 @@
         <v>633.7463</v>
       </c>
       <c r="G200" t="n">
-        <v>-12989.25760050379</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>264</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>263</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7383,24 +7091,21 @@
         <v>210.5548</v>
       </c>
       <c r="G201" t="n">
-        <v>-13199.81240050379</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>264</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>263</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7422,24 +7127,21 @@
         <v>42</v>
       </c>
       <c r="G202" t="n">
-        <v>-13157.81240050379</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>264</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>263</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
